--- a/templates/plotlog.xlsx
+++ b/templates/plotlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="LAYERS" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LAYERS!$A$1:$C$704</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ZONES!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ZONES!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="12">
   <si>
     <t>WELL</t>
   </si>
@@ -43,22 +43,19 @@
     <t>ZONE</t>
   </si>
   <si>
-    <t>3П</t>
-  </si>
-  <si>
     <t>5ПГ</t>
   </si>
   <si>
-    <t>6ПГ</t>
+    <t>1П</t>
   </si>
   <si>
-    <t>8ПГ</t>
+    <t>4ПГ</t>
   </si>
   <si>
-    <t>7ПГ</t>
+    <t>MD</t>
   </si>
   <si>
-    <t>Покурская</t>
+    <t>PK</t>
   </si>
 </sst>
 </file>
@@ -101,7 +98,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -114,6 +111,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C299"/>
+  <dimension ref="A1:C203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,3280 +445,2224 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>-1298.4000000000001</v>
+        <v>-1298.5999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>-1299.8</v>
+        <v>-1304.3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>-1299.8</v>
+        <v>-1306</v>
       </c>
       <c r="C3" s="1">
-        <v>-1301.2</v>
+        <v>-1309.3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>-1301.2</v>
+        <v>-1310.5999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>-1301.9000000000001</v>
+        <v>-1311.6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>-1301.9000000000001</v>
+        <v>-1311.6</v>
       </c>
       <c r="C5" s="1">
-        <v>-1303.8</v>
+        <v>-1312.6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>-1303.8</v>
+        <v>-1313.7</v>
       </c>
       <c r="C6" s="1">
-        <v>-1305.5</v>
+        <v>-1314.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>-1306.3</v>
+        <v>-1315.7</v>
       </c>
       <c r="C7" s="1">
-        <v>-1308.8</v>
+        <v>-1316.6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>-1308.8</v>
+        <v>-1316.6</v>
       </c>
       <c r="C8" s="1">
-        <v>-1309.9000000000001</v>
+        <v>-1317.6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>-1310.4000000000001</v>
+        <v>-1317.6</v>
       </c>
       <c r="C9" s="1">
-        <v>-1311.1</v>
+        <v>-1318.6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>-1312.4</v>
+        <v>-1318.6</v>
       </c>
       <c r="C10" s="1">
-        <v>-1313</v>
+        <v>-1320.1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>-1313.8</v>
+        <v>-1321.2</v>
       </c>
       <c r="C11" s="1">
-        <v>-1315.2</v>
+        <v>-1322.4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
-        <v>-1317.3</v>
+        <v>-1323</v>
       </c>
       <c r="C12" s="1">
-        <v>-1319.1</v>
+        <v>-1325.9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1">
-        <v>-1319.9</v>
+        <v>-1325.9</v>
       </c>
       <c r="C13" s="1">
-        <v>-1321</v>
+        <v>-1327.7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>-1321</v>
+        <v>-1327.7</v>
       </c>
       <c r="C14" s="1">
-        <v>-1321.9</v>
+        <v>-1328.8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1">
-        <v>-1321.9</v>
+        <v>-1328.8</v>
       </c>
       <c r="C15" s="1">
-        <v>-1322.7</v>
+        <v>-1330.8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1">
-        <v>-1324</v>
+        <v>-1330.8</v>
       </c>
       <c r="C16" s="1">
-        <v>-1325.2</v>
+        <v>-1332.1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1">
-        <v>-1328.1</v>
+        <v>-1342</v>
       </c>
       <c r="C17" s="1">
-        <v>-1328.9</v>
+        <v>-1344.2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1">
-        <v>-1329.9</v>
+        <v>-1344.9</v>
       </c>
       <c r="C18" s="1">
-        <v>-1330.9</v>
+        <v>-1346.5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1">
-        <v>-1330.9</v>
+        <v>-1346.5</v>
       </c>
       <c r="C19" s="1">
-        <v>-1331.9</v>
+        <v>-1347.6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1">
-        <v>-1331.9</v>
+        <v>-1348.9</v>
       </c>
       <c r="C20" s="1">
-        <v>-1335.4</v>
+        <v>-1349.7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1">
-        <v>-1341.2</v>
+        <v>-1349.7</v>
       </c>
       <c r="C21" s="1">
-        <v>-1342</v>
+        <v>-1350.7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1">
-        <v>-1342</v>
+        <v>-1350.7</v>
       </c>
       <c r="C22" s="1">
-        <v>-1343.9</v>
+        <v>-1352.2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1">
-        <v>-1345.2</v>
+        <v>-1355.1</v>
       </c>
       <c r="C23" s="1">
-        <v>-1346.1</v>
+        <v>-1356.4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" s="1">
-        <v>-1346.7</v>
+        <v>-1356.4</v>
       </c>
       <c r="C24" s="1">
-        <v>-1348</v>
+        <v>-1357.1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1">
-        <v>-1348</v>
+        <v>-1357.7</v>
       </c>
       <c r="C25" s="1">
-        <v>-1349.1</v>
+        <v>-1358.4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1">
-        <v>-1349.1</v>
+        <v>-1358.4</v>
       </c>
       <c r="C26" s="1">
-        <v>-1350.6</v>
+        <v>-1359.3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27" s="1">
-        <v>-1350.6</v>
+        <v>-1360.1</v>
       </c>
       <c r="C27" s="1">
-        <v>-1351.7</v>
+        <v>-1361</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1">
-        <v>-1352.4</v>
+        <v>-1361.9</v>
       </c>
       <c r="C28" s="1">
-        <v>-1353</v>
+        <v>-1362.9</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1">
-        <v>-1353</v>
+        <v>-1363.7</v>
       </c>
       <c r="C29" s="1">
-        <v>-1353.9</v>
+        <v>-1364.3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1">
-        <v>-1355.3</v>
+        <v>-1365.2</v>
       </c>
       <c r="C30" s="1">
-        <v>-1356.6</v>
+        <v>-1366.1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" s="1">
-        <v>-1356.6</v>
+        <v>-1366.6</v>
       </c>
       <c r="C31" s="1">
-        <v>-1358</v>
+        <v>-1367.2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" s="1">
-        <v>-1358</v>
+        <v>-1368.2</v>
       </c>
       <c r="C32" s="1">
-        <v>-1359.1</v>
+        <v>-1371.3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1">
-        <v>-1359.1</v>
+        <v>-1371.3</v>
       </c>
       <c r="C33" s="1">
-        <v>-1360.4</v>
+        <v>-1372.2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34" s="1">
-        <v>-1360.9</v>
+        <v>-1372.2</v>
       </c>
       <c r="C34" s="1">
-        <v>-1361.4</v>
+        <v>-1373</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35" s="1">
-        <v>-1361.4</v>
+        <v>-1373</v>
       </c>
       <c r="C35" s="1">
-        <v>-1362.5</v>
+        <v>-1374</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" s="1">
-        <v>-1362.5</v>
+        <v>-1374</v>
       </c>
       <c r="C36" s="1">
-        <v>-1363.1</v>
+        <v>-1374.6</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1">
-        <v>-1363.1</v>
+        <v>-1374.6</v>
       </c>
       <c r="C37" s="1">
-        <v>-1363.7</v>
+        <v>-1375.5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B38" s="1">
-        <v>-1364.3</v>
+        <v>-1375.5</v>
       </c>
       <c r="C38" s="1">
-        <v>-1365.2</v>
+        <v>-1377.4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39" s="1">
-        <v>-1365.2</v>
+        <v>-1377.4</v>
       </c>
       <c r="C39" s="1">
-        <v>-1367.4</v>
+        <v>-1378.5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" s="1">
-        <v>-1367.4</v>
+        <v>-1378.5</v>
       </c>
       <c r="C40" s="1">
-        <v>-1367.9</v>
+        <v>-1379.3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B41" s="1">
-        <v>-1367.9</v>
+        <v>-1379.3</v>
       </c>
       <c r="C41" s="1">
-        <v>-1368.5</v>
+        <v>-1380.5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B42" s="1">
-        <v>-1369.2</v>
+        <v>-1380.5</v>
       </c>
       <c r="C42" s="1">
-        <v>-1370.2</v>
+        <v>-1381</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B43" s="1">
-        <v>-1370.2</v>
+        <v>-1381</v>
       </c>
       <c r="C43" s="1">
-        <v>-1371.9</v>
+        <v>-1381.5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1">
-        <v>-1371.9</v>
+        <v>-1381.5</v>
       </c>
       <c r="C44" s="1">
-        <v>-1372.7</v>
+        <v>-1382.1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B45" s="1">
-        <v>-1372.7</v>
+        <v>-1382.1</v>
       </c>
       <c r="C45" s="1">
-        <v>-1374.2</v>
+        <v>-1382.9</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B46" s="1">
-        <v>-1374.2</v>
+        <v>-1382.9</v>
       </c>
       <c r="C46" s="1">
-        <v>-1374.8</v>
+        <v>-1384.9</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B47" s="1">
-        <v>-1374.8</v>
+        <v>-1384.9</v>
       </c>
       <c r="C47" s="1">
-        <v>-1376</v>
+        <v>-1385.8</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B48" s="1">
-        <v>-1377.1</v>
+        <v>-1385.8</v>
       </c>
       <c r="C48" s="1">
-        <v>-1377.9</v>
+        <v>-1386.9</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B49" s="1">
-        <v>-1378.6</v>
+        <v>-1386.9</v>
       </c>
       <c r="C49" s="1">
-        <v>-1379</v>
+        <v>-1388.3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B50" s="1">
-        <v>-1379.7</v>
+        <v>-1388.3</v>
       </c>
       <c r="C50" s="1">
-        <v>-1380.7</v>
+        <v>-1390.4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B51" s="1">
-        <v>-1380.7</v>
+        <v>-1390.4</v>
       </c>
       <c r="C51" s="1">
-        <v>-1381.2</v>
+        <v>-1391.1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B52" s="1">
-        <v>-1381.2</v>
+        <v>-1391.1</v>
       </c>
       <c r="C52" s="1">
-        <v>-1381.9</v>
+        <v>-1392.6</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B53" s="1">
-        <v>-1381.9</v>
+        <v>-1394.4</v>
       </c>
       <c r="C53" s="1">
-        <v>-1383</v>
+        <v>-1396.4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B54" s="1">
-        <v>-1383</v>
+        <v>-1396.4</v>
       </c>
       <c r="C54" s="1">
-        <v>-1384.1</v>
+        <v>-1397.6</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B55" s="1">
-        <v>-1384.1</v>
+        <v>-1398.8</v>
       </c>
       <c r="C55" s="1">
-        <v>-1385.4</v>
+        <v>-1399.8</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B56" s="1">
-        <v>-1385.4</v>
+        <v>-1399.8</v>
       </c>
       <c r="C56" s="1">
-        <v>-1386.5</v>
+        <v>-1402.2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B57" s="1">
-        <v>-1386.5</v>
+        <v>-1402.2</v>
       </c>
       <c r="C57" s="1">
-        <v>-1387.7</v>
+        <v>-1403.9</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B58" s="1">
-        <v>-1387.7</v>
+        <v>-1403.9</v>
       </c>
       <c r="C58" s="1">
-        <v>-1388.4</v>
+        <v>-1405.6</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B59" s="1">
-        <v>-1388.4</v>
+        <v>-1405.6</v>
       </c>
       <c r="C59" s="1">
-        <v>-1389</v>
+        <v>-1407.5</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B60" s="1">
-        <v>-1389</v>
+        <v>-1407.5</v>
       </c>
       <c r="C60" s="1">
-        <v>-1389.8</v>
+        <v>-1409.6</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B61" s="1">
-        <v>-1389.8</v>
+        <v>-1409.6</v>
       </c>
       <c r="C61" s="1">
-        <v>-1390.6</v>
+        <v>-1410.4</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B62" s="1">
-        <v>-1390.6</v>
+        <v>-1410.4</v>
       </c>
       <c r="C62" s="1">
-        <v>-1391.2</v>
+        <v>-1413.1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B63" s="1">
-        <v>-1391.2</v>
+        <v>-1413.1</v>
       </c>
       <c r="C63" s="1">
-        <v>-1391.9</v>
+        <v>-1414.2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B64" s="1">
-        <v>-1391.9</v>
+        <v>-1414.2</v>
       </c>
       <c r="C64" s="1">
-        <v>-1392.5</v>
+        <v>-1415</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B65" s="1">
-        <v>-1392.5</v>
+        <v>-1415</v>
       </c>
       <c r="C65" s="1">
-        <v>-1393.2</v>
+        <v>-1416.8</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B66" s="1">
-        <v>-1393.2</v>
+        <v>-1416.8</v>
       </c>
       <c r="C66" s="1">
-        <v>-1394</v>
+        <v>-1418.4</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B67" s="1">
-        <v>-1394</v>
+        <v>-1418.4</v>
       </c>
       <c r="C67" s="1">
-        <v>-1394.6</v>
+        <v>-1419.4</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B68" s="1">
-        <v>-1394.6</v>
+        <v>-1419.4</v>
       </c>
       <c r="C68" s="1">
-        <v>-1395.9</v>
+        <v>-1421.5</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B69" s="1">
-        <v>-1395.9</v>
+        <v>-1421.5</v>
       </c>
       <c r="C69" s="1">
-        <v>-1396.5</v>
+        <v>-1423.7</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B70" s="1">
-        <v>-1396.5</v>
+        <v>-1423.7</v>
       </c>
       <c r="C70" s="1">
-        <v>-1398.2</v>
+        <v>-1424.6</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B71" s="1">
-        <v>-1398.2</v>
+        <v>-1424.6</v>
       </c>
       <c r="C71" s="1">
-        <v>-1399.5</v>
+        <v>-1425.7</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B72" s="1">
-        <v>-1399.5</v>
+        <v>-1425.7</v>
       </c>
       <c r="C72" s="1">
-        <v>-1400.7</v>
+        <v>-1426.6</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B73" s="1">
-        <v>-1400.7</v>
+        <v>-1426.6</v>
       </c>
       <c r="C73" s="1">
-        <v>-1401.6</v>
+        <v>-1428.3</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B74" s="1">
-        <v>-1401.6</v>
+        <v>-1429.5</v>
       </c>
       <c r="C74" s="1">
-        <v>-1403</v>
+        <v>-1430.4</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B75" s="1">
-        <v>-1403</v>
+        <v>-1430.4</v>
       </c>
       <c r="C75" s="1">
-        <v>-1405.5</v>
+        <v>-1430.8</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B76" s="1">
-        <v>-1405.5</v>
+        <v>-1430.8</v>
       </c>
       <c r="C76" s="1">
-        <v>-1406.3</v>
+        <v>-1431.3</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B77" s="1">
-        <v>-1406.3</v>
+        <v>-1431.3</v>
       </c>
       <c r="C77" s="1">
-        <v>-1406.8</v>
+        <v>-1432.1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B78" s="1">
-        <v>-1406.8</v>
+        <v>-1432.1</v>
       </c>
       <c r="C78" s="1">
-        <v>-1407.4</v>
+        <v>-1432.8</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B79" s="1">
-        <v>-1407.4</v>
+        <v>-1432.8</v>
       </c>
       <c r="C79" s="1">
-        <v>-1408.2</v>
+        <v>-1433.7</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B80" s="1">
-        <v>-1408.2</v>
+        <v>-1433.7</v>
       </c>
       <c r="C80" s="1">
-        <v>-1409.3</v>
+        <v>-1434.2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B81" s="1">
-        <v>-1409.3</v>
+        <v>-1434.2</v>
       </c>
       <c r="C81" s="1">
-        <v>-1410.6</v>
+        <v>-1434.9</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B82" s="1">
-        <v>-1410.6</v>
+        <v>-1434.9</v>
       </c>
       <c r="C82" s="1">
-        <v>-1411.6</v>
+        <v>-1435.5</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B83" s="1">
-        <v>-1411.6</v>
+        <v>-1435.5</v>
       </c>
       <c r="C83" s="1">
-        <v>-1412.6</v>
+        <v>-1437.5</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B84" s="1">
-        <v>-1412.6</v>
+        <v>-1297.3119999999999</v>
       </c>
       <c r="C84" s="1">
-        <v>-1413.2</v>
+        <v>-1299.3119999999999</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B85" s="1">
-        <v>-1414</v>
+        <v>-1299.3119999999999</v>
       </c>
       <c r="C85" s="1">
-        <v>-1415.9</v>
+        <v>-1300.412</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B86" s="1">
-        <v>-1417.2</v>
+        <v>-1300.412</v>
       </c>
       <c r="C86" s="1">
-        <v>-1418</v>
+        <v>-1303.212</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B87" s="1">
-        <v>-1418</v>
+        <v>-1303.212</v>
       </c>
       <c r="C87" s="1">
-        <v>-1418.4</v>
+        <v>-1304.912</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B88" s="1">
-        <v>-1418.4</v>
+        <v>-1304.912</v>
       </c>
       <c r="C88" s="1">
-        <v>-1418.9</v>
+        <v>-1308.212</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B89" s="1">
-        <v>-1419.9</v>
+        <v>-1308.8119999999999</v>
       </c>
       <c r="C89" s="1">
-        <v>-1420.6</v>
+        <v>-1309.712</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B90" s="1">
-        <v>-1421.3</v>
+        <v>-1309.712</v>
       </c>
       <c r="C90" s="1">
-        <v>-1422.8</v>
+        <v>-1310.6120000000001</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B91" s="1">
-        <v>-1422.8</v>
+        <v>-1310.6120000000001</v>
       </c>
       <c r="C91" s="1">
-        <v>-1424.1</v>
+        <v>-1311.5119999999999</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B92" s="1">
-        <v>-1424.1</v>
+        <v>-1311.5119999999999</v>
       </c>
       <c r="C92" s="1">
-        <v>-1425.1</v>
+        <v>-1312.212</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B93" s="1">
-        <v>-1425.1</v>
+        <v>-1312.212</v>
       </c>
       <c r="C93" s="1">
-        <v>-1426.3</v>
+        <v>-1313.3119999999999</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B94" s="1">
-        <v>-1426.3</v>
+        <v>-1314.212</v>
       </c>
       <c r="C94" s="1">
-        <v>-1427.1</v>
+        <v>-1315.212</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B95" s="1">
-        <v>-1429.2</v>
+        <v>-1315.212</v>
       </c>
       <c r="C95" s="1">
-        <v>-1430.4</v>
+        <v>-1316.5119999999999</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B96" s="1">
-        <v>-1430.8</v>
+        <v>-1316.5119999999999</v>
       </c>
       <c r="C96" s="1">
-        <v>-1431.4</v>
+        <v>-1317.6120000000001</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B97" s="1">
-        <v>-1433.6</v>
+        <v>-1317.6120000000001</v>
       </c>
       <c r="C97" s="1">
-        <v>-1434.5</v>
+        <v>-1318.711</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B98" s="1">
-        <v>-1434.5</v>
+        <v>-1318.711</v>
       </c>
       <c r="C98" s="1">
-        <v>-1435</v>
+        <v>-1319.4110000000001</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B99" s="1">
-        <v>-1435</v>
+        <v>-1319.4110000000001</v>
       </c>
       <c r="C99" s="1">
-        <v>-1435.7</v>
+        <v>-1320.3109999999999</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B100" s="1">
-        <v>-1435.7</v>
+        <v>-1320.3109999999999</v>
       </c>
       <c r="C100" s="1">
-        <v>-1436.4</v>
+        <v>-1321.1110000000001</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B101" s="1">
-        <v>-1437.6</v>
+        <v>-1322.4110000000001</v>
       </c>
       <c r="C101" s="1">
-        <v>-1439</v>
+        <v>-1324.6110000000001</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B102" s="1">
-        <v>-1439</v>
+        <v>-1326.4110000000001</v>
       </c>
       <c r="C102" s="1">
-        <v>-1439.9</v>
+        <v>-1327.511</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B103" s="1">
-        <v>-1439.9</v>
+        <v>-1328.511</v>
       </c>
       <c r="C103" s="1">
-        <v>-1445</v>
+        <v>-1330.9110000000001</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B104" s="1">
-        <v>-1297.2239999999999</v>
+        <v>-1330.9110000000001</v>
       </c>
       <c r="C104" s="1">
-        <v>-1302.92</v>
+        <v>-1333.511</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B105" s="1">
-        <v>-1302.92</v>
+        <v>-1338.4110000000001</v>
       </c>
       <c r="C105" s="1">
-        <v>-1304.9190000000001</v>
+        <v>-1341.511</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B106" s="1">
-        <v>-1304.9190000000001</v>
+        <v>-1343.711</v>
       </c>
       <c r="C106" s="1">
-        <v>-1308.5170000000001</v>
+        <v>-1345.9110000000001</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B107" s="1">
-        <v>-1309.317</v>
+        <v>-1345.9110000000001</v>
       </c>
       <c r="C107" s="1">
-        <v>-1309.816</v>
+        <v>-1346.8109999999999</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B108" s="1">
-        <v>-1310.316</v>
+        <v>-1347.6110000000001</v>
       </c>
       <c r="C108" s="1">
-        <v>-1311.115</v>
+        <v>-1350.9110000000001</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B109" s="1">
-        <v>-1311.115</v>
+        <v>-1350.9110000000001</v>
       </c>
       <c r="C109" s="1">
-        <v>-1311.915</v>
+        <v>-1353.4110000000001</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B110" s="1">
-        <v>-1311.915</v>
+        <v>-1353.4110000000001</v>
       </c>
       <c r="C110" s="1">
-        <v>-1312.5150000000001</v>
+        <v>-1356.711</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B111" s="1">
-        <v>-1312.5150000000001</v>
+        <v>-1356.711</v>
       </c>
       <c r="C111" s="1">
-        <v>-1313.3140000000001</v>
+        <v>-1357.711</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B112" s="1">
-        <v>-1313.3140000000001</v>
+        <v>-1357.711</v>
       </c>
       <c r="C112" s="1">
-        <v>-1314.3140000000001</v>
+        <v>-1359.3109999999999</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B113" s="1">
-        <v>-1314.3140000000001</v>
+        <v>-1359.3109999999999</v>
       </c>
       <c r="C113" s="1">
-        <v>-1315.8130000000001</v>
+        <v>-1360.711</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B114" s="1">
-        <v>-1315.8130000000001</v>
+        <v>-1360.711</v>
       </c>
       <c r="C114" s="1">
-        <v>-1316.6120000000001</v>
+        <v>-1361.41</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B115" s="1">
-        <v>-1316.6120000000001</v>
+        <v>-1361.41</v>
       </c>
       <c r="C115" s="1">
-        <v>-1318.1110000000001</v>
+        <v>-1362.31</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B116" s="1">
-        <v>-1318.1110000000001</v>
+        <v>-1362.31</v>
       </c>
       <c r="C116" s="1">
-        <v>-1319.1110000000001</v>
+        <v>-1364.11</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B117" s="1">
-        <v>-1319.1110000000001</v>
+        <v>-1364.11</v>
       </c>
       <c r="C117" s="1">
-        <v>-1321.01</v>
+        <v>-1365.71</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B118" s="1">
-        <v>-1322.508</v>
+        <v>-1365.71</v>
       </c>
       <c r="C118" s="1">
-        <v>-1324.9059999999999</v>
+        <v>-1367.61</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B119" s="1">
-        <v>-1324.9059999999999</v>
+        <v>-1368.61</v>
       </c>
       <c r="C119" s="1">
-        <v>-1327.8040000000001</v>
+        <v>-1369.41</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B120" s="1">
-        <v>-1330.3019999999999</v>
+        <v>-1369.41</v>
       </c>
       <c r="C120" s="1">
-        <v>-1333.5</v>
+        <v>-1370.21</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B121" s="1">
-        <v>-1340.4939999999999</v>
+        <v>-1370.21</v>
       </c>
       <c r="C121" s="1">
-        <v>-1342.692</v>
+        <v>-1372.51</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B122" s="1">
-        <v>-1342.692</v>
+        <v>-1373.91</v>
       </c>
       <c r="C122" s="1">
-        <v>-1344.3910000000001</v>
+        <v>-1374.81</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B123" s="1">
-        <v>-1345.69</v>
+        <v>-1376.61</v>
       </c>
       <c r="C123" s="1">
-        <v>-1347.288</v>
+        <v>-1378.81</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B124" s="1">
-        <v>-1347.288</v>
+        <v>-1378.81</v>
       </c>
       <c r="C124" s="1">
-        <v>-1348.1869999999999</v>
+        <v>-1380.21</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B125" s="1">
-        <v>-1348.1869999999999</v>
+        <v>-1380.21</v>
       </c>
       <c r="C125" s="1">
-        <v>-1348.9860000000001</v>
+        <v>-1381.21</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B126" s="1">
-        <v>-1348.9860000000001</v>
+        <v>-1381.21</v>
       </c>
       <c r="C126" s="1">
-        <v>-1350.4849999999999</v>
+        <v>-1383.21</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B127" s="1">
-        <v>-1350.4849999999999</v>
+        <v>-1383.21</v>
       </c>
       <c r="C127" s="1">
-        <v>-1352.4829999999999</v>
+        <v>-1385.4090000000001</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B128" s="1">
-        <v>-1352.4829999999999</v>
+        <v>-1385.9090000000001</v>
       </c>
       <c r="C128" s="1">
-        <v>-1354.98</v>
+        <v>-1386.51</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B129" s="1">
-        <v>-1354.98</v>
+        <v>-1388.009</v>
       </c>
       <c r="C129" s="1">
-        <v>-1356.9780000000001</v>
+        <v>-1389.509</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B130" s="1">
-        <v>-1356.9780000000001</v>
+        <v>-1389.509</v>
       </c>
       <c r="C130" s="1">
-        <v>-1358.6759999999999</v>
+        <v>-1391.1089999999999</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B131" s="1">
-        <v>-1358.6759999999999</v>
+        <v>-1391.1089999999999</v>
       </c>
       <c r="C131" s="1">
-        <v>-1360.9739999999999</v>
+        <v>-1391.9090000000001</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B132" s="1">
-        <v>-1360.9739999999999</v>
+        <v>-1391.9090000000001</v>
       </c>
       <c r="C132" s="1">
-        <v>-1363.8710000000001</v>
+        <v>-1393.009</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B133" s="1">
-        <v>-1364.67</v>
+        <v>-1393.009</v>
       </c>
       <c r="C133" s="1">
-        <v>-1365.769</v>
+        <v>-1394.009</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B134" s="1">
-        <v>-1366.768</v>
+        <v>-1394.6089999999999</v>
       </c>
       <c r="C134" s="1">
-        <v>-1370.165</v>
+        <v>-1396.509</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B135" s="1">
-        <v>-1371.164</v>
+        <v>-1396.509</v>
       </c>
       <c r="C135" s="1">
-        <v>-1372.163</v>
+        <v>-1399.009</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B136" s="1">
-        <v>-1372.163</v>
+        <v>-1399.009</v>
       </c>
       <c r="C136" s="1">
-        <v>-1373.162</v>
+        <v>-1402.009</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B137" s="1">
-        <v>-1373.5609999999999</v>
+        <v>-1402.009</v>
       </c>
       <c r="C137" s="1">
-        <v>-1374.1610000000001</v>
+        <v>-1403.309</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B138" s="1">
-        <v>-1374.1610000000001</v>
+        <v>-1403.309</v>
       </c>
       <c r="C138" s="1">
-        <v>-1375.46</v>
+        <v>-1406.2090000000001</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B139" s="1">
-        <v>-1375.46</v>
+        <v>-1406.2090000000001</v>
       </c>
       <c r="C139" s="1">
-        <v>-1377.4580000000001</v>
+        <v>-1407.7090000000001</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B140" s="1">
-        <v>-1377.4580000000001</v>
+        <v>-1407.7090000000001</v>
       </c>
       <c r="C140" s="1">
-        <v>-1378.7560000000001</v>
+        <v>-1411.308</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B141" s="1">
-        <v>-1378.7560000000001</v>
+        <v>-1413.808</v>
       </c>
       <c r="C141" s="1">
-        <v>-1379.655</v>
+        <v>-1415.7080000000001</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B142" s="1">
-        <v>-1379.655</v>
+        <v>-1417.009</v>
       </c>
       <c r="C142" s="1">
-        <v>-1381.354</v>
+        <v>-1418.7080000000001</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B143" s="1">
-        <v>-1381.354</v>
+        <v>-1418.7080000000001</v>
       </c>
       <c r="C143" s="1">
-        <v>-1383.8510000000001</v>
+        <v>-1420.808</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B144" s="1">
-        <v>-1383.8510000000001</v>
+        <v>-1421.808</v>
       </c>
       <c r="C144" s="1">
-        <v>-1387.7470000000001</v>
+        <v>-1426.808</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B145" s="1">
-        <v>-1387.7470000000001</v>
+        <v>-1438.4079999999999</v>
       </c>
       <c r="C145" s="1">
-        <v>-1389.146</v>
+        <v>-1440.7080000000001</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B146" s="1">
-        <v>-1389.146</v>
+        <v>-1442.008</v>
       </c>
       <c r="C146" s="1">
-        <v>-1395.44</v>
+        <v>-1444.4069999999999</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B147" s="1">
-        <v>-1395.44</v>
+        <v>-1444.4069999999999</v>
       </c>
       <c r="C147" s="1">
-        <v>-1397.038</v>
+        <v>-1451.0070000000001</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B148" s="1">
-        <v>-1397.038</v>
+        <v>-1297.2239999999999</v>
       </c>
       <c r="C148" s="1">
-        <v>-1399.136</v>
+        <v>-1302.92</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B149" s="1">
-        <v>-1402.0329999999999</v>
+        <v>-1302.92</v>
       </c>
       <c r="C149" s="1">
-        <v>-1405.43</v>
+        <v>-1304.9190000000001</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B150" s="1">
-        <v>-1405.43</v>
+        <v>-1304.9190000000001</v>
       </c>
       <c r="C150" s="1">
-        <v>-1410.2249999999999</v>
+        <v>-1308.5170000000001</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B151" s="1">
-        <v>-1410.2249999999999</v>
+        <v>-1309.317</v>
       </c>
       <c r="C151" s="1">
-        <v>-1411.923</v>
+        <v>-1309.816</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B152" s="1">
-        <v>-1411.923</v>
+        <v>-1310.316</v>
       </c>
       <c r="C152" s="1">
-        <v>-1412.722</v>
+        <v>-1311.115</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B153" s="1">
-        <v>-1413.521</v>
+        <v>-1311.115</v>
       </c>
       <c r="C153" s="1">
-        <v>-1414.221</v>
+        <v>-1311.915</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B154" s="1">
-        <v>-1414.92</v>
+        <v>-1311.915</v>
       </c>
       <c r="C154" s="1">
-        <v>-1415.519</v>
+        <v>-1312.5150000000001</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B155" s="1">
-        <v>-1415.519</v>
+        <v>-1312.5150000000001</v>
       </c>
       <c r="C155" s="1">
-        <v>-1419.5150000000001</v>
+        <v>-1313.3140000000001</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B156" s="1">
-        <v>-1420.614</v>
+        <v>-1313.3140000000001</v>
       </c>
       <c r="C156" s="1">
-        <v>-1425.61</v>
+        <v>-1314.3140000000001</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B157" s="1">
-        <v>-1425.61</v>
+        <v>-1314.3140000000001</v>
       </c>
       <c r="C157" s="1">
-        <v>-1427.009</v>
+        <v>-1315.8130000000001</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B158" s="1">
-        <v>-1430.7059999999999</v>
+        <v>-1315.8130000000001</v>
       </c>
       <c r="C158" s="1">
-        <v>-1432.104</v>
+        <v>-1316.6120000000001</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B159" s="1">
-        <v>-1434.203</v>
+        <v>-1316.6120000000001</v>
       </c>
       <c r="C159" s="1">
-        <v>-1434.902</v>
+        <v>-1318.1110000000001</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B160" s="1">
-        <v>-1298.5550000000001</v>
+        <v>-1318.1110000000001</v>
       </c>
       <c r="C160" s="1">
-        <v>-1299.855</v>
+        <v>-1319.1110000000001</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B161" s="1">
-        <v>-1299.855</v>
+        <v>-1319.1110000000001</v>
       </c>
       <c r="C161" s="1">
-        <v>-1303.855</v>
+        <v>-1321.01</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B162" s="1">
-        <v>-1303.855</v>
+        <v>-1322.508</v>
       </c>
       <c r="C162" s="1">
-        <v>-1305.9549999999999</v>
+        <v>-1324.9059999999999</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B163" s="1">
-        <v>-1305.9549999999999</v>
+        <v>-1324.9059999999999</v>
       </c>
       <c r="C163" s="1">
-        <v>-1307.7550000000001</v>
+        <v>-1327.8040000000001</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B164" s="1">
-        <v>-1307.7550000000001</v>
+        <v>-1330.3019999999999</v>
       </c>
       <c r="C164" s="1">
-        <v>-1309.7550000000001</v>
+        <v>-1333.5</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B165" s="1">
-        <v>-1310.9549999999999</v>
+        <v>-1340.4939999999999</v>
       </c>
       <c r="C165" s="1">
-        <v>-1311.855</v>
+        <v>-1342.692</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B166" s="1">
-        <v>-1312.454</v>
+        <v>-1342.692</v>
       </c>
       <c r="C166" s="1">
-        <v>-1313.2550000000001</v>
+        <v>-1344.3910000000001</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B167" s="1">
-        <v>-1313.954</v>
+        <v>-1345.69</v>
       </c>
       <c r="C167" s="1">
-        <v>-1314.954</v>
+        <v>-1347.288</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B168" s="1">
-        <v>-1315.854</v>
+        <v>-1347.288</v>
       </c>
       <c r="C168" s="1">
-        <v>-1317.154</v>
+        <v>-1348.1869999999999</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B169" s="1">
-        <v>-1317.154</v>
+        <v>-1348.1869999999999</v>
       </c>
       <c r="C169" s="1">
-        <v>-1318.0540000000001</v>
+        <v>-1348.9860000000001</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B170" s="1">
-        <v>-1318.0540000000001</v>
+        <v>-1348.9860000000001</v>
       </c>
       <c r="C170" s="1">
-        <v>-1319.354</v>
+        <v>-1350.4849999999999</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B171" s="1">
-        <v>-1319.354</v>
+        <v>-1350.4849999999999</v>
       </c>
       <c r="C171" s="1">
-        <v>-1320.354</v>
+        <v>-1352.4829999999999</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B172" s="1">
-        <v>-1320.354</v>
+        <v>-1352.4829999999999</v>
       </c>
       <c r="C172" s="1">
-        <v>-1322.154</v>
+        <v>-1354.98</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B173" s="1">
-        <v>-1323.954</v>
+        <v>-1354.98</v>
       </c>
       <c r="C173" s="1">
-        <v>-1326.454</v>
+        <v>-1356.9780000000001</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B174" s="1">
-        <v>-1328.0540000000001</v>
+        <v>-1356.9780000000001</v>
       </c>
       <c r="C174" s="1">
-        <v>-1329.454</v>
+        <v>-1358.6759999999999</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B175" s="1">
-        <v>-1341.8530000000001</v>
+        <v>-1358.6759999999999</v>
       </c>
       <c r="C175" s="1">
-        <v>-1343.7529999999999</v>
+        <v>-1360.9739999999999</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B176" s="1">
-        <v>-1346.0530000000001</v>
+        <v>-1360.9739999999999</v>
       </c>
       <c r="C176" s="1">
-        <v>-1348.453</v>
+        <v>-1363.8710000000001</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B177" s="1">
-        <v>-1349.453</v>
+        <v>-1364.67</v>
       </c>
       <c r="C177" s="1">
-        <v>-1350.153</v>
+        <v>-1365.769</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B178" s="1">
-        <v>-1350.953</v>
+        <v>-1366.768</v>
       </c>
       <c r="C178" s="1">
-        <v>-1352.153</v>
+        <v>-1370.165</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B179" s="1">
-        <v>-1356.7529999999999</v>
+        <v>-1371.164</v>
       </c>
       <c r="C179" s="1">
-        <v>-1359.8520000000001</v>
+        <v>-1372.163</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B180" s="1">
-        <v>-1359.8520000000001</v>
+        <v>-1372.163</v>
       </c>
       <c r="C180" s="1">
-        <v>-1360.152</v>
+        <v>-1373.162</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B181" s="1">
-        <v>-1360.152</v>
+        <v>-1373.5609999999999</v>
       </c>
       <c r="C181" s="1">
-        <v>-1360.8520000000001</v>
+        <v>-1374.1610000000001</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B182" s="1">
-        <v>-1361.452</v>
+        <v>-1374.1610000000001</v>
       </c>
       <c r="C182" s="1">
-        <v>-1362.952</v>
+        <v>-1375.46</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B183" s="1">
-        <v>-1363.752</v>
+        <v>-1375.46</v>
       </c>
       <c r="C183" s="1">
-        <v>-1365.0519999999999</v>
+        <v>-1377.4580000000001</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B184" s="1">
-        <v>-1365.952</v>
+        <v>-1377.4580000000001</v>
       </c>
       <c r="C184" s="1">
-        <v>-1366.5519999999999</v>
+        <v>-1378.7560000000001</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B185" s="1">
-        <v>-1367.0519999999999</v>
+        <v>-1378.7560000000001</v>
       </c>
       <c r="C185" s="1">
-        <v>-1367.8520000000001</v>
+        <v>-1379.655</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B186" s="1">
-        <v>-1368.3520000000001</v>
+        <v>-1379.655</v>
       </c>
       <c r="C186" s="1">
-        <v>-1369.8520000000001</v>
+        <v>-1381.354</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B187" s="1">
-        <v>-1370.3520000000001</v>
+        <v>-1381.354</v>
       </c>
       <c r="C187" s="1">
-        <v>-1371.652</v>
+        <v>-1383.8510000000001</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B188" s="1">
-        <v>-1372.652</v>
+        <v>-1383.8510000000001</v>
       </c>
       <c r="C188" s="1">
-        <v>-1374.152</v>
+        <v>-1387.7470000000001</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B189" s="1">
-        <v>-1375.0519999999999</v>
+        <v>-1387.7470000000001</v>
       </c>
       <c r="C189" s="1">
-        <v>-1376.0519999999999</v>
+        <v>-1389.146</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B190" s="1">
-        <v>-1377.652</v>
+        <v>-1389.146</v>
       </c>
       <c r="C190" s="1">
-        <v>-1379.652</v>
+        <v>-1395.44</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B191" s="1">
-        <v>-1381.0519999999999</v>
+        <v>-1395.44</v>
       </c>
       <c r="C191" s="1">
-        <v>-1381.6510000000001</v>
+        <v>-1397.038</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B192" s="1">
-        <v>-1382.6510000000001</v>
+        <v>-1397.038</v>
       </c>
       <c r="C192" s="1">
-        <v>-1385.451</v>
+        <v>-1399.136</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B193" s="1">
-        <v>-1386.5509999999999</v>
+        <v>-1402.0329999999999</v>
       </c>
       <c r="C193" s="1">
-        <v>-1387.6510000000001</v>
+        <v>-1405.43</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B194" s="1">
-        <v>-1388.8510000000001</v>
+        <v>-1405.43</v>
       </c>
       <c r="C194" s="1">
-        <v>-1391.5509999999999</v>
+        <v>-1410.2249999999999</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B195" s="1">
-        <v>-1393.1510000000001</v>
+        <v>-1410.2249999999999</v>
       </c>
       <c r="C195" s="1">
-        <v>-1394.6510000000001</v>
+        <v>-1411.923</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B196" s="1">
-        <v>-1394.6510000000001</v>
+        <v>-1411.923</v>
       </c>
       <c r="C196" s="1">
-        <v>-1395.6510000000001</v>
+        <v>-1412.722</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B197" s="1">
-        <v>-1395.6510000000001</v>
+        <v>-1413.521</v>
       </c>
       <c r="C197" s="1">
-        <v>-1397.1510000000001</v>
+        <v>-1414.221</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B198" s="1">
-        <v>-1397.751</v>
+        <v>-1414.92</v>
       </c>
       <c r="C198" s="1">
-        <v>-1398.5509999999999</v>
+        <v>-1415.519</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B199" s="1">
-        <v>-1399.751</v>
+        <v>-1415.519</v>
       </c>
       <c r="C199" s="1">
-        <v>-1401.0509999999999</v>
+        <v>-1419.5150000000001</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B200" s="1">
-        <v>-1401.8510000000001</v>
+        <v>-1420.614</v>
       </c>
       <c r="C200" s="1">
-        <v>-1403.8510000000001</v>
+        <v>-1425.61</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B201" s="1">
-        <v>-1405.1510000000001</v>
+        <v>-1425.61</v>
       </c>
       <c r="C201" s="1">
-        <v>-1406.55</v>
+        <v>-1427.009</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B202" s="1">
-        <v>-1406.55</v>
+        <v>-1430.7059999999999</v>
       </c>
       <c r="C202" s="1">
-        <v>-1411.15</v>
+        <v>-1432.104</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B203" s="1">
-        <v>-1411.15</v>
+        <v>-1434.203</v>
       </c>
       <c r="C203" s="1">
-        <v>-1412.45</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B204" s="1">
-        <v>-1413.05</v>
-      </c>
-      <c r="C204" s="1">
-        <v>-1414.15</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B205" s="1">
-        <v>-1415.25</v>
-      </c>
-      <c r="C205" s="1">
-        <v>-1416.35</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B206" s="1">
-        <v>-1418.15</v>
-      </c>
-      <c r="C206" s="1">
-        <v>-1419.75</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B207" s="1">
-        <v>-1422.15</v>
-      </c>
-      <c r="C207" s="1">
-        <v>-1426.1489999999999</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B208" s="1">
-        <v>-1429.549</v>
-      </c>
-      <c r="C208" s="1">
-        <v>-1430.6489999999999</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B209" s="1">
-        <v>-1297.3820000000001</v>
-      </c>
-      <c r="C209" s="1">
-        <v>-1300.8820000000001</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B210" s="1">
-        <v>-1301.8820000000001</v>
-      </c>
-      <c r="C210" s="1">
-        <v>-1307.0820000000001</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B211" s="1">
-        <v>-1307.0820000000001</v>
-      </c>
-      <c r="C211" s="1">
-        <v>-1309.2819999999999</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B212" s="1">
-        <v>-1309.2819999999999</v>
-      </c>
-      <c r="C212" s="1">
-        <v>-1313.3820000000001</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B213" s="1">
-        <v>-1314.7819999999999</v>
-      </c>
-      <c r="C213" s="1">
-        <v>-1316.982</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B214" s="1">
-        <v>-1316.982</v>
-      </c>
-      <c r="C214" s="1">
-        <v>-1319.482</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B215" s="1">
-        <v>-1319.482</v>
-      </c>
-      <c r="C215" s="1">
-        <v>-1322.682</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B216" s="1">
-        <v>-1322.682</v>
-      </c>
-      <c r="C216" s="1">
-        <v>-1323.982</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B217" s="1">
-        <v>-1323.982</v>
-      </c>
-      <c r="C217" s="1">
-        <v>-1326.182</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B218" s="1">
-        <v>-1332.2809999999999</v>
-      </c>
-      <c r="C218" s="1">
-        <v>-1335.7809999999999</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B219" s="1">
-        <v>-1339.0809999999999</v>
-      </c>
-      <c r="C219" s="1">
-        <v>-1340.981</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B220" s="1">
-        <v>-1347.0809999999999</v>
-      </c>
-      <c r="C220" s="1">
-        <v>-1349.0809999999999</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B221" s="1">
-        <v>-1349.0809999999999</v>
-      </c>
-      <c r="C221" s="1">
-        <v>-1351.7809999999999</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B222" s="1">
-        <v>-1353.181</v>
-      </c>
-      <c r="C222" s="1">
-        <v>-1357.3810000000001</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B223" s="1">
-        <v>-1362.0809999999999</v>
-      </c>
-      <c r="C223" s="1">
-        <v>-1364.3810000000001</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B224" s="1">
-        <v>-1364.3810000000001</v>
-      </c>
-      <c r="C224" s="1">
-        <v>-1366.0809999999999</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B225" s="1">
-        <v>-1366.0809999999999</v>
-      </c>
-      <c r="C225" s="1">
-        <v>-1367.8810000000001</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B226" s="1">
-        <v>-1367.8810000000001</v>
-      </c>
-      <c r="C226" s="1">
-        <v>-1371.7809999999999</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B227" s="1">
-        <v>-1374.3810000000001</v>
-      </c>
-      <c r="C227" s="1">
-        <v>-1377.3810000000001</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B228" s="1">
-        <v>-1377.3810000000001</v>
-      </c>
-      <c r="C228" s="1">
-        <v>-1379.3810000000001</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B229" s="1">
-        <v>-1379.3810000000001</v>
-      </c>
-      <c r="C229" s="1">
-        <v>-1380.481</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B230" s="1">
-        <v>-1381.681</v>
-      </c>
-      <c r="C230" s="1">
-        <v>-1383.88</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B231" s="1">
-        <v>-1383.88</v>
-      </c>
-      <c r="C231" s="1">
-        <v>-1387.58</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B232" s="1">
-        <v>-1387.58</v>
-      </c>
-      <c r="C232" s="1">
-        <v>-1392.28</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B233" s="1">
-        <v>-1392.28</v>
-      </c>
-      <c r="C233" s="1">
-        <v>-1394.18</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B234" s="1">
-        <v>-1394.98</v>
-      </c>
-      <c r="C234" s="1">
-        <v>-1396.78</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B235" s="1">
-        <v>-1399.28</v>
-      </c>
-      <c r="C235" s="1">
-        <v>-1402.98</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B236" s="1">
-        <v>-1402.98</v>
-      </c>
-      <c r="C236" s="1">
-        <v>-1404.68</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B237" s="1">
-        <v>-1404.68</v>
-      </c>
-      <c r="C237" s="1">
-        <v>-1409.98</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B238" s="1">
-        <v>-1409.98</v>
-      </c>
-      <c r="C238" s="1">
-        <v>-1411.68</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B239" s="1">
-        <v>-1411.68</v>
-      </c>
-      <c r="C239" s="1">
-        <v>-1415.18</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B240" s="1">
-        <v>-1418.28</v>
-      </c>
-      <c r="C240" s="1">
-        <v>-1420.479</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B241" s="1">
-        <v>-1420.479</v>
-      </c>
-      <c r="C241" s="1">
-        <v>-1422.079</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B242" s="1">
-        <v>-1422.079</v>
-      </c>
-      <c r="C242" s="1">
-        <v>-1423.579</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B243" s="1">
-        <v>-1423.579</v>
-      </c>
-      <c r="C243" s="1">
-        <v>-1426.1790000000001</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B244" s="1">
-        <v>-1426.1790000000001</v>
-      </c>
-      <c r="C244" s="1">
-        <v>-1427.6790000000001</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B245" s="1">
-        <v>-1427.6790000000001</v>
-      </c>
-      <c r="C245" s="1">
-        <v>-1430.479</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B246" s="1">
-        <v>-1436.1790000000001</v>
-      </c>
-      <c r="C246" s="1">
-        <v>-1440.579</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B247" s="1">
-        <v>-1442.278</v>
-      </c>
-      <c r="C247" s="1">
-        <v>-1444.778</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B248" s="1">
-        <v>-1446.4780000000001</v>
-      </c>
-      <c r="C248" s="1">
-        <v>-1448.4780000000001</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B249" s="1">
-        <v>-1448.4780000000001</v>
-      </c>
-      <c r="C249" s="1">
-        <v>-1450.1780000000001</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B250" s="1">
-        <v>-1300.0160000000001</v>
-      </c>
-      <c r="C250" s="1">
-        <v>-1312.0160000000001</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B251" s="1">
-        <v>-1313.0160000000001</v>
-      </c>
-      <c r="C251" s="1">
-        <v>-1315.0160000000001</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B252" s="1">
-        <v>-1315.0160000000001</v>
-      </c>
-      <c r="C252" s="1">
-        <v>-1315.616</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B253" s="1">
-        <v>-1315.616</v>
-      </c>
-      <c r="C253" s="1">
-        <v>-1316.316</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B254" s="1">
-        <v>-1316.316</v>
-      </c>
-      <c r="C254" s="1">
-        <v>-1317.316</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B255" s="1">
-        <v>-1318.316</v>
-      </c>
-      <c r="C255" s="1">
-        <v>-1319.616</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B256" s="1">
-        <v>-1319.616</v>
-      </c>
-      <c r="C256" s="1">
-        <v>-1320.4159999999999</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B257" s="1">
-        <v>-1320.4159999999999</v>
-      </c>
-      <c r="C257" s="1">
-        <v>-1321.816</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B258" s="1">
-        <v>-1322.816</v>
-      </c>
-      <c r="C258" s="1">
-        <v>-1324.816</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B259" s="1">
-        <v>-1326.615</v>
-      </c>
-      <c r="C259" s="1">
-        <v>-1330.2149999999999</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B260" s="1">
-        <v>-1331.115</v>
-      </c>
-      <c r="C260" s="1">
-        <v>-1332.3150000000001</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B261" s="1">
-        <v>-1332.3150000000001</v>
-      </c>
-      <c r="C261" s="1">
-        <v>-1333.615</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B262" s="1">
-        <v>-1335.0150000000001</v>
-      </c>
-      <c r="C262" s="1">
-        <v>-1336.115</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B263" s="1">
-        <v>-1345.115</v>
-      </c>
-      <c r="C263" s="1">
-        <v>-1347.115</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B264" s="1">
-        <v>-1349.914</v>
-      </c>
-      <c r="C264" s="1">
-        <v>-1352.115</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B265" s="1">
-        <v>-1352.115</v>
-      </c>
-      <c r="C265" s="1">
-        <v>-1353.414</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B266" s="1">
-        <v>-1353.414</v>
-      </c>
-      <c r="C266" s="1">
-        <v>-1354.7139999999999</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B267" s="1">
-        <v>-1354.7139999999999</v>
-      </c>
-      <c r="C267" s="1">
-        <v>-1356.5139999999999</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B268" s="1">
-        <v>-1361.114</v>
-      </c>
-      <c r="C268" s="1">
-        <v>-1362.7139999999999</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B269" s="1">
-        <v>-1363.2139999999999</v>
-      </c>
-      <c r="C269" s="1">
-        <v>-1364.2139999999999</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B270" s="1">
-        <v>-1364.2139999999999</v>
-      </c>
-      <c r="C270" s="1">
-        <v>-1365.414</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B271" s="1">
-        <v>-1366.2139999999999</v>
-      </c>
-      <c r="C271" s="1">
-        <v>-1367.2139999999999</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B272" s="1">
-        <v>-1368.2139999999999</v>
-      </c>
-      <c r="C272" s="1">
-        <v>-1371.614</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B273" s="1">
-        <v>-1371.614</v>
-      </c>
-      <c r="C273" s="1">
-        <v>-1372.114</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B274" s="1">
-        <v>-1374.2139999999999</v>
-      </c>
-      <c r="C274" s="1">
-        <v>-1375.413</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B275" s="1">
-        <v>-1376.1130000000001</v>
-      </c>
-      <c r="C275" s="1">
-        <v>-1377.213</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B276" s="1">
-        <v>-1379.0129999999999</v>
-      </c>
-      <c r="C276" s="1">
-        <v>-1380.6130000000001</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B277" s="1">
-        <v>-1381.5129999999999</v>
-      </c>
-      <c r="C277" s="1">
-        <v>-1382.413</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B278" s="1">
-        <v>-1383.413</v>
-      </c>
-      <c r="C278" s="1">
-        <v>-1384.8130000000001</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B279" s="1">
-        <v>-1386.213</v>
-      </c>
-      <c r="C279" s="1">
-        <v>-1389.1130000000001</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B280" s="1">
-        <v>-1391.6130000000001</v>
-      </c>
-      <c r="C280" s="1">
-        <v>-1393.213</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B281" s="1">
-        <v>-1393.213</v>
-      </c>
-      <c r="C281" s="1">
-        <v>-1397.6130000000001</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B282" s="1">
-        <v>-1397.6130000000001</v>
-      </c>
-      <c r="C282" s="1">
-        <v>-1398.413</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B283" s="1">
-        <v>-1398.413</v>
-      </c>
-      <c r="C283" s="1">
-        <v>-1400.913</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B284" s="1">
-        <v>-1400.913</v>
-      </c>
-      <c r="C284" s="1">
-        <v>-1402.713</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B285" s="1">
-        <v>-1402.713</v>
-      </c>
-      <c r="C285" s="1">
-        <v>-1403.8130000000001</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B286" s="1">
-        <v>-1403.8130000000001</v>
-      </c>
-      <c r="C286" s="1">
-        <v>-1409.912</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B287" s="1">
-        <v>-1409.912</v>
-      </c>
-      <c r="C287" s="1">
-        <v>-1411.212</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B288" s="1">
-        <v>-1411.212</v>
-      </c>
-      <c r="C288" s="1">
-        <v>-1413.8119999999999</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B289" s="1">
-        <v>-1414.3119999999999</v>
-      </c>
-      <c r="C289" s="1">
-        <v>-1414.8119999999999</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B290" s="1">
-        <v>-1414.8119999999999</v>
-      </c>
-      <c r="C290" s="1">
-        <v>-1416.8119999999999</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B291" s="1">
-        <v>-1416.8119999999999</v>
-      </c>
-      <c r="C291" s="1">
-        <v>-1418.0119999999999</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B292" s="1">
-        <v>-1419.412</v>
-      </c>
-      <c r="C292" s="1">
-        <v>-1420.5119999999999</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B293" s="1">
-        <v>-1420.5119999999999</v>
-      </c>
-      <c r="C293" s="1">
-        <v>-1421.212</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B294" s="1">
-        <v>-1422.412</v>
-      </c>
-      <c r="C294" s="1">
-        <v>-1424.712</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B295" s="1">
-        <v>-1425.8109999999999</v>
-      </c>
-      <c r="C295" s="1">
-        <v>-1428.4110000000001</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B296" s="1">
-        <v>-1438.2090000000001</v>
-      </c>
-      <c r="C296" s="1">
-        <v>-1440.009</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B297" s="1">
-        <v>-1441.4079999999999</v>
-      </c>
-      <c r="C297" s="1">
-        <v>-1443.6079999999999</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B298" s="1">
-        <v>-1443.6079999999999</v>
-      </c>
-      <c r="C298" s="1">
-        <v>-1444.6079999999999</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B299" s="1">
-        <v>-1444.6079999999999</v>
-      </c>
-      <c r="C299" s="1">
-        <v>-1446.5070000000001</v>
+        <v>-1434.902</v>
       </c>
     </row>
   </sheetData>
@@ -3729,20 +2673,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="3" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3750,80 +2694,64 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>51.09</v>
+        <v>53.52</v>
       </c>
       <c r="C2" s="1">
-        <v>14398143.602</v>
+        <v>1500</v>
       </c>
       <c r="D2" s="1">
-        <v>7355913.5070000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14398183.359999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7355849.7549999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
+        <v>53.76</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D3" s="1">
+        <v>14398193.403999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7355921.8679999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
         <v>54.26</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D4" s="1">
         <v>14398205.366</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E4" s="1">
         <v>7355883.1059999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1">
-        <v>54.65</v>
-      </c>
-      <c r="C4" s="1">
-        <v>14398243.865</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7355871.5669999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1">
-        <v>54.66</v>
-      </c>
-      <c r="C5" s="1">
-        <v>14398282.044</v>
-      </c>
-      <c r="D5" s="1">
-        <v>7355859.6619999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
-        <v>55.2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>14398319.965</v>
-      </c>
-      <c r="D6" s="1">
-        <v>7355848.0549999997</v>
       </c>
     </row>
   </sheetData>
@@ -3834,18 +2762,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="24" style="2" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="2"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3858,79 +2786,56 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
         <v>-1298</v>
       </c>
-      <c r="D2" s="5">
-        <v>-1450</v>
+      <c r="D2" s="6">
+        <v>-1445</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-1296.412</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-1456.2070000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
         <v>-1295.7239999999999</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="1">
         <v>-1444.5930000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5">
-        <v>-1297.155</v>
-      </c>
-      <c r="D4" s="5">
-        <v>-1445.347</v>
-      </c>
-    </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5">
-        <v>-1293.7819999999999</v>
-      </c>
-      <c r="D5" s="5">
-        <v>-1454.877</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5">
-        <v>-1299.4159999999999</v>
-      </c>
-      <c r="D6" s="5">
-        <v>-1455.3030000000001</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/plotlog.xlsx
+++ b/templates/plotlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LAYERS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="15">
   <si>
     <t>WELL</t>
   </si>
@@ -43,19 +43,28 @@
     <t>ZONE</t>
   </si>
   <si>
-    <t>5ПГ</t>
-  </si>
-  <si>
-    <t>1П</t>
-  </si>
-  <si>
-    <t>4ПГ</t>
-  </si>
-  <si>
     <t>MD</t>
   </si>
   <si>
-    <t>PK</t>
+    <t>337Р</t>
+  </si>
+  <si>
+    <t>340Р</t>
+  </si>
+  <si>
+    <t>342Р</t>
+  </si>
+  <si>
+    <t>371Р</t>
+  </si>
+  <si>
+    <t>ВП</t>
+  </si>
+  <si>
+    <t>СП</t>
+  </si>
+  <si>
+    <t>НП</t>
   </si>
 </sst>
 </file>
@@ -421,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C203"/>
+  <dimension ref="A1:C524"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,10 +457,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>-1298.5999999999999</v>
+        <v>-923.9</v>
       </c>
       <c r="C2" s="1">
-        <v>-1304.3</v>
+        <v>-925.3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -459,10 +468,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>-1306</v>
+        <v>-925.3</v>
       </c>
       <c r="C3" s="1">
-        <v>-1309.3</v>
+        <v>-927.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -470,10 +479,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>-1310.5999999999999</v>
+        <v>-928.9</v>
       </c>
       <c r="C4" s="1">
-        <v>-1311.6</v>
+        <v>-933.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -481,10 +490,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>-1311.6</v>
+        <v>-933.5</v>
       </c>
       <c r="C5" s="1">
-        <v>-1312.6</v>
+        <v>-936.9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -492,10 +501,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>-1313.7</v>
+        <v>-938.3</v>
       </c>
       <c r="C6" s="1">
-        <v>-1314.5</v>
+        <v>-941.1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -503,10 +512,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>-1315.7</v>
+        <v>-941.1</v>
       </c>
       <c r="C7" s="1">
-        <v>-1316.6</v>
+        <v>-942.5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -514,10 +523,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>-1316.6</v>
+        <v>-942.5</v>
       </c>
       <c r="C8" s="1">
-        <v>-1317.6</v>
+        <v>-943.69999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,10 +534,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>-1317.6</v>
+        <v>-948.1</v>
       </c>
       <c r="C9" s="1">
-        <v>-1318.6</v>
+        <v>-949.1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -536,10 +545,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>-1318.6</v>
+        <v>-950.69999999999993</v>
       </c>
       <c r="C10" s="1">
-        <v>-1320.1</v>
+        <v>-953.5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,10 +556,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>-1321.2</v>
+        <v>-953.5</v>
       </c>
       <c r="C11" s="1">
-        <v>-1322.4</v>
+        <v>-955.1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,10 +567,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1">
-        <v>-1323</v>
+        <v>-955.1</v>
       </c>
       <c r="C12" s="1">
-        <v>-1325.9</v>
+        <v>-956.3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,10 +578,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="1">
-        <v>-1325.9</v>
+        <v>-958.5</v>
       </c>
       <c r="C13" s="1">
-        <v>-1327.7</v>
+        <v>-959.69999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -580,10 +589,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>-1327.7</v>
+        <v>-960.69999999999993</v>
       </c>
       <c r="C14" s="1">
-        <v>-1328.8</v>
+        <v>-961.69999999999993</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,10 +600,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="1">
-        <v>-1328.8</v>
+        <v>-964.69999999999993</v>
       </c>
       <c r="C15" s="1">
-        <v>-1330.8</v>
+        <v>-966.1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,10 +611,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="1">
-        <v>-1330.8</v>
+        <v>-968.3</v>
       </c>
       <c r="C16" s="1">
-        <v>-1332.1</v>
+        <v>-969.69999999999993</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,10 +622,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="1">
-        <v>-1342</v>
+        <v>-969.69999999999993</v>
       </c>
       <c r="C17" s="1">
-        <v>-1344.2</v>
+        <v>-971.1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,10 +633,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="1">
-        <v>-1344.9</v>
+        <v>-979.30000000000007</v>
       </c>
       <c r="C18" s="1">
-        <v>-1346.5</v>
+        <v>-980.69999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,10 +644,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="1">
-        <v>-1346.5</v>
+        <v>-980.69999999999993</v>
       </c>
       <c r="C19" s="1">
-        <v>-1347.6</v>
+        <v>-983.69999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,10 +655,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="1">
-        <v>-1348.9</v>
+        <v>-983.69999999999993</v>
       </c>
       <c r="C20" s="1">
-        <v>-1349.7</v>
+        <v>-987.30000000000007</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -657,10 +666,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="1">
-        <v>-1349.7</v>
+        <v>-989.69999999999993</v>
       </c>
       <c r="C21" s="1">
-        <v>-1350.7</v>
+        <v>-992.69999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -668,10 +677,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="1">
-        <v>-1350.7</v>
+        <v>-996.69999999999993</v>
       </c>
       <c r="C22" s="1">
-        <v>-1352.2</v>
+        <v>-998.9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -679,10 +688,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="1">
-        <v>-1355.1</v>
+        <v>-1000.3000000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>-1356.4</v>
+        <v>-1001.6999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -690,10 +699,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="1">
-        <v>-1356.4</v>
+        <v>-1001.6999999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>-1357.1</v>
+        <v>-1003.3000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,10 +710,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="1">
-        <v>-1357.7</v>
+        <v>-1003.3000000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>-1358.4</v>
+        <v>-1004.6999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -712,10 +721,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="1">
-        <v>-1358.4</v>
+        <v>-1004.6999999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>-1359.3</v>
+        <v>-1008.3000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,10 +732,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="1">
-        <v>-1360.1</v>
+        <v>-1008.3000000000001</v>
       </c>
       <c r="C27" s="1">
-        <v>-1361</v>
+        <v>-1009.4999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,10 +743,10 @@
         <v>8</v>
       </c>
       <c r="B28" s="1">
-        <v>-1361.9</v>
+        <v>-1009.4999999999999</v>
       </c>
       <c r="C28" s="1">
-        <v>-1362.9</v>
+        <v>-1012.1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,10 +754,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="1">
-        <v>-1363.7</v>
+        <v>-1015.9</v>
       </c>
       <c r="C29" s="1">
-        <v>-1364.3</v>
+        <v>-1017.6999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,10 +765,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="1">
-        <v>-1365.2</v>
+        <v>-1017.6999999999999</v>
       </c>
       <c r="C30" s="1">
-        <v>-1366.1</v>
+        <v>-1019.3000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,10 +776,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="1">
-        <v>-1366.6</v>
+        <v>-1020.1</v>
       </c>
       <c r="C31" s="1">
-        <v>-1367.2</v>
+        <v>-1023.6999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -778,10 +787,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="1">
-        <v>-1368.2</v>
+        <v>-1025.7</v>
       </c>
       <c r="C32" s="1">
-        <v>-1371.3</v>
+        <v>-1027.1000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,10 +798,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="1">
-        <v>-1371.3</v>
+        <v>-1031.5</v>
       </c>
       <c r="C33" s="1">
-        <v>-1372.2</v>
+        <v>-1033.3000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,10 +809,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="1">
-        <v>-1372.2</v>
+        <v>-1038.7</v>
       </c>
       <c r="C34" s="1">
-        <v>-1373</v>
+        <v>-1040.3000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,10 +820,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="1">
-        <v>-1373</v>
+        <v>-1040.3000000000002</v>
       </c>
       <c r="C35" s="1">
-        <v>-1374</v>
+        <v>-1042.7</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,10 +831,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="1">
-        <v>-1374</v>
+        <v>-1046.3000000000002</v>
       </c>
       <c r="C36" s="1">
-        <v>-1374.6</v>
+        <v>-1047.3000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -833,10 +842,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="1">
-        <v>-1374.6</v>
+        <v>-1048.5</v>
       </c>
       <c r="C37" s="1">
-        <v>-1375.5</v>
+        <v>-1050.9000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -844,10 +853,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="1">
-        <v>-1375.5</v>
+        <v>-1050.9000000000001</v>
       </c>
       <c r="C38" s="1">
-        <v>-1377.4</v>
+        <v>-1052.7</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -855,10 +864,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="1">
-        <v>-1377.4</v>
+        <v>-1054.1000000000001</v>
       </c>
       <c r="C39" s="1">
-        <v>-1378.5</v>
+        <v>-1055.3000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,10 +875,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="1">
-        <v>-1378.5</v>
+        <v>-1055.3000000000002</v>
       </c>
       <c r="C40" s="1">
-        <v>-1379.3</v>
+        <v>-1057.1000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -877,10 +886,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="1">
-        <v>-1379.3</v>
+        <v>-1057.1000000000001</v>
       </c>
       <c r="C41" s="1">
-        <v>-1380.5</v>
+        <v>-1058.3000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -888,10 +897,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="1">
-        <v>-1380.5</v>
+        <v>-1059</v>
       </c>
       <c r="C42" s="1">
-        <v>-1381</v>
+        <v>-1060</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -899,10 +908,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="1">
-        <v>-1381</v>
+        <v>-1061.1000000000001</v>
       </c>
       <c r="C43" s="1">
-        <v>-1381.5</v>
+        <v>-1062.7</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -910,10 +919,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="1">
-        <v>-1381.5</v>
+        <v>-1069.3000000000002</v>
       </c>
       <c r="C44" s="1">
-        <v>-1382.1</v>
+        <v>-1071.7</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -921,10 +930,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="1">
-        <v>-1382.1</v>
+        <v>-1074.3000000000002</v>
       </c>
       <c r="C45" s="1">
-        <v>-1382.9</v>
+        <v>-1091.1000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -932,10 +941,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="1">
-        <v>-1382.9</v>
+        <v>-1094.3000000000002</v>
       </c>
       <c r="C46" s="1">
-        <v>-1384.9</v>
+        <v>-1098.9000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -943,10 +952,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="1">
-        <v>-1384.9</v>
+        <v>-1100.7</v>
       </c>
       <c r="C47" s="1">
-        <v>-1385.8</v>
+        <v>-1104.1000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -954,10 +963,10 @@
         <v>8</v>
       </c>
       <c r="B48" s="1">
-        <v>-1385.8</v>
+        <v>-1106.5</v>
       </c>
       <c r="C48" s="1">
-        <v>-1386.9</v>
+        <v>-1107.9000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -965,10 +974,10 @@
         <v>8</v>
       </c>
       <c r="B49" s="1">
-        <v>-1386.9</v>
+        <v>-1111.7</v>
       </c>
       <c r="C49" s="1">
-        <v>-1388.3</v>
+        <v>-1112.7</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -976,10 +985,10 @@
         <v>8</v>
       </c>
       <c r="B50" s="1">
-        <v>-1388.3</v>
+        <v>-1118.5</v>
       </c>
       <c r="C50" s="1">
-        <v>-1390.4</v>
+        <v>-1119.7</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -987,10 +996,10 @@
         <v>8</v>
       </c>
       <c r="B51" s="1">
-        <v>-1390.4</v>
+        <v>-1119.7</v>
       </c>
       <c r="C51" s="1">
-        <v>-1391.1</v>
+        <v>-1120.7</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -998,10 +1007,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="1">
-        <v>-1391.1</v>
+        <v>-1124.5</v>
       </c>
       <c r="C52" s="1">
-        <v>-1392.6</v>
+        <v>-1129.3000000000002</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1009,10 +1018,10 @@
         <v>8</v>
       </c>
       <c r="B53" s="1">
-        <v>-1394.4</v>
+        <v>-1129.3000000000002</v>
       </c>
       <c r="C53" s="1">
-        <v>-1396.4</v>
+        <v>-1143.3000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1020,10 +1029,10 @@
         <v>8</v>
       </c>
       <c r="B54" s="1">
-        <v>-1396.4</v>
+        <v>-1143.3000000000002</v>
       </c>
       <c r="C54" s="1">
-        <v>-1397.6</v>
+        <v>-1151.5</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1031,10 +1040,10 @@
         <v>8</v>
       </c>
       <c r="B55" s="1">
-        <v>-1398.8</v>
+        <v>-1151.5</v>
       </c>
       <c r="C55" s="1">
-        <v>-1399.8</v>
+        <v>-1152.9000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1042,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="B56" s="1">
-        <v>-1399.8</v>
+        <v>-1152.9000000000001</v>
       </c>
       <c r="C56" s="1">
-        <v>-1402.2</v>
+        <v>-1154.5</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1053,10 +1062,10 @@
         <v>8</v>
       </c>
       <c r="B57" s="1">
-        <v>-1402.2</v>
+        <v>-1154.5</v>
       </c>
       <c r="C57" s="1">
-        <v>-1403.9</v>
+        <v>-1167.3000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1064,10 +1073,10 @@
         <v>8</v>
       </c>
       <c r="B58" s="1">
-        <v>-1403.9</v>
+        <v>-1167.3000000000002</v>
       </c>
       <c r="C58" s="1">
-        <v>-1405.6</v>
+        <v>-1168.7</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1075,10 +1084,10 @@
         <v>8</v>
       </c>
       <c r="B59" s="1">
-        <v>-1405.6</v>
+        <v>-1168.7</v>
       </c>
       <c r="C59" s="1">
-        <v>-1407.5</v>
+        <v>-1170.9000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1086,10 +1095,10 @@
         <v>8</v>
       </c>
       <c r="B60" s="1">
-        <v>-1407.5</v>
+        <v>-1170.9000000000001</v>
       </c>
       <c r="C60" s="1">
-        <v>-1409.6</v>
+        <v>-1173.3000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1097,10 +1106,10 @@
         <v>8</v>
       </c>
       <c r="B61" s="1">
-        <v>-1409.6</v>
+        <v>-1173.3000000000002</v>
       </c>
       <c r="C61" s="1">
-        <v>-1410.4</v>
+        <v>-1175.5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1108,10 +1117,10 @@
         <v>8</v>
       </c>
       <c r="B62" s="1">
-        <v>-1410.4</v>
+        <v>-1175.5</v>
       </c>
       <c r="C62" s="1">
-        <v>-1413.1</v>
+        <v>-1179.3000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1119,10 +1128,10 @@
         <v>8</v>
       </c>
       <c r="B63" s="1">
-        <v>-1413.1</v>
+        <v>-1181.1000000000001</v>
       </c>
       <c r="C63" s="1">
-        <v>-1414.2</v>
+        <v>-1182.5</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1130,10 +1139,10 @@
         <v>8</v>
       </c>
       <c r="B64" s="1">
-        <v>-1414.2</v>
+        <v>-1184.1000000000001</v>
       </c>
       <c r="C64" s="1">
-        <v>-1415</v>
+        <v>-1190.1000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1141,10 +1150,10 @@
         <v>8</v>
       </c>
       <c r="B65" s="1">
-        <v>-1415</v>
+        <v>-1190.1000000000001</v>
       </c>
       <c r="C65" s="1">
-        <v>-1416.8</v>
+        <v>-1191.7</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1152,10 +1161,10 @@
         <v>8</v>
       </c>
       <c r="B66" s="1">
-        <v>-1416.8</v>
+        <v>-1195.1000000000001</v>
       </c>
       <c r="C66" s="1">
-        <v>-1418.4</v>
+        <v>-1198.3000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1163,10 +1172,10 @@
         <v>8</v>
       </c>
       <c r="B67" s="1">
-        <v>-1418.4</v>
+        <v>-1202.1000000000001</v>
       </c>
       <c r="C67" s="1">
-        <v>-1419.4</v>
+        <v>-1203.9000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1174,10 +1183,10 @@
         <v>8</v>
       </c>
       <c r="B68" s="1">
-        <v>-1419.4</v>
+        <v>-1204.9000000000001</v>
       </c>
       <c r="C68" s="1">
-        <v>-1421.5</v>
+        <v>-1206.5</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1185,10 +1194,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="1">
-        <v>-1421.5</v>
+        <v>-1208.3000000000002</v>
       </c>
       <c r="C69" s="1">
-        <v>-1423.7</v>
+        <v>-1211.1000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1196,10 +1205,10 @@
         <v>8</v>
       </c>
       <c r="B70" s="1">
-        <v>-1423.7</v>
+        <v>-1211.1000000000001</v>
       </c>
       <c r="C70" s="1">
-        <v>-1424.6</v>
+        <v>-1213.9000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1207,10 +1216,10 @@
         <v>8</v>
       </c>
       <c r="B71" s="1">
-        <v>-1424.6</v>
+        <v>-1213.9000000000001</v>
       </c>
       <c r="C71" s="1">
-        <v>-1425.7</v>
+        <v>-1216.1000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1218,10 +1227,10 @@
         <v>8</v>
       </c>
       <c r="B72" s="1">
-        <v>-1425.7</v>
+        <v>-1219.3000000000002</v>
       </c>
       <c r="C72" s="1">
-        <v>-1426.6</v>
+        <v>-1222.1000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1229,10 +1238,10 @@
         <v>8</v>
       </c>
       <c r="B73" s="1">
-        <v>-1426.6</v>
+        <v>-1223.5</v>
       </c>
       <c r="C73" s="1">
-        <v>-1428.3</v>
+        <v>-1225.7</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,10 +1249,10 @@
         <v>8</v>
       </c>
       <c r="B74" s="1">
-        <v>-1429.5</v>
+        <v>-1225.7</v>
       </c>
       <c r="C74" s="1">
-        <v>-1430.4</v>
+        <v>-1231.1000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1251,10 +1260,10 @@
         <v>8</v>
       </c>
       <c r="B75" s="1">
-        <v>-1430.4</v>
+        <v>-1232.5</v>
       </c>
       <c r="C75" s="1">
-        <v>-1430.8</v>
+        <v>-1233.9000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1262,10 +1271,10 @@
         <v>8</v>
       </c>
       <c r="B76" s="1">
-        <v>-1430.8</v>
+        <v>-1239.9000000000001</v>
       </c>
       <c r="C76" s="1">
-        <v>-1431.3</v>
+        <v>-1241.3000000000002</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1273,10 +1282,10 @@
         <v>8</v>
       </c>
       <c r="B77" s="1">
-        <v>-1431.3</v>
+        <v>-1242.9000000000001</v>
       </c>
       <c r="C77" s="1">
-        <v>-1432.1</v>
+        <v>-1244.1000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1284,10 +1293,10 @@
         <v>8</v>
       </c>
       <c r="B78" s="1">
-        <v>-1432.1</v>
+        <v>-1248.5</v>
       </c>
       <c r="C78" s="1">
-        <v>-1432.8</v>
+        <v>-1251.3000000000002</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1295,10 +1304,10 @@
         <v>8</v>
       </c>
       <c r="B79" s="1">
-        <v>-1432.8</v>
+        <v>-1251.3000000000002</v>
       </c>
       <c r="C79" s="1">
-        <v>-1433.7</v>
+        <v>-1254.9000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1306,10 +1315,10 @@
         <v>8</v>
       </c>
       <c r="B80" s="1">
-        <v>-1433.7</v>
+        <v>-1254.9000000000001</v>
       </c>
       <c r="C80" s="1">
-        <v>-1434.2</v>
+        <v>-1256.7</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1317,10 +1326,10 @@
         <v>8</v>
       </c>
       <c r="B81" s="1">
-        <v>-1434.2</v>
+        <v>-1256.7</v>
       </c>
       <c r="C81" s="1">
-        <v>-1434.9</v>
+        <v>-1258.1000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1328,10 +1337,10 @@
         <v>8</v>
       </c>
       <c r="B82" s="1">
-        <v>-1434.9</v>
+        <v>-1258.1000000000001</v>
       </c>
       <c r="C82" s="1">
-        <v>-1435.5</v>
+        <v>-1259.1000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,593 +1348,593 @@
         <v>8</v>
       </c>
       <c r="B83" s="1">
-        <v>-1435.5</v>
+        <v>-1259.1000000000001</v>
       </c>
       <c r="C83" s="1">
-        <v>-1437.5</v>
+        <v>-1261.5</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B84" s="1">
-        <v>-1297.3119999999999</v>
+        <v>-1267.5</v>
       </c>
       <c r="C84" s="1">
-        <v>-1299.3119999999999</v>
+        <v>-1269.5</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B85" s="1">
-        <v>-1299.3119999999999</v>
+        <v>-1271.7</v>
       </c>
       <c r="C85" s="1">
-        <v>-1300.412</v>
+        <v>-1273.3000000000002</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B86" s="1">
-        <v>-1300.412</v>
+        <v>-1277.5</v>
       </c>
       <c r="C86" s="1">
-        <v>-1303.212</v>
+        <v>-1279.9000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B87" s="1">
-        <v>-1303.212</v>
+        <v>-1281.5</v>
       </c>
       <c r="C87" s="1">
-        <v>-1304.912</v>
+        <v>-1282.7</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B88" s="1">
-        <v>-1304.912</v>
+        <v>-1290.9000000000001</v>
       </c>
       <c r="C88" s="1">
-        <v>-1308.212</v>
+        <v>-1294.3000000000002</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B89" s="1">
-        <v>-1308.8119999999999</v>
+        <v>-1297.9000000000001</v>
       </c>
       <c r="C89" s="1">
-        <v>-1309.712</v>
+        <v>-1306.5</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B90" s="1">
-        <v>-1309.712</v>
+        <v>-1307.7</v>
       </c>
       <c r="C90" s="1">
-        <v>-1310.6120000000001</v>
+        <v>-1314.3000000000002</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B91" s="1">
-        <v>-1310.6120000000001</v>
+        <v>-1320.9</v>
       </c>
       <c r="C91" s="1">
-        <v>-1311.5119999999999</v>
+        <v>-1322.1000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B92" s="1">
-        <v>-1311.5119999999999</v>
+        <v>-1322.1000000000001</v>
       </c>
       <c r="C92" s="1">
-        <v>-1312.212</v>
+        <v>-1323.7</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B93" s="1">
-        <v>-1312.212</v>
+        <v>-1323.7</v>
       </c>
       <c r="C93" s="1">
-        <v>-1313.3119999999999</v>
+        <v>-1325.3000000000002</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B94" s="1">
-        <v>-1314.212</v>
+        <v>-1329.9</v>
       </c>
       <c r="C94" s="1">
-        <v>-1315.212</v>
+        <v>-1332.1000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B95" s="1">
-        <v>-1315.212</v>
+        <v>-1339.1000000000001</v>
       </c>
       <c r="C95" s="1">
-        <v>-1316.5119999999999</v>
+        <v>-1341.1000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B96" s="1">
-        <v>-1316.5119999999999</v>
+        <v>-1343.7</v>
       </c>
       <c r="C96" s="1">
-        <v>-1317.6120000000001</v>
+        <v>-1344.9</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B97" s="1">
-        <v>-1317.6120000000001</v>
+        <v>-1346.7</v>
       </c>
       <c r="C97" s="1">
-        <v>-1318.711</v>
+        <v>-1349.7</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B98" s="1">
-        <v>-1318.711</v>
+        <v>-1352.1000000000001</v>
       </c>
       <c r="C98" s="1">
-        <v>-1319.4110000000001</v>
+        <v>-1359.3000000000002</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B99" s="1">
-        <v>-1319.4110000000001</v>
+        <v>-1364.7</v>
       </c>
       <c r="C99" s="1">
-        <v>-1320.3109999999999</v>
+        <v>-1367.1000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B100" s="1">
-        <v>-1320.3109999999999</v>
+        <v>-1368.7</v>
       </c>
       <c r="C100" s="1">
-        <v>-1321.1110000000001</v>
+        <v>-1370.3000000000002</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B101" s="1">
-        <v>-1322.4110000000001</v>
+        <v>-1377.5</v>
       </c>
       <c r="C101" s="1">
-        <v>-1324.6110000000001</v>
+        <v>-1380.3000000000002</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B102" s="1">
-        <v>-1326.4110000000001</v>
+        <v>-1382.3000000000002</v>
       </c>
       <c r="C102" s="1">
-        <v>-1327.511</v>
+        <v>-1384.9</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B103" s="1">
-        <v>-1328.511</v>
+        <v>-1386.9</v>
       </c>
       <c r="C103" s="1">
-        <v>-1330.9110000000001</v>
+        <v>-1395.9</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B104" s="1">
-        <v>-1330.9110000000001</v>
+        <v>-1399.1000000000001</v>
       </c>
       <c r="C104" s="1">
-        <v>-1333.511</v>
+        <v>-1402.7</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B105" s="1">
-        <v>-1338.4110000000001</v>
+        <v>-1403.7</v>
       </c>
       <c r="C105" s="1">
-        <v>-1341.511</v>
+        <v>-1405.9</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B106" s="1">
-        <v>-1343.711</v>
+        <v>-1407.7</v>
       </c>
       <c r="C106" s="1">
-        <v>-1345.9110000000001</v>
+        <v>-1410.1000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B107" s="1">
-        <v>-1345.9110000000001</v>
+        <v>-1412.1000000000001</v>
       </c>
       <c r="C107" s="1">
-        <v>-1346.8109999999999</v>
+        <v>-1413.5</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B108" s="1">
-        <v>-1347.6110000000001</v>
+        <v>-1429.3000000000002</v>
       </c>
       <c r="C108" s="1">
-        <v>-1350.9110000000001</v>
+        <v>-1430.9</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B109" s="1">
-        <v>-1350.9110000000001</v>
+        <v>-1431.5</v>
       </c>
       <c r="C109" s="1">
-        <v>-1353.4110000000001</v>
+        <v>-1433.3000000000002</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B110" s="1">
-        <v>-1353.4110000000001</v>
+        <v>-1450.5</v>
       </c>
       <c r="C110" s="1">
-        <v>-1356.711</v>
+        <v>-1455.9</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B111" s="1">
-        <v>-1356.711</v>
+        <v>-1455.9</v>
       </c>
       <c r="C111" s="1">
-        <v>-1357.711</v>
+        <v>-1457.5</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B112" s="1">
-        <v>-1357.711</v>
+        <v>-1457.5</v>
       </c>
       <c r="C112" s="1">
-        <v>-1359.3109999999999</v>
+        <v>-1459.1000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B113" s="1">
-        <v>-1359.3109999999999</v>
+        <v>-1459.1000000000001</v>
       </c>
       <c r="C113" s="1">
-        <v>-1360.711</v>
+        <v>-1460.9</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B114" s="1">
-        <v>-1360.711</v>
+        <v>-1463.5</v>
       </c>
       <c r="C114" s="1">
-        <v>-1361.41</v>
+        <v>-1468.7</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B115" s="1">
-        <v>-1361.41</v>
+        <v>-1484.3000000000002</v>
       </c>
       <c r="C115" s="1">
-        <v>-1362.31</v>
+        <v>-1486.9</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B116" s="1">
-        <v>-1362.31</v>
+        <v>-1486.9</v>
       </c>
       <c r="C116" s="1">
-        <v>-1364.11</v>
+        <v>-1491.9</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B117" s="1">
-        <v>-1364.11</v>
+        <v>-1493.7</v>
       </c>
       <c r="C117" s="1">
-        <v>-1365.71</v>
+        <v>-1507.3000000000002</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B118" s="1">
-        <v>-1365.71</v>
+        <v>-1515.3000000000002</v>
       </c>
       <c r="C118" s="1">
-        <v>-1367.61</v>
+        <v>-1523.3000000000002</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B119" s="1">
-        <v>-1368.61</v>
+        <v>-1530.7</v>
       </c>
       <c r="C119" s="1">
-        <v>-1369.41</v>
+        <v>-1532.7</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B120" s="1">
-        <v>-1369.41</v>
+        <v>-1545.9</v>
       </c>
       <c r="C120" s="1">
-        <v>-1370.21</v>
+        <v>-1547.3000000000002</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B121" s="1">
-        <v>-1370.21</v>
+        <v>-1547.3000000000002</v>
       </c>
       <c r="C121" s="1">
-        <v>-1372.51</v>
+        <v>-1548.7</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B122" s="1">
-        <v>-1373.91</v>
+        <v>-1551.1000000000001</v>
       </c>
       <c r="C122" s="1">
-        <v>-1374.81</v>
+        <v>-1558.3000000000002</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B123" s="1">
-        <v>-1376.61</v>
+        <v>-1560.3000000000002</v>
       </c>
       <c r="C123" s="1">
-        <v>-1378.81</v>
+        <v>-1565.5</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B124" s="1">
-        <v>-1378.81</v>
+        <v>-1567.1000000000001</v>
       </c>
       <c r="C124" s="1">
-        <v>-1380.21</v>
+        <v>-1578.3000000000002</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B125" s="1">
-        <v>-1380.21</v>
+        <v>-1580.1000000000001</v>
       </c>
       <c r="C125" s="1">
-        <v>-1381.21</v>
+        <v>-1582.5</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B126" s="1">
-        <v>-1381.21</v>
+        <v>-1584.3000000000002</v>
       </c>
       <c r="C126" s="1">
-        <v>-1383.21</v>
+        <v>-1585.7</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B127" s="1">
-        <v>-1383.21</v>
+        <v>-1585.7</v>
       </c>
       <c r="C127" s="1">
-        <v>-1385.4090000000001</v>
+        <v>-1587.3000000000002</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B128" s="1">
-        <v>-1385.9090000000001</v>
+        <v>-1587.3000000000002</v>
       </c>
       <c r="C128" s="1">
-        <v>-1386.51</v>
+        <v>-1588.5</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B129" s="1">
-        <v>-1388.009</v>
+        <v>-1590.7</v>
       </c>
       <c r="C129" s="1">
-        <v>-1389.509</v>
+        <v>-1592.1000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B130" s="1">
-        <v>-1389.509</v>
+        <v>-1594.3000000000002</v>
       </c>
       <c r="C130" s="1">
-        <v>-1391.1089999999999</v>
+        <v>-1595.3000000000002</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B131" s="1">
-        <v>-1391.1089999999999</v>
+        <v>-1595.3000000000002</v>
       </c>
       <c r="C131" s="1">
-        <v>-1391.9090000000001</v>
+        <v>-1597.5</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B132" s="1">
-        <v>-1391.9090000000001</v>
+        <v>-1597.5</v>
       </c>
       <c r="C132" s="1">
-        <v>-1393.009</v>
+        <v>-1599.1000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B133" s="1">
-        <v>-1393.009</v>
+        <v>-1599.1000000000001</v>
       </c>
       <c r="C133" s="1">
-        <v>-1394.009</v>
+        <v>-1601.9</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B134" s="1">
-        <v>-1394.6089999999999</v>
+        <v>-1604.7</v>
       </c>
       <c r="C134" s="1">
-        <v>-1396.509</v>
+        <v>-1606.3000000000002</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B135" s="1">
-        <v>-1396.509</v>
+        <v>-1612.5</v>
       </c>
       <c r="C135" s="1">
-        <v>-1399.009</v>
+        <v>-1613.9</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B136" s="1">
-        <v>-1399.009</v>
+        <v>-1614.7</v>
       </c>
       <c r="C136" s="1">
-        <v>-1402.009</v>
+        <v>-1616.3000000000002</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -1933,10 +1942,10 @@
         <v>9</v>
       </c>
       <c r="B137" s="1">
-        <v>-1402.009</v>
+        <v>-911.4</v>
       </c>
       <c r="C137" s="1">
-        <v>-1403.309</v>
+        <v>-914</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -1944,10 +1953,10 @@
         <v>9</v>
       </c>
       <c r="B138" s="1">
-        <v>-1403.309</v>
+        <v>-914</v>
       </c>
       <c r="C138" s="1">
-        <v>-1406.2090000000001</v>
+        <v>-915.8</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -1955,10 +1964,10 @@
         <v>9</v>
       </c>
       <c r="B139" s="1">
-        <v>-1406.2090000000001</v>
+        <v>-915.8</v>
       </c>
       <c r="C139" s="1">
-        <v>-1407.7090000000001</v>
+        <v>-917</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -1966,10 +1975,10 @@
         <v>9</v>
       </c>
       <c r="B140" s="1">
-        <v>-1407.7090000000001</v>
+        <v>-917</v>
       </c>
       <c r="C140" s="1">
-        <v>-1411.308</v>
+        <v>-919.4</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -1977,10 +1986,10 @@
         <v>9</v>
       </c>
       <c r="B141" s="1">
-        <v>-1413.808</v>
+        <v>-919.4</v>
       </c>
       <c r="C141" s="1">
-        <v>-1415.7080000000001</v>
+        <v>-921.4</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -1988,10 +1997,10 @@
         <v>9</v>
       </c>
       <c r="B142" s="1">
-        <v>-1417.009</v>
+        <v>-921.4</v>
       </c>
       <c r="C142" s="1">
-        <v>-1418.7080000000001</v>
+        <v>-926.19999999999993</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -1999,10 +2008,10 @@
         <v>9</v>
       </c>
       <c r="B143" s="1">
-        <v>-1418.7080000000001</v>
+        <v>-927.4</v>
       </c>
       <c r="C143" s="1">
-        <v>-1420.808</v>
+        <v>-933.4</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2010,10 +2019,10 @@
         <v>9</v>
       </c>
       <c r="B144" s="1">
-        <v>-1421.808</v>
+        <v>-934.59999999999991</v>
       </c>
       <c r="C144" s="1">
-        <v>-1426.808</v>
+        <v>-937</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2021,10 +2030,10 @@
         <v>9</v>
       </c>
       <c r="B145" s="1">
-        <v>-1438.4079999999999</v>
+        <v>-941</v>
       </c>
       <c r="C145" s="1">
-        <v>-1440.7080000000001</v>
+        <v>-947.59999999999991</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2032,10 +2041,10 @@
         <v>9</v>
       </c>
       <c r="B146" s="1">
-        <v>-1442.008</v>
+        <v>-947.59999999999991</v>
       </c>
       <c r="C146" s="1">
-        <v>-1444.4069999999999</v>
+        <v>-953</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2043,626 +2052,4157 @@
         <v>9</v>
       </c>
       <c r="B147" s="1">
-        <v>-1444.4069999999999</v>
+        <v>-953</v>
       </c>
       <c r="C147" s="1">
-        <v>-1451.0070000000001</v>
+        <v>-955.8</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B148" s="1">
-        <v>-1297.2239999999999</v>
+        <v>-955.8</v>
       </c>
       <c r="C148" s="1">
-        <v>-1302.92</v>
+        <v>-960.4</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B149" s="1">
-        <v>-1302.92</v>
+        <v>-961.19999999999993</v>
       </c>
       <c r="C149" s="1">
-        <v>-1304.9190000000001</v>
+        <v>-962.59999999999991</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B150" s="1">
-        <v>-1304.9190000000001</v>
+        <v>-962.59999999999991</v>
       </c>
       <c r="C150" s="1">
-        <v>-1308.5170000000001</v>
+        <v>-963.8</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B151" s="1">
-        <v>-1309.317</v>
+        <v>-963.8</v>
       </c>
       <c r="C151" s="1">
-        <v>-1309.816</v>
+        <v>-965</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B152" s="1">
-        <v>-1310.316</v>
+        <v>-965</v>
       </c>
       <c r="C152" s="1">
-        <v>-1311.115</v>
+        <v>-969</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B153" s="1">
-        <v>-1311.115</v>
+        <v>-970</v>
       </c>
       <c r="C153" s="1">
-        <v>-1311.915</v>
+        <v>-973.59999999999991</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B154" s="1">
-        <v>-1311.915</v>
+        <v>-973.59999999999991</v>
       </c>
       <c r="C154" s="1">
-        <v>-1312.5150000000001</v>
+        <v>-984.39999999999986</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B155" s="1">
-        <v>-1312.5150000000001</v>
+        <v>-984.39999999999986</v>
       </c>
       <c r="C155" s="1">
-        <v>-1313.3140000000001</v>
+        <v>-985.59999999999991</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B156" s="1">
-        <v>-1313.3140000000001</v>
+        <v>-985.59999999999991</v>
       </c>
       <c r="C156" s="1">
-        <v>-1314.3140000000001</v>
+        <v>-988.2</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B157" s="1">
-        <v>-1314.3140000000001</v>
+        <v>-990.8</v>
       </c>
       <c r="C157" s="1">
-        <v>-1315.8130000000001</v>
+        <v>-991.8</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B158" s="1">
-        <v>-1315.8130000000001</v>
+        <v>-998.5</v>
       </c>
       <c r="C158" s="1">
-        <v>-1316.6120000000001</v>
+        <v>-999.5</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B159" s="1">
-        <v>-1316.6120000000001</v>
+        <v>-1000.5999999999999</v>
       </c>
       <c r="C159" s="1">
-        <v>-1318.1110000000001</v>
+        <v>-1002.2</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B160" s="1">
-        <v>-1318.1110000000001</v>
+        <v>-1005.5999999999999</v>
       </c>
       <c r="C160" s="1">
-        <v>-1319.1110000000001</v>
+        <v>-1006.8</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B161" s="1">
-        <v>-1319.1110000000001</v>
+        <v>-1009</v>
       </c>
       <c r="C161" s="1">
-        <v>-1321.01</v>
+        <v>-1011.8</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B162" s="1">
-        <v>-1322.508</v>
+        <v>-1015.2</v>
       </c>
       <c r="C162" s="1">
-        <v>-1324.9059999999999</v>
+        <v>-1016.5999999999999</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B163" s="1">
-        <v>-1324.9059999999999</v>
+        <v>-1024.3999999999999</v>
       </c>
       <c r="C163" s="1">
-        <v>-1327.8040000000001</v>
+        <v>-1028.3999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B164" s="1">
-        <v>-1330.3019999999999</v>
+        <v>-1028.3999999999999</v>
       </c>
       <c r="C164" s="1">
-        <v>-1333.5</v>
+        <v>-1029.5999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B165" s="1">
-        <v>-1340.4939999999999</v>
+        <v>-1031.5999999999999</v>
       </c>
       <c r="C165" s="1">
-        <v>-1342.692</v>
+        <v>-1034</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B166" s="1">
-        <v>-1342.692</v>
+        <v>-1035</v>
       </c>
       <c r="C166" s="1">
-        <v>-1344.3910000000001</v>
+        <v>-1036.2</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B167" s="1">
-        <v>-1345.69</v>
+        <v>-1038.3999999999999</v>
       </c>
       <c r="C167" s="1">
-        <v>-1347.288</v>
+        <v>-1042.5999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B168" s="1">
-        <v>-1347.288</v>
+        <v>-1042.5999999999999</v>
       </c>
       <c r="C168" s="1">
-        <v>-1348.1869999999999</v>
+        <v>-1044</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B169" s="1">
-        <v>-1348.1869999999999</v>
+        <v>-1044</v>
       </c>
       <c r="C169" s="1">
-        <v>-1348.9860000000001</v>
+        <v>-1047.3999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B170" s="1">
-        <v>-1348.9860000000001</v>
+        <v>-1047.3999999999999</v>
       </c>
       <c r="C170" s="1">
-        <v>-1350.4849999999999</v>
+        <v>-1049.8</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B171" s="1">
-        <v>-1350.4849999999999</v>
+        <v>-1051.2</v>
       </c>
       <c r="C171" s="1">
-        <v>-1352.4829999999999</v>
+        <v>-1053.8</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B172" s="1">
-        <v>-1352.4829999999999</v>
+        <v>-1056.2</v>
       </c>
       <c r="C172" s="1">
-        <v>-1354.98</v>
+        <v>-1059.2</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B173" s="1">
-        <v>-1354.98</v>
+        <v>-1059.2</v>
       </c>
       <c r="C173" s="1">
-        <v>-1356.9780000000001</v>
+        <v>-1061.5999999999999</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B174" s="1">
-        <v>-1356.9780000000001</v>
+        <v>-1061.5999999999999</v>
       </c>
       <c r="C174" s="1">
-        <v>-1358.6759999999999</v>
+        <v>-1063.3999999999999</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B175" s="1">
-        <v>-1358.6759999999999</v>
+        <v>-1068.5999999999999</v>
       </c>
       <c r="C175" s="1">
-        <v>-1360.9739999999999</v>
+        <v>-1072</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B176" s="1">
-        <v>-1360.9739999999999</v>
+        <v>-1084</v>
       </c>
       <c r="C176" s="1">
-        <v>-1363.8710000000001</v>
+        <v>-1087.3999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B177" s="1">
-        <v>-1364.67</v>
+        <v>-1089</v>
       </c>
       <c r="C177" s="1">
-        <v>-1365.769</v>
+        <v>-1091.2</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B178" s="1">
-        <v>-1366.768</v>
+        <v>-1094.5999999999999</v>
       </c>
       <c r="C178" s="1">
-        <v>-1370.165</v>
+        <v>-1096.5999999999999</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B179" s="1">
-        <v>-1371.164</v>
+        <v>-1098</v>
       </c>
       <c r="C179" s="1">
-        <v>-1372.163</v>
+        <v>-1101</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B180" s="1">
-        <v>-1372.163</v>
+        <v>-1101</v>
       </c>
       <c r="C180" s="1">
-        <v>-1373.162</v>
+        <v>-1106</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B181" s="1">
-        <v>-1373.5609999999999</v>
+        <v>-1106</v>
       </c>
       <c r="C181" s="1">
-        <v>-1374.1610000000001</v>
+        <v>-1107.3999999999999</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B182" s="1">
-        <v>-1374.1610000000001</v>
+        <v>-1107.3999999999999</v>
       </c>
       <c r="C182" s="1">
-        <v>-1375.46</v>
+        <v>-1110.3999999999999</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B183" s="1">
-        <v>-1375.46</v>
+        <v>-1110.3999999999999</v>
       </c>
       <c r="C183" s="1">
-        <v>-1377.4580000000001</v>
+        <v>-1113.2</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B184" s="1">
-        <v>-1377.4580000000001</v>
+        <v>-1113.2</v>
       </c>
       <c r="C184" s="1">
-        <v>-1378.7560000000001</v>
+        <v>-1118.8</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B185" s="1">
-        <v>-1378.7560000000001</v>
+        <v>-1120.2</v>
       </c>
       <c r="C185" s="1">
-        <v>-1379.655</v>
+        <v>-1139.8</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B186" s="1">
-        <v>-1379.655</v>
+        <v>-1139.8</v>
       </c>
       <c r="C186" s="1">
-        <v>-1381.354</v>
+        <v>-1142</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B187" s="1">
-        <v>-1381.354</v>
+        <v>-1142</v>
       </c>
       <c r="C187" s="1">
-        <v>-1383.8510000000001</v>
+        <v>-1155.8</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B188" s="1">
-        <v>-1383.8510000000001</v>
+        <v>-1157.2</v>
       </c>
       <c r="C188" s="1">
-        <v>-1387.7470000000001</v>
+        <v>-1171</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B189" s="1">
-        <v>-1387.7470000000001</v>
+        <v>-1180.3999999999999</v>
       </c>
       <c r="C189" s="1">
-        <v>-1389.146</v>
+        <v>-1183.2</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B190" s="1">
-        <v>-1389.146</v>
+        <v>-1184.3999999999999</v>
       </c>
       <c r="C190" s="1">
-        <v>-1395.44</v>
+        <v>-1187</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B191" s="1">
-        <v>-1395.44</v>
+        <v>-1187</v>
       </c>
       <c r="C191" s="1">
-        <v>-1397.038</v>
+        <v>-1188.3999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B192" s="1">
-        <v>-1397.038</v>
+        <v>-1188.3999999999999</v>
       </c>
       <c r="C192" s="1">
-        <v>-1399.136</v>
+        <v>-1192</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B193" s="1">
-        <v>-1402.0329999999999</v>
+        <v>-1193</v>
       </c>
       <c r="C193" s="1">
-        <v>-1405.43</v>
+        <v>-1194.3999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B194" s="1">
-        <v>-1405.43</v>
+        <v>-1194.3999999999999</v>
       </c>
       <c r="C194" s="1">
-        <v>-1410.2249999999999</v>
+        <v>-1199.5999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B195" s="1">
-        <v>-1410.2249999999999</v>
+        <v>-1201.5999999999999</v>
       </c>
       <c r="C195" s="1">
-        <v>-1411.923</v>
+        <v>-1208.5999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B196" s="1">
-        <v>-1411.923</v>
+        <v>-1208.5999999999999</v>
       </c>
       <c r="C196" s="1">
-        <v>-1412.722</v>
+        <v>-1210</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B197" s="1">
-        <v>-1413.521</v>
+        <v>-1210</v>
       </c>
       <c r="C197" s="1">
-        <v>-1414.221</v>
+        <v>-1212.2</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B198" s="1">
-        <v>-1414.92</v>
+        <v>-1212.2</v>
       </c>
       <c r="C198" s="1">
-        <v>-1415.519</v>
+        <v>-1214.3999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B199" s="1">
-        <v>-1415.519</v>
+        <v>-1216</v>
       </c>
       <c r="C199" s="1">
-        <v>-1419.5150000000001</v>
+        <v>-1218.2</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B200" s="1">
-        <v>-1420.614</v>
+        <v>-1226.5999999999999</v>
       </c>
       <c r="C200" s="1">
-        <v>-1425.61</v>
+        <v>-1228.5999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B201" s="1">
-        <v>-1425.61</v>
+        <v>-1229.5999999999999</v>
       </c>
       <c r="C201" s="1">
-        <v>-1427.009</v>
+        <v>-1233.2</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B202" s="1">
-        <v>-1430.7059999999999</v>
+        <v>-1233.2</v>
       </c>
       <c r="C202" s="1">
-        <v>-1432.104</v>
+        <v>-1239.8</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B203" s="1">
-        <v>-1434.203</v>
+        <v>-1239.8</v>
       </c>
       <c r="C203" s="1">
-        <v>-1434.902</v>
+        <v>-1244.8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" s="1">
+        <v>-1244.8</v>
+      </c>
+      <c r="C204" s="1">
+        <v>-1248</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B205" s="1">
+        <v>-1248</v>
+      </c>
+      <c r="C205" s="1">
+        <v>-1256.8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" s="1">
+        <v>-1256.8</v>
+      </c>
+      <c r="C206" s="1">
+        <v>-1260.8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B207" s="1">
+        <v>-1260.8</v>
+      </c>
+      <c r="C207" s="1">
+        <v>-1266.5999999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" s="1">
+        <v>-1266.5999999999999</v>
+      </c>
+      <c r="C208" s="1">
+        <v>-1268.5999999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209" s="1">
+        <v>-1268.5999999999999</v>
+      </c>
+      <c r="C209" s="1">
+        <v>-1273.5999999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" s="1">
+        <v>-1273.5999999999999</v>
+      </c>
+      <c r="C210" s="1">
+        <v>-1275</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" s="1">
+        <v>-1275</v>
+      </c>
+      <c r="C211" s="1">
+        <v>-1280.8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212" s="1">
+        <v>-1282.3999999999999</v>
+      </c>
+      <c r="C212" s="1">
+        <v>-1285.3999999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213" s="1">
+        <v>-1285.3999999999999</v>
+      </c>
+      <c r="C213" s="1">
+        <v>-1288.8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214" s="1">
+        <v>-1289.8</v>
+      </c>
+      <c r="C214" s="1">
+        <v>-1297.3999999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" s="1">
+        <v>-1300</v>
+      </c>
+      <c r="C215" s="1">
+        <v>-1308.5999999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B216" s="1">
+        <v>-1323.8</v>
+      </c>
+      <c r="C216" s="1">
+        <v>-1325</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B217" s="1">
+        <v>-1326</v>
+      </c>
+      <c r="C217" s="1">
+        <v>-1327.3999999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B218" s="1">
+        <v>-1333.8</v>
+      </c>
+      <c r="C218" s="1">
+        <v>-1336.3999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B219" s="1">
+        <v>-1338.8</v>
+      </c>
+      <c r="C219" s="1">
+        <v>-1340.6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B220" s="1">
+        <v>-1352.2</v>
+      </c>
+      <c r="C220" s="1">
+        <v>-1355.3999999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B221" s="1">
+        <v>-1357</v>
+      </c>
+      <c r="C221" s="1">
+        <v>-1361</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B222" s="1">
+        <v>-1361</v>
+      </c>
+      <c r="C222" s="1">
+        <v>-1364</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B223" s="1">
+        <v>-1364</v>
+      </c>
+      <c r="C223" s="1">
+        <v>-1369.6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224" s="1">
+        <v>-1371</v>
+      </c>
+      <c r="C224" s="1">
+        <v>-1374.3999999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225" s="1">
+        <v>-1374.3999999999999</v>
+      </c>
+      <c r="C225" s="1">
+        <v>-1376.6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B226" s="1">
+        <v>-1376.6</v>
+      </c>
+      <c r="C226" s="1">
+        <v>-1378.2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227" s="1">
+        <v>-1378.2</v>
+      </c>
+      <c r="C227" s="1">
+        <v>-1383.2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B228" s="1">
+        <v>-1414.2</v>
+      </c>
+      <c r="C228" s="1">
+        <v>-1416.3999999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B229" s="1">
+        <v>-1416.3999999999999</v>
+      </c>
+      <c r="C229" s="1">
+        <v>-1418.2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B230" s="1">
+        <v>-1431</v>
+      </c>
+      <c r="C230" s="1">
+        <v>-1436</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B231" s="1">
+        <v>-1436</v>
+      </c>
+      <c r="C231" s="1">
+        <v>-1438.2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B232" s="1">
+        <v>-1438.2</v>
+      </c>
+      <c r="C232" s="1">
+        <v>-1440.8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" s="1">
+        <v>-1440.8</v>
+      </c>
+      <c r="C233" s="1">
+        <v>-1442.2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234" s="1">
+        <v>-1442.2</v>
+      </c>
+      <c r="C234" s="1">
+        <v>-1447.8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B235" s="1">
+        <v>-1450.8</v>
+      </c>
+      <c r="C235" s="1">
+        <v>-1452.2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B236" s="1">
+        <v>-1454.3999999999999</v>
+      </c>
+      <c r="C236" s="1">
+        <v>-1455.8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B237" s="1">
+        <v>-1460</v>
+      </c>
+      <c r="C237" s="1">
+        <v>-1466.3999999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B238" s="1">
+        <v>-1468.3999999999999</v>
+      </c>
+      <c r="C238" s="1">
+        <v>-1470.8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B239" s="1">
+        <v>-1472.8</v>
+      </c>
+      <c r="C239" s="1">
+        <v>-1475</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B240" s="1">
+        <v>-1478.6</v>
+      </c>
+      <c r="C240" s="1">
+        <v>-1481.3999999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B241" s="1">
+        <v>-1481.3999999999999</v>
+      </c>
+      <c r="C241" s="1">
+        <v>-1489.6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B242" s="1">
+        <v>-1507</v>
+      </c>
+      <c r="C242" s="1">
+        <v>-1508.6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B243" s="1">
+        <v>-1509.3999999999999</v>
+      </c>
+      <c r="C243" s="1">
+        <v>-1512.6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B244" s="1">
+        <v>-1519</v>
+      </c>
+      <c r="C244" s="1">
+        <v>-1533.3999999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B245" s="1">
+        <v>-1535.2</v>
+      </c>
+      <c r="C245" s="1">
+        <v>-1537.2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B246" s="1">
+        <v>-1539.8</v>
+      </c>
+      <c r="C246" s="1">
+        <v>-1554</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B247" s="1">
+        <v>-1554</v>
+      </c>
+      <c r="C247" s="1">
+        <v>-1558</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B248" s="1">
+        <v>-1560.6</v>
+      </c>
+      <c r="C248" s="1">
+        <v>-1563</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B249" s="1">
+        <v>-1564</v>
+      </c>
+      <c r="C249" s="1">
+        <v>-1565</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B250" s="1">
+        <v>-1565</v>
+      </c>
+      <c r="C250" s="1">
+        <v>-1571.6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B251" s="1">
+        <v>-1571.6</v>
+      </c>
+      <c r="C251" s="1">
+        <v>-1578.6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B252" s="1">
+        <v>-1578.6</v>
+      </c>
+      <c r="C252" s="1">
+        <v>-1591.2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B253" s="1">
+        <v>-1604.6</v>
+      </c>
+      <c r="C253" s="1">
+        <v>-1605.8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B254" s="1">
+        <v>-917.81</v>
+      </c>
+      <c r="C254" s="1">
+        <v>-921.01</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B255" s="1">
+        <v>-921.01</v>
+      </c>
+      <c r="C255" s="1">
+        <v>-922.81</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B256" s="1">
+        <v>-922.81</v>
+      </c>
+      <c r="C256" s="1">
+        <v>-926.6099999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B257" s="1">
+        <v>-926.6099999999999</v>
+      </c>
+      <c r="C257" s="1">
+        <v>-934.01</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B258" s="1">
+        <v>-934.01</v>
+      </c>
+      <c r="C258" s="1">
+        <v>-936.81</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B259" s="1">
+        <v>-938.01</v>
+      </c>
+      <c r="C259" s="1">
+        <v>-939.6099999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B260" s="1">
+        <v>-939.6099999999999</v>
+      </c>
+      <c r="C260" s="1">
+        <v>-941.41000000000008</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B261" s="1">
+        <v>-941.41000000000008</v>
+      </c>
+      <c r="C261" s="1">
+        <v>-943.6099999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B262" s="1">
+        <v>-945.21</v>
+      </c>
+      <c r="C262" s="1">
+        <v>-947.01</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B263" s="1">
+        <v>-947.01</v>
+      </c>
+      <c r="C263" s="1">
+        <v>-948.21</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B264" s="1">
+        <v>-948.21</v>
+      </c>
+      <c r="C264" s="1">
+        <v>-950.21</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B265" s="1">
+        <v>-954.21</v>
+      </c>
+      <c r="C265" s="1">
+        <v>-965.6099999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B266" s="1">
+        <v>-968.21</v>
+      </c>
+      <c r="C266" s="1">
+        <v>-969.81</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B267" s="1">
+        <v>-971.01</v>
+      </c>
+      <c r="C267" s="1">
+        <v>-973.6099999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B268" s="1">
+        <v>-978.81</v>
+      </c>
+      <c r="C268" s="1">
+        <v>-979.81</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B269" s="1">
+        <v>-981.40999999999985</v>
+      </c>
+      <c r="C269" s="1">
+        <v>-982.40999999999985</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B270" s="1">
+        <v>-985.40999999999985</v>
+      </c>
+      <c r="C270" s="1">
+        <v>-986.81</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B271" s="1">
+        <v>-988.40999999999985</v>
+      </c>
+      <c r="C271" s="1">
+        <v>-989.81</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B272" s="1">
+        <v>-991.6099999999999</v>
+      </c>
+      <c r="C272" s="1">
+        <v>-994.40999999999985</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B273" s="1">
+        <v>-995.40999999999985</v>
+      </c>
+      <c r="C273" s="1">
+        <v>-996.40999999999985</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B274" s="1">
+        <v>-1005.21</v>
+      </c>
+      <c r="C274" s="1">
+        <v>-1006.81</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B275" s="1">
+        <v>-1006.81</v>
+      </c>
+      <c r="C275" s="1">
+        <v>-1008.01</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B276" s="1">
+        <v>-1010.81</v>
+      </c>
+      <c r="C276" s="1">
+        <v>-1012.01</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B277" s="1">
+        <v>-1014.21</v>
+      </c>
+      <c r="C277" s="1">
+        <v>-1017.01</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B278" s="1">
+        <v>-1025.9099999999999</v>
+      </c>
+      <c r="C278" s="1">
+        <v>-1026.9099999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B279" s="1">
+        <v>-1028.81</v>
+      </c>
+      <c r="C279" s="1">
+        <v>-1030.4099999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B280" s="1">
+        <v>-1036.4099999999999</v>
+      </c>
+      <c r="C280" s="1">
+        <v>-1037.6099999999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B281" s="1">
+        <v>-1038.81</v>
+      </c>
+      <c r="C281" s="1">
+        <v>-1041.21</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B282" s="1">
+        <v>-1045.01</v>
+      </c>
+      <c r="C282" s="1">
+        <v>-1046.21</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B283" s="1">
+        <v>-1046.21</v>
+      </c>
+      <c r="C283" s="1">
+        <v>-1048.21</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B284" s="1">
+        <v>-1048.21</v>
+      </c>
+      <c r="C284" s="1">
+        <v>-1049.6099999999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B285" s="1">
+        <v>-1049.6099999999999</v>
+      </c>
+      <c r="C285" s="1">
+        <v>-1050.81</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B286" s="1">
+        <v>-1054.21</v>
+      </c>
+      <c r="C286" s="1">
+        <v>-1055.81</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B287" s="1">
+        <v>-1059.01</v>
+      </c>
+      <c r="C287" s="1">
+        <v>-1060.4099999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B288" s="1">
+        <v>-1060.4099999999999</v>
+      </c>
+      <c r="C288" s="1">
+        <v>-1061.6099999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B289" s="1">
+        <v>-1061.6099999999999</v>
+      </c>
+      <c r="C289" s="1">
+        <v>-1064.6099999999999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B290" s="1">
+        <v>-1064.6099999999999</v>
+      </c>
+      <c r="C290" s="1">
+        <v>-1066.01</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B291" s="1">
+        <v>-1066.01</v>
+      </c>
+      <c r="C291" s="1">
+        <v>-1067.21</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B292" s="1">
+        <v>-1067.21</v>
+      </c>
+      <c r="C292" s="1">
+        <v>-1069.81</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B293" s="1">
+        <v>-1075.6099999999999</v>
+      </c>
+      <c r="C293" s="1">
+        <v>-1076.81</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B294" s="1">
+        <v>-1080.6099999999999</v>
+      </c>
+      <c r="C294" s="1">
+        <v>-1083.01</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B295" s="1">
+        <v>-1083.01</v>
+      </c>
+      <c r="C295" s="1">
+        <v>-1086.21</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B296" s="1">
+        <v>-1086.21</v>
+      </c>
+      <c r="C296" s="1">
+        <v>-1087.81</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B297" s="1">
+        <v>-1087.81</v>
+      </c>
+      <c r="C297" s="1">
+        <v>-1089.01</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B298" s="1">
+        <v>-1089.01</v>
+      </c>
+      <c r="C298" s="1">
+        <v>-1091.01</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B299" s="1">
+        <v>-1091.01</v>
+      </c>
+      <c r="C299" s="1">
+        <v>-1097.01</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B300" s="1">
+        <v>-1098.21</v>
+      </c>
+      <c r="C300" s="1">
+        <v>-1105.4099999999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B301" s="1">
+        <v>-1108.01</v>
+      </c>
+      <c r="C301" s="1">
+        <v>-1109.21</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B302" s="1">
+        <v>-1109.21</v>
+      </c>
+      <c r="C302" s="1">
+        <v>-1110.81</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B303" s="1">
+        <v>-1111.81</v>
+      </c>
+      <c r="C303" s="1">
+        <v>-1113.4099999999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B304" s="1">
+        <v>-1116.01</v>
+      </c>
+      <c r="C304" s="1">
+        <v>-1117.21</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B305" s="1">
+        <v>-1119.81</v>
+      </c>
+      <c r="C305" s="1">
+        <v>-1134.01</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B306" s="1">
+        <v>-1136.01</v>
+      </c>
+      <c r="C306" s="1">
+        <v>-1137.81</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B307" s="1">
+        <v>-1137.81</v>
+      </c>
+      <c r="C307" s="1">
+        <v>-1142.01</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B308" s="1">
+        <v>-1142.01</v>
+      </c>
+      <c r="C308" s="1">
+        <v>-1144.4099999999999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B309" s="1">
+        <v>-1144.4099999999999</v>
+      </c>
+      <c r="C309" s="1">
+        <v>-1145.81</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B310" s="1">
+        <v>-1145.81</v>
+      </c>
+      <c r="C310" s="1">
+        <v>-1147.6099999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B311" s="1">
+        <v>-1147.6099999999999</v>
+      </c>
+      <c r="C311" s="1">
+        <v>-1149.81</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B312" s="1">
+        <v>-1151.01</v>
+      </c>
+      <c r="C312" s="1">
+        <v>-1152.21</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B313" s="1">
+        <v>-1152.21</v>
+      </c>
+      <c r="C313" s="1">
+        <v>-1154.4099999999999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B314" s="1">
+        <v>-1154.4099999999999</v>
+      </c>
+      <c r="C314" s="1">
+        <v>-1155.81</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B315" s="1">
+        <v>-1155.81</v>
+      </c>
+      <c r="C315" s="1">
+        <v>-1157.01</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B316" s="1">
+        <v>-1157.01</v>
+      </c>
+      <c r="C316" s="1">
+        <v>-1159.21</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" s="1">
+        <v>-1159.21</v>
+      </c>
+      <c r="C317" s="1">
+        <v>-1162.01</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B318" s="1">
+        <v>-1165.21</v>
+      </c>
+      <c r="C318" s="1">
+        <v>-1169.4099999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B319" s="1">
+        <v>-1171.81</v>
+      </c>
+      <c r="C319" s="1">
+        <v>-1173.01</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B320" s="1">
+        <v>-1175.01</v>
+      </c>
+      <c r="C320" s="1">
+        <v>-1176.4099999999999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B321" s="1">
+        <v>-1176.4099999999999</v>
+      </c>
+      <c r="C321" s="1">
+        <v>-1177.4099999999999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B322" s="1">
+        <v>-1177.4099999999999</v>
+      </c>
+      <c r="C322" s="1">
+        <v>-1178.6099999999999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B323" s="1">
+        <v>-1178.6099999999999</v>
+      </c>
+      <c r="C323" s="1">
+        <v>-1179.81</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B324" s="1">
+        <v>-1179.81</v>
+      </c>
+      <c r="C324" s="1">
+        <v>-1181.4099999999999</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B325" s="1">
+        <v>-1181.4099999999999</v>
+      </c>
+      <c r="C325" s="1">
+        <v>-1182.4099999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B326" s="1">
+        <v>-1182.4099999999999</v>
+      </c>
+      <c r="C326" s="1">
+        <v>-1183.81</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B327" s="1">
+        <v>-1183.81</v>
+      </c>
+      <c r="C327" s="1">
+        <v>-1186.81</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B328" s="1">
+        <v>-1188.21</v>
+      </c>
+      <c r="C328" s="1">
+        <v>-1189.6099999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B329" s="1">
+        <v>-1189.6099999999999</v>
+      </c>
+      <c r="C329" s="1">
+        <v>-1191.4099999999999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B330" s="1">
+        <v>-1192.21</v>
+      </c>
+      <c r="C330" s="1">
+        <v>-1196.21</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B331" s="1">
+        <v>-1197.21</v>
+      </c>
+      <c r="C331" s="1">
+        <v>-1199.21</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B332" s="1">
+        <v>-1201.81</v>
+      </c>
+      <c r="C332" s="1">
+        <v>-1206.21</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B333" s="1">
+        <v>-1206.21</v>
+      </c>
+      <c r="C333" s="1">
+        <v>-1213.21</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B334" s="1">
+        <v>-1218.81</v>
+      </c>
+      <c r="C334" s="1">
+        <v>-1220.21</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B335" s="1">
+        <v>-1221.4099999999999</v>
+      </c>
+      <c r="C335" s="1">
+        <v>-1222.4099999999999</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B336" s="1">
+        <v>-1225.4099999999999</v>
+      </c>
+      <c r="C336" s="1">
+        <v>-1227.21</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B337" s="1">
+        <v>-1228.21</v>
+      </c>
+      <c r="C337" s="1">
+        <v>-1232.01</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B338" s="1">
+        <v>-1232.01</v>
+      </c>
+      <c r="C338" s="1">
+        <v>-1234.81</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B339" s="1">
+        <v>-1240.21</v>
+      </c>
+      <c r="C339" s="1">
+        <v>-1243.4099999999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B340" s="1">
+        <v>-1243.4099999999999</v>
+      </c>
+      <c r="C340" s="1">
+        <v>-1245.6099999999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B341" s="1">
+        <v>-1246.81</v>
+      </c>
+      <c r="C341" s="1">
+        <v>-1248.81</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B342" s="1">
+        <v>-1253.01</v>
+      </c>
+      <c r="C342" s="1">
+        <v>-1255.01</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B343" s="1">
+        <v>-1267.4099999999999</v>
+      </c>
+      <c r="C343" s="1">
+        <v>-1268.6099999999999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B344" s="1">
+        <v>-1271.21</v>
+      </c>
+      <c r="C344" s="1">
+        <v>-1272.6099999999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B345" s="1">
+        <v>-1273.6099999999999</v>
+      </c>
+      <c r="C345" s="1">
+        <v>-1275.01</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B346" s="1">
+        <v>-1275.01</v>
+      </c>
+      <c r="C346" s="1">
+        <v>-1277.81</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B347" s="1">
+        <v>-1277.81</v>
+      </c>
+      <c r="C347" s="1">
+        <v>-1278.81</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B348" s="1">
+        <v>-1278.81</v>
+      </c>
+      <c r="C348" s="1">
+        <v>-1280.01</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B349" s="1">
+        <v>-1282.4099999999999</v>
+      </c>
+      <c r="C349" s="1">
+        <v>-1284.21</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B350" s="1">
+        <v>-1285.1099999999999</v>
+      </c>
+      <c r="C350" s="1">
+        <v>-1286.1099999999999</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B351" s="1">
+        <v>-1287.4099999999999</v>
+      </c>
+      <c r="C351" s="1">
+        <v>-1288.81</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B352" s="1">
+        <v>-1303.21</v>
+      </c>
+      <c r="C352" s="1">
+        <v>-1304.21</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B353" s="1">
+        <v>-1306.01</v>
+      </c>
+      <c r="C353" s="1">
+        <v>-1307.01</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B354" s="1">
+        <v>-1312.81</v>
+      </c>
+      <c r="C354" s="1">
+        <v>-1316.4099999999999</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B355" s="1">
+        <v>-1316.4099999999999</v>
+      </c>
+      <c r="C355" s="1">
+        <v>-1323.01</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B356" s="1">
+        <v>-1324.61</v>
+      </c>
+      <c r="C356" s="1">
+        <v>-1328.81</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B357" s="1">
+        <v>-1330.61</v>
+      </c>
+      <c r="C357" s="1">
+        <v>-1332.01</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B358" s="1">
+        <v>-1335.4099999999999</v>
+      </c>
+      <c r="C358" s="1">
+        <v>-1336.61</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B359" s="1">
+        <v>-1341.61</v>
+      </c>
+      <c r="C359" s="1">
+        <v>-1343.4099999999999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B360" s="1">
+        <v>-1347.01</v>
+      </c>
+      <c r="C360" s="1">
+        <v>-1349.4099999999999</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B361" s="1">
+        <v>-1352.21</v>
+      </c>
+      <c r="C361" s="1">
+        <v>-1353.61</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B362" s="1">
+        <v>-1356.21</v>
+      </c>
+      <c r="C362" s="1">
+        <v>-1364.61</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B363" s="1">
+        <v>-1366.01</v>
+      </c>
+      <c r="C363" s="1">
+        <v>-1367.21</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B364" s="1">
+        <v>-1372.61</v>
+      </c>
+      <c r="C364" s="1">
+        <v>-1374.01</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B365" s="1">
+        <v>-1378.01</v>
+      </c>
+      <c r="C365" s="1">
+        <v>-1379.01</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B366" s="1">
+        <v>-1379.01</v>
+      </c>
+      <c r="C366" s="1">
+        <v>-1380.01</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B367" s="1">
+        <v>-1382.81</v>
+      </c>
+      <c r="C367" s="1">
+        <v>-1390.4099999999999</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B368" s="1">
+        <v>-1392.81</v>
+      </c>
+      <c r="C368" s="1">
+        <v>-1396.61</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B369" s="1">
+        <v>-1402.01</v>
+      </c>
+      <c r="C369" s="1">
+        <v>-1403.61</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B370" s="1">
+        <v>-1409.61</v>
+      </c>
+      <c r="C370" s="1">
+        <v>-1410.81</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B371" s="1">
+        <v>-1418.4099999999999</v>
+      </c>
+      <c r="C371" s="1">
+        <v>-1420.01</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B372" s="1">
+        <v>-1431.61</v>
+      </c>
+      <c r="C372" s="1">
+        <v>-1433.01</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B373" s="1">
+        <v>-1437.21</v>
+      </c>
+      <c r="C373" s="1">
+        <v>-1438.81</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B374" s="1">
+        <v>-1439.51</v>
+      </c>
+      <c r="C374" s="1">
+        <v>-1440.51</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B375" s="1">
+        <v>-1441.01</v>
+      </c>
+      <c r="C375" s="1">
+        <v>-1442.21</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B376" s="1">
+        <v>-1443.61</v>
+      </c>
+      <c r="C376" s="1">
+        <v>-1445.4099999999999</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B377" s="1">
+        <v>-1448.81</v>
+      </c>
+      <c r="C377" s="1">
+        <v>-1451.4099999999999</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B378" s="1">
+        <v>-1451.4099999999999</v>
+      </c>
+      <c r="C378" s="1">
+        <v>-1454.01</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B379" s="1">
+        <v>-1459.81</v>
+      </c>
+      <c r="C379" s="1">
+        <v>-1461.61</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B380" s="1">
+        <v>-1472.4099999999999</v>
+      </c>
+      <c r="C380" s="1">
+        <v>-1473.61</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B381" s="1">
+        <v>-1473.61</v>
+      </c>
+      <c r="C381" s="1">
+        <v>-1475.81</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B382" s="1">
+        <v>-1477.4099999999999</v>
+      </c>
+      <c r="C382" s="1">
+        <v>-1479.01</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B383" s="1">
+        <v>-1479.01</v>
+      </c>
+      <c r="C383" s="1">
+        <v>-1481.01</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B384" s="1">
+        <v>-1482.81</v>
+      </c>
+      <c r="C384" s="1">
+        <v>-1484.01</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B385" s="1">
+        <v>-1485.21</v>
+      </c>
+      <c r="C385" s="1">
+        <v>-1486.4099999999999</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B386" s="1">
+        <v>-1487.61</v>
+      </c>
+      <c r="C386" s="1">
+        <v>-1489.61</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B387" s="1">
+        <v>-1493.4099999999999</v>
+      </c>
+      <c r="C387" s="1">
+        <v>-1495.81</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B388" s="1">
+        <v>-1495.81</v>
+      </c>
+      <c r="C388" s="1">
+        <v>-1497.4099999999999</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B389" s="1">
+        <v>-1497.4099999999999</v>
+      </c>
+      <c r="C389" s="1">
+        <v>-1498.81</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B390" s="1">
+        <v>-1498.81</v>
+      </c>
+      <c r="C390" s="1">
+        <v>-1500.01</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B391" s="1">
+        <v>-1502.21</v>
+      </c>
+      <c r="C391" s="1">
+        <v>-1503.4099999999999</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B392" s="1">
+        <v>-1506.4099999999999</v>
+      </c>
+      <c r="C392" s="1">
+        <v>-1510.61</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B393" s="1">
+        <v>-1511.4099999999999</v>
+      </c>
+      <c r="C393" s="1">
+        <v>-1512.81</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B394" s="1">
+        <v>-1517.81</v>
+      </c>
+      <c r="C394" s="1">
+        <v>-1519.21</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B395" s="1">
+        <v>-1520.4099999999999</v>
+      </c>
+      <c r="C395" s="1">
+        <v>-1523.61</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B396" s="1">
+        <v>-1524.81</v>
+      </c>
+      <c r="C396" s="1">
+        <v>-1527.01</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B397" s="1">
+        <v>-1527.01</v>
+      </c>
+      <c r="C397" s="1">
+        <v>-1531.01</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B398" s="1">
+        <v>-1531.01</v>
+      </c>
+      <c r="C398" s="1">
+        <v>-1542.61</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B399" s="1">
+        <v>-1545.01</v>
+      </c>
+      <c r="C399" s="1">
+        <v>-1547.4099999999999</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B400" s="1">
+        <v>-1547.4099999999999</v>
+      </c>
+      <c r="C400" s="1">
+        <v>-1550.21</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B401" s="1">
+        <v>-1550.21</v>
+      </c>
+      <c r="C401" s="1">
+        <v>-1556.4099999999999</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B402" s="1">
+        <v>-1558.21</v>
+      </c>
+      <c r="C402" s="1">
+        <v>-1560.81</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B403" s="1">
+        <v>-1566.21</v>
+      </c>
+      <c r="C403" s="1">
+        <v>-1567.61</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B404" s="1">
+        <v>-1570.4099999999999</v>
+      </c>
+      <c r="C404" s="1">
+        <v>-1574.81</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B405" s="1">
+        <v>-1574.81</v>
+      </c>
+      <c r="C405" s="1">
+        <v>-1578.4099999999999</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B406" s="1">
+        <v>-1578.4099999999999</v>
+      </c>
+      <c r="C406" s="1">
+        <v>-1586.21</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B407" s="1">
+        <v>-1586.21</v>
+      </c>
+      <c r="C407" s="1">
+        <v>-1589.21</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B408" s="1">
+        <v>-1589.21</v>
+      </c>
+      <c r="C408" s="1">
+        <v>-1591.21</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B409" s="1">
+        <v>-1593.61</v>
+      </c>
+      <c r="C409" s="1">
+        <v>-1595.01</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B410" s="1">
+        <v>-1595.01</v>
+      </c>
+      <c r="C410" s="1">
+        <v>-1596.21</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B411" s="1">
+        <v>-1603.01</v>
+      </c>
+      <c r="C411" s="1">
+        <v>-1605.21</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B412" s="1">
+        <v>-921.9</v>
+      </c>
+      <c r="C412" s="1">
+        <v>-923.69999999999993</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B413" s="1">
+        <v>-923.69999999999993</v>
+      </c>
+      <c r="C413" s="1">
+        <v>-925.69999999999993</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B414" s="1">
+        <v>-927.1</v>
+      </c>
+      <c r="C414" s="1">
+        <v>-928.69999999999993</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B415" s="1">
+        <v>-928.69999999999993</v>
+      </c>
+      <c r="C415" s="1">
+        <v>-929.9</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B416" s="1">
+        <v>-929.9</v>
+      </c>
+      <c r="C416" s="1">
+        <v>-933.69999999999993</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B417" s="1">
+        <v>-933.69999999999993</v>
+      </c>
+      <c r="C417" s="1">
+        <v>-934.9</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B418" s="1">
+        <v>-934.9</v>
+      </c>
+      <c r="C418" s="1">
+        <v>-936.1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B419" s="1">
+        <v>-936.1</v>
+      </c>
+      <c r="C419" s="1">
+        <v>-939.5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B420" s="1">
+        <v>-939.5</v>
+      </c>
+      <c r="C420" s="1">
+        <v>-952.9</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B421" s="1">
+        <v>-952.9</v>
+      </c>
+      <c r="C421" s="1">
+        <v>-955.5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B422" s="1">
+        <v>-955.5</v>
+      </c>
+      <c r="C422" s="1">
+        <v>-957.5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B423" s="1">
+        <v>-957.5</v>
+      </c>
+      <c r="C423" s="1">
+        <v>-961.3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B424" s="1">
+        <v>-961.3</v>
+      </c>
+      <c r="C424" s="1">
+        <v>-963.9</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B425" s="1">
+        <v>-965.3</v>
+      </c>
+      <c r="C425" s="1">
+        <v>-966.69999999999993</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B426" s="1">
+        <v>-971.1</v>
+      </c>
+      <c r="C426" s="1">
+        <v>-972.69999999999993</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B427" s="1">
+        <v>-972.69999999999993</v>
+      </c>
+      <c r="C427" s="1">
+        <v>-974.9</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B428" s="1">
+        <v>-976.69999999999993</v>
+      </c>
+      <c r="C428" s="1">
+        <v>-977.9</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B429" s="1">
+        <v>-980.9</v>
+      </c>
+      <c r="C429" s="1">
+        <v>-991.9</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B430" s="1">
+        <v>-991.9</v>
+      </c>
+      <c r="C430" s="1">
+        <v>-993.69999999999993</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B431" s="1">
+        <v>-993.69999999999993</v>
+      </c>
+      <c r="C431" s="1">
+        <v>-1007.1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B432" s="1">
+        <v>-1007.1</v>
+      </c>
+      <c r="C432" s="1">
+        <v>-1008.6999999999999</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B433" s="1">
+        <v>-1008.6999999999999</v>
+      </c>
+      <c r="C433" s="1">
+        <v>-1012.6999999999999</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B434" s="1">
+        <v>-1012.6999999999999</v>
+      </c>
+      <c r="C434" s="1">
+        <v>-1014.1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B435" s="1">
+        <v>-1021.3000000000001</v>
+      </c>
+      <c r="C435" s="1">
+        <v>-1022.4999999999999</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B436" s="1">
+        <v>-1023.9</v>
+      </c>
+      <c r="C436" s="1">
+        <v>-1025.7</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B437" s="1">
+        <v>-1031.7</v>
+      </c>
+      <c r="C437" s="1">
+        <v>-1034.3000000000002</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B438" s="1">
+        <v>-1038.1000000000001</v>
+      </c>
+      <c r="C438" s="1">
+        <v>-1039.7</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B439" s="1">
+        <v>-1039.7</v>
+      </c>
+      <c r="C439" s="1">
+        <v>-1043.1000000000001</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B440" s="1">
+        <v>-1045.9000000000001</v>
+      </c>
+      <c r="C440" s="1">
+        <v>-1047.9000000000001</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B441" s="1">
+        <v>-1047.9000000000001</v>
+      </c>
+      <c r="C441" s="1">
+        <v>-1051.7</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B442" s="1">
+        <v>-1052.9000000000001</v>
+      </c>
+      <c r="C442" s="1">
+        <v>-1054.9000000000001</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B443" s="1">
+        <v>-1054.9000000000001</v>
+      </c>
+      <c r="C443" s="1">
+        <v>-1058.1000000000001</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B444" s="1">
+        <v>-1060.5</v>
+      </c>
+      <c r="C444" s="1">
+        <v>-1063.1000000000001</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B445" s="1">
+        <v>-1063.1000000000001</v>
+      </c>
+      <c r="C445" s="1">
+        <v>-1069.5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B446" s="1">
+        <v>-1075.3000000000002</v>
+      </c>
+      <c r="C446" s="1">
+        <v>-1085.3000000000002</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B447" s="1">
+        <v>-1095.5</v>
+      </c>
+      <c r="C447" s="1">
+        <v>-1096.9000000000001</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B448" s="1">
+        <v>-1104.5</v>
+      </c>
+      <c r="C448" s="1">
+        <v>-1107.1000000000001</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B449" s="1">
+        <v>-1107.1000000000001</v>
+      </c>
+      <c r="C449" s="1">
+        <v>-1108.1000000000001</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B450" s="1">
+        <v>-1108.1000000000001</v>
+      </c>
+      <c r="C450" s="1">
+        <v>-1111.7</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B451" s="1">
+        <v>-1111.7</v>
+      </c>
+      <c r="C451" s="1">
+        <v>-1113.5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B452" s="1">
+        <v>-1114.5</v>
+      </c>
+      <c r="C452" s="1">
+        <v>-1115.9000000000001</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B453" s="1">
+        <v>-1115.9000000000001</v>
+      </c>
+      <c r="C453" s="1">
+        <v>-1116.9000000000001</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B454" s="1">
+        <v>-1116.9000000000001</v>
+      </c>
+      <c r="C454" s="1">
+        <v>-1118.3000000000002</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B455" s="1">
+        <v>-1118.3000000000002</v>
+      </c>
+      <c r="C455" s="1">
+        <v>-1130.7</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B456" s="1">
+        <v>-1130.7</v>
+      </c>
+      <c r="C456" s="1">
+        <v>-1131.7</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B457" s="1">
+        <v>-1131.7</v>
+      </c>
+      <c r="C457" s="1">
+        <v>-1134.9000000000001</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B458" s="1">
+        <v>-1134.9000000000001</v>
+      </c>
+      <c r="C458" s="1">
+        <v>-1136.9000000000001</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B459" s="1">
+        <v>-1136.9000000000001</v>
+      </c>
+      <c r="C459" s="1">
+        <v>-1144.1000000000001</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B460" s="1">
+        <v>-1147.9000000000001</v>
+      </c>
+      <c r="C460" s="1">
+        <v>-1150.7</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B461" s="1">
+        <v>-1150.7</v>
+      </c>
+      <c r="C461" s="1">
+        <v>-1152.3000000000002</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B462" s="1">
+        <v>-1152.3000000000002</v>
+      </c>
+      <c r="C462" s="1">
+        <v>-1153.9000000000001</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B463" s="1">
+        <v>-1153.9000000000001</v>
+      </c>
+      <c r="C463" s="1">
+        <v>-1158.9000000000001</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B464" s="1">
+        <v>-1158.9000000000001</v>
+      </c>
+      <c r="C464" s="1">
+        <v>-1161.7</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B465" s="1">
+        <v>-1161.7</v>
+      </c>
+      <c r="C465" s="1">
+        <v>-1166.7</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B466" s="1">
+        <v>-1166.7</v>
+      </c>
+      <c r="C466" s="1">
+        <v>-1172.9000000000001</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B467" s="1">
+        <v>-1172.9000000000001</v>
+      </c>
+      <c r="C467" s="1">
+        <v>-1178.3000000000002</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B468" s="1">
+        <v>-1178.3000000000002</v>
+      </c>
+      <c r="C468" s="1">
+        <v>-1179.9000000000001</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B469" s="1">
+        <v>-1179.9000000000001</v>
+      </c>
+      <c r="C469" s="1">
+        <v>-1184.7</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B470" s="1">
+        <v>-1192.7</v>
+      </c>
+      <c r="C470" s="1">
+        <v>-1194.5</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B471" s="1">
+        <v>-1194.5</v>
+      </c>
+      <c r="C471" s="1">
+        <v>-1203.7</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B472" s="1">
+        <v>-1205.1000000000001</v>
+      </c>
+      <c r="C472" s="1">
+        <v>-1206.5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B473" s="1">
+        <v>-1210.5</v>
+      </c>
+      <c r="C473" s="1">
+        <v>-1212.1000000000001</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B474" s="1">
+        <v>-1217.1000000000001</v>
+      </c>
+      <c r="C474" s="1">
+        <v>-1218.5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B475" s="1">
+        <v>-1219.1000000000001</v>
+      </c>
+      <c r="C475" s="1">
+        <v>-1220.5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B476" s="1">
+        <v>-1222.5</v>
+      </c>
+      <c r="C476" s="1">
+        <v>-1223.9000000000001</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B477" s="1">
+        <v>-1241.5</v>
+      </c>
+      <c r="C477" s="1">
+        <v>-1245.7</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B478" s="1">
+        <v>-1252.5</v>
+      </c>
+      <c r="C478" s="1">
+        <v>-1254.1000000000001</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B479" s="1">
+        <v>-1266.3000000000002</v>
+      </c>
+      <c r="C479" s="1">
+        <v>-1267.9000000000001</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B480" s="1">
+        <v>-1273.5</v>
+      </c>
+      <c r="C480" s="1">
+        <v>-1274.7</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B481" s="1">
+        <v>-1276.3000000000002</v>
+      </c>
+      <c r="C481" s="1">
+        <v>-1278.3000000000002</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B482" s="1">
+        <v>-1279.7</v>
+      </c>
+      <c r="C482" s="1">
+        <v>-1284.9000000000001</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B483" s="1">
+        <v>-1305.3000000000002</v>
+      </c>
+      <c r="C483" s="1">
+        <v>-1306.9000000000001</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B484" s="1">
+        <v>-1323.1000000000001</v>
+      </c>
+      <c r="C484" s="1">
+        <v>-1325.1000000000001</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B485" s="1">
+        <v>-1327.7</v>
+      </c>
+      <c r="C485" s="1">
+        <v>-1329.3000000000002</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B486" s="1">
+        <v>-1329.3000000000002</v>
+      </c>
+      <c r="C486" s="1">
+        <v>-1331.7</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B487" s="1">
+        <v>-1331.7</v>
+      </c>
+      <c r="C487" s="1">
+        <v>-1334.7</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B488" s="1">
+        <v>-1334.7</v>
+      </c>
+      <c r="C488" s="1">
+        <v>-1337.1000000000001</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B489" s="1">
+        <v>-1337.1000000000001</v>
+      </c>
+      <c r="C489" s="1">
+        <v>-1339.1000000000001</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B490" s="1">
+        <v>-1339.1000000000001</v>
+      </c>
+      <c r="C490" s="1">
+        <v>-1347.1000000000001</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B491" s="1">
+        <v>-1347.1000000000001</v>
+      </c>
+      <c r="C491" s="1">
+        <v>-1348.9</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B492" s="1">
+        <v>-1348.9</v>
+      </c>
+      <c r="C492" s="1">
+        <v>-1357.7</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B493" s="1">
+        <v>-1357.7</v>
+      </c>
+      <c r="C493" s="1">
+        <v>-1360.1000000000001</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B494" s="1">
+        <v>-1360.1000000000001</v>
+      </c>
+      <c r="C494" s="1">
+        <v>-1361.9</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B495" s="1">
+        <v>-1375.3000000000002</v>
+      </c>
+      <c r="C495" s="1">
+        <v>-1378.1000000000001</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B496" s="1">
+        <v>-1381.1000000000001</v>
+      </c>
+      <c r="C496" s="1">
+        <v>-1383.1000000000001</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B497" s="1">
+        <v>-1404.5</v>
+      </c>
+      <c r="C497" s="1">
+        <v>-1405.7</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B498" s="1">
+        <v>-1406.9</v>
+      </c>
+      <c r="C498" s="1">
+        <v>-1407.9</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B499" s="1">
+        <v>-1409.1000000000001</v>
+      </c>
+      <c r="C499" s="1">
+        <v>-1412.5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B500" s="1">
+        <v>-1413.9</v>
+      </c>
+      <c r="C500" s="1">
+        <v>-1415.3000000000002</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B501" s="1">
+        <v>-1418.1000000000001</v>
+      </c>
+      <c r="C501" s="1">
+        <v>-1419.9</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B502" s="1">
+        <v>-1427.7</v>
+      </c>
+      <c r="C502" s="1">
+        <v>-1429.9</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B503" s="1">
+        <v>-1432.9</v>
+      </c>
+      <c r="C503" s="1">
+        <v>-1433.9</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B504" s="1">
+        <v>-1433.9</v>
+      </c>
+      <c r="C504" s="1">
+        <v>-1439.1000000000001</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B505" s="1">
+        <v>-1441.1000000000001</v>
+      </c>
+      <c r="C505" s="1">
+        <v>-1451.7</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B506" s="1">
+        <v>-1455.5</v>
+      </c>
+      <c r="C506" s="1">
+        <v>-1461.9</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B507" s="1">
+        <v>-1469.5</v>
+      </c>
+      <c r="C507" s="1">
+        <v>-1490.9</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B508" s="1">
+        <v>-1490.9</v>
+      </c>
+      <c r="C508" s="1">
+        <v>-1492.5</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B509" s="1">
+        <v>-1492.5</v>
+      </c>
+      <c r="C509" s="1">
+        <v>-1504.5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B510" s="1">
+        <v>-1504.5</v>
+      </c>
+      <c r="C510" s="1">
+        <v>-1505.9</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B511" s="1">
+        <v>-1505.9</v>
+      </c>
+      <c r="C511" s="1">
+        <v>-1512.5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B512" s="1">
+        <v>-1515.7</v>
+      </c>
+      <c r="C512" s="1">
+        <v>-1517.5</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B513" s="1">
+        <v>-1521.1000000000001</v>
+      </c>
+      <c r="C513" s="1">
+        <v>-1528.7</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B514" s="1">
+        <v>-1528.7</v>
+      </c>
+      <c r="C514" s="1">
+        <v>-1529.9</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B515" s="1">
+        <v>-1529.9</v>
+      </c>
+      <c r="C515" s="1">
+        <v>-1531.9</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B516" s="1">
+        <v>-1534.1000000000001</v>
+      </c>
+      <c r="C516" s="1">
+        <v>-1536.9</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B517" s="1">
+        <v>-1538.7</v>
+      </c>
+      <c r="C517" s="1">
+        <v>-1542.7</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B518" s="1">
+        <v>-1542.7</v>
+      </c>
+      <c r="C518" s="1">
+        <v>-1545.7</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B519" s="1">
+        <v>-1545.7</v>
+      </c>
+      <c r="C519" s="1">
+        <v>-1547.9</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B520" s="1">
+        <v>-1550.9</v>
+      </c>
+      <c r="C520" s="1">
+        <v>-1563.1000000000001</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B521" s="1">
+        <v>-1567.9</v>
+      </c>
+      <c r="C521" s="1">
+        <v>-1576.9</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B522" s="1">
+        <v>-1578.9</v>
+      </c>
+      <c r="C522" s="1">
+        <v>-1589.9</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B523" s="1">
+        <v>-1591.3000000000002</v>
+      </c>
+      <c r="C523" s="1">
+        <v>-1602.5</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B524" s="1">
+        <v>-1602.5</v>
+      </c>
+      <c r="C524" s="1">
+        <v>-1604.9</v>
       </c>
     </row>
   </sheetData>
@@ -2673,10 +6213,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,7 +6234,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -2705,53 +6245,70 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>53.52</v>
+        <v>44.19</v>
       </c>
       <c r="C2" s="1">
-        <v>1500</v>
+        <v>3200</v>
       </c>
       <c r="D2" s="1">
-        <v>14398183.359999999</v>
+        <v>13555210.760105699</v>
       </c>
       <c r="E2" s="1">
-        <v>7355849.7549999999</v>
+        <v>6741187.0110422</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>53.76</v>
+        <v>45.1</v>
       </c>
       <c r="C3" s="1">
-        <v>1500</v>
+        <v>3200</v>
       </c>
       <c r="D3" s="1">
-        <v>14398193.403999999</v>
+        <v>13566217.0728589</v>
       </c>
       <c r="E3" s="1">
-        <v>7355921.8679999998</v>
+        <v>6744021.02294257</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>54.26</v>
+        <v>44.2</v>
       </c>
       <c r="C4" s="1">
-        <v>1500</v>
+        <v>3200</v>
       </c>
       <c r="D4" s="1">
-        <v>14398205.366</v>
+        <v>13562965.1129051</v>
       </c>
       <c r="E4" s="1">
-        <v>7355883.1059999997</v>
+        <v>6743459.5140787801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45.1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3200</v>
+      </c>
+      <c r="D5" s="1">
+        <v>13576602.643458899</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6739068.5023883898</v>
       </c>
     </row>
   </sheetData>
@@ -2762,10 +6319,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2773,7 +6330,8 @@
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="24" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2795,13 +6353,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
-        <v>-1298</v>
+        <v>-924</v>
       </c>
       <c r="D2" s="6">
-        <v>-1445</v>
+        <v>-1153</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2809,33 +6367,154 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
-        <v>-1296.412</v>
+        <v>-910</v>
       </c>
       <c r="D3" s="1">
-        <v>-1456.2070000000001</v>
+        <v>-1140</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
-        <v>-1295.7239999999999</v>
+        <v>-918</v>
       </c>
       <c r="D4" s="1">
-        <v>-1444.5930000000001</v>
+        <v>-1146</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-922</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-1154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-1153</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-1443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-1140</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-1431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-1146</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-1449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-1154</v>
+      </c>
+      <c r="D9" s="5">
+        <v>-1434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-1443</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-1623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-1431</v>
+      </c>
+      <c r="D11" s="5">
+        <v>-1616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-1449</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-1630</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-1434</v>
+      </c>
+      <c r="D13" s="5">
+        <v>-1628</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/plotlog.xlsx
+++ b/templates/plotlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="LAYERS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="13">
   <si>
     <t>WELL</t>
   </si>
@@ -46,25 +46,19 @@
     <t>MD</t>
   </si>
   <si>
-    <t>337Р</t>
-  </si>
-  <si>
-    <t>340Р</t>
-  </si>
-  <si>
-    <t>342Р</t>
-  </si>
-  <si>
-    <t>371Р</t>
-  </si>
-  <si>
     <t>ВП</t>
   </si>
   <si>
-    <t>СП</t>
+    <t>U0501</t>
   </si>
   <si>
-    <t>НП</t>
+    <t>Р-25</t>
+  </si>
+  <si>
+    <t>1П</t>
+  </si>
+  <si>
+    <t>Р-26</t>
   </si>
 </sst>
 </file>
@@ -430,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C524"/>
+  <dimension ref="A1:C703"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A553" workbookViewId="0">
+      <selection activeCell="D575" sqref="D575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,1488 +447,1488 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
+      <c r="A2" s="1">
+        <v>30</v>
       </c>
       <c r="B2" s="1">
-        <v>-923.9</v>
+        <v>-1216.9000000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>-925.3</v>
+        <v>-1223</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
+      <c r="A3" s="1">
+        <v>30</v>
       </c>
       <c r="B3" s="1">
-        <v>-925.3</v>
+        <v>-1224</v>
       </c>
       <c r="C3" s="1">
-        <v>-927.5</v>
+        <v>-1228.9000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+      <c r="A4" s="1">
+        <v>30</v>
       </c>
       <c r="B4" s="1">
-        <v>-928.9</v>
+        <v>-1228.9000000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>-933.5</v>
+        <v>-1231.9000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+      <c r="A5" s="1">
+        <v>30</v>
       </c>
       <c r="B5" s="1">
-        <v>-933.5</v>
+        <v>-1233.2</v>
       </c>
       <c r="C5" s="1">
-        <v>-936.9</v>
+        <v>-1234.3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
+      <c r="A6" s="1">
+        <v>30</v>
       </c>
       <c r="B6" s="1">
-        <v>-938.3</v>
+        <v>-1234.3</v>
       </c>
       <c r="C6" s="1">
-        <v>-941.1</v>
+        <v>-1236.4000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
+      <c r="A7" s="1">
+        <v>30</v>
       </c>
       <c r="B7" s="1">
-        <v>-941.1</v>
+        <v>-1236.4000000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>-942.5</v>
+        <v>-1238.4000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
+      <c r="A8" s="1">
+        <v>30</v>
       </c>
       <c r="B8" s="1">
-        <v>-942.5</v>
+        <v>-1238.4000000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>-943.69999999999993</v>
+        <v>-1240.9000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="1">
+        <v>30</v>
       </c>
       <c r="B9" s="1">
-        <v>-948.1</v>
+        <v>-1241.5</v>
       </c>
       <c r="C9" s="1">
-        <v>-949.1</v>
+        <v>-1243.5999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
+      <c r="A10" s="1">
+        <v>30</v>
       </c>
       <c r="B10" s="1">
-        <v>-950.69999999999993</v>
+        <v>-1243.5999999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>-953.5</v>
+        <v>-1247.5999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
+      <c r="A11" s="1">
+        <v>30</v>
       </c>
       <c r="B11" s="1">
-        <v>-953.5</v>
+        <v>-1247.5999999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>-955.1</v>
+        <v>-1250</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
+      <c r="A12" s="1">
+        <v>30</v>
       </c>
       <c r="B12" s="1">
-        <v>-955.1</v>
+        <v>-1250</v>
       </c>
       <c r="C12" s="1">
-        <v>-956.3</v>
+        <v>-1252.8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
+      <c r="A13" s="1">
+        <v>30</v>
       </c>
       <c r="B13" s="1">
-        <v>-958.5</v>
+        <v>-1252.8</v>
       </c>
       <c r="C13" s="1">
-        <v>-959.69999999999993</v>
+        <v>-1255.4000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
+      <c r="A14" s="1">
+        <v>30</v>
       </c>
       <c r="B14" s="1">
-        <v>-960.69999999999993</v>
+        <v>-1257.5999999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>-961.69999999999993</v>
+        <v>-1261.2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
+      <c r="A15" s="1">
+        <v>30</v>
       </c>
       <c r="B15" s="1">
-        <v>-964.69999999999993</v>
+        <v>-1261.2</v>
       </c>
       <c r="C15" s="1">
-        <v>-966.1</v>
+        <v>-1264.4000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
+      <c r="A16" s="1">
+        <v>30</v>
       </c>
       <c r="B16" s="1">
-        <v>-968.3</v>
+        <v>-1267.4000000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>-969.69999999999993</v>
+        <v>-1269.5999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
+      <c r="A17" s="1">
+        <v>30</v>
       </c>
       <c r="B17" s="1">
-        <v>-969.69999999999993</v>
+        <v>-1269.5999999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>-971.1</v>
+        <v>-1270.8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>8</v>
+      <c r="A18" s="1">
+        <v>30</v>
       </c>
       <c r="B18" s="1">
-        <v>-979.30000000000007</v>
+        <v>-1270.8</v>
       </c>
       <c r="C18" s="1">
-        <v>-980.69999999999993</v>
+        <v>-1273.3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
+      <c r="A19" s="1">
+        <v>30</v>
       </c>
       <c r="B19" s="1">
-        <v>-980.69999999999993</v>
+        <v>-1274</v>
       </c>
       <c r="C19" s="1">
-        <v>-983.69999999999993</v>
+        <v>-1275.7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
+      <c r="A20" s="1">
+        <v>30</v>
       </c>
       <c r="B20" s="1">
-        <v>-983.69999999999993</v>
+        <v>-1275.7</v>
       </c>
       <c r="C20" s="1">
-        <v>-987.30000000000007</v>
+        <v>-1276.8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>8</v>
+      <c r="A21" s="1">
+        <v>30</v>
       </c>
       <c r="B21" s="1">
-        <v>-989.69999999999993</v>
+        <v>-1276.8</v>
       </c>
       <c r="C21" s="1">
-        <v>-992.69999999999993</v>
+        <v>-1279</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
+      <c r="A22" s="1">
+        <v>30</v>
       </c>
       <c r="B22" s="1">
-        <v>-996.69999999999993</v>
+        <v>-1279</v>
       </c>
       <c r="C22" s="1">
-        <v>-998.9</v>
+        <v>-1280.3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
+      <c r="A23" s="1">
+        <v>30</v>
       </c>
       <c r="B23" s="1">
-        <v>-1000.3000000000001</v>
+        <v>-1280.3</v>
       </c>
       <c r="C23" s="1">
-        <v>-1001.6999999999999</v>
+        <v>-1281.2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>8</v>
+      <c r="A24" s="1">
+        <v>30</v>
       </c>
       <c r="B24" s="1">
-        <v>-1001.6999999999999</v>
+        <v>-1281.9000000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>-1003.3000000000001</v>
+        <v>-1283.9000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>8</v>
+      <c r="A25" s="1">
+        <v>30</v>
       </c>
       <c r="B25" s="1">
-        <v>-1003.3000000000001</v>
+        <v>-1285</v>
       </c>
       <c r="C25" s="1">
-        <v>-1004.6999999999999</v>
+        <v>-1293.7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>8</v>
+      <c r="A26" s="1">
+        <v>30</v>
       </c>
       <c r="B26" s="1">
-        <v>-1004.6999999999999</v>
+        <v>-1293.7</v>
       </c>
       <c r="C26" s="1">
-        <v>-1008.3000000000001</v>
+        <v>-1294.0999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>8</v>
+      <c r="A27" s="1">
+        <v>30</v>
       </c>
       <c r="B27" s="1">
-        <v>-1008.3000000000001</v>
+        <v>-1295.3</v>
       </c>
       <c r="C27" s="1">
-        <v>-1009.4999999999999</v>
+        <v>-1303.8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>8</v>
+      <c r="A28" s="1">
+        <v>30</v>
       </c>
       <c r="B28" s="1">
-        <v>-1009.4999999999999</v>
+        <v>-1310</v>
       </c>
       <c r="C28" s="1">
-        <v>-1012.1</v>
+        <v>-1312.8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>8</v>
+      <c r="A29" s="1">
+        <v>30</v>
       </c>
       <c r="B29" s="1">
-        <v>-1015.9</v>
+        <v>-1327.7</v>
       </c>
       <c r="C29" s="1">
-        <v>-1017.6999999999999</v>
+        <v>-1329.9</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>8</v>
+      <c r="A30" s="1">
+        <v>30</v>
       </c>
       <c r="B30" s="1">
-        <v>-1017.6999999999999</v>
+        <v>-1330.9</v>
       </c>
       <c r="C30" s="1">
-        <v>-1019.3000000000001</v>
+        <v>-1332.5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>8</v>
+      <c r="A31" s="1">
+        <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>-1020.1</v>
+        <v>-1335.7</v>
       </c>
       <c r="C31" s="1">
-        <v>-1023.6999999999999</v>
+        <v>-1338.4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>8</v>
+      <c r="A32" s="1">
+        <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>-1025.7</v>
+        <v>-1338.4</v>
       </c>
       <c r="C32" s="1">
-        <v>-1027.1000000000001</v>
+        <v>-1339.5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>8</v>
+      <c r="A33" s="1">
+        <v>30</v>
       </c>
       <c r="B33" s="1">
-        <v>-1031.5</v>
+        <v>-1339.5</v>
       </c>
       <c r="C33" s="1">
-        <v>-1033.3000000000002</v>
+        <v>-1340.6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>8</v>
+      <c r="A34" s="1">
+        <v>30</v>
       </c>
       <c r="B34" s="1">
-        <v>-1038.7</v>
+        <v>-1340.6</v>
       </c>
       <c r="C34" s="1">
-        <v>-1040.3000000000002</v>
+        <v>-1342.5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>8</v>
+      <c r="A35" s="1">
+        <v>30</v>
       </c>
       <c r="B35" s="1">
-        <v>-1040.3000000000002</v>
+        <v>-1342.5</v>
       </c>
       <c r="C35" s="1">
-        <v>-1042.7</v>
+        <v>-1344.6</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>8</v>
+      <c r="A36" s="1">
+        <v>30</v>
       </c>
       <c r="B36" s="1">
-        <v>-1046.3000000000002</v>
+        <v>-1344.6</v>
       </c>
       <c r="C36" s="1">
-        <v>-1047.3000000000002</v>
+        <v>-1346.6</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>8</v>
+      <c r="A37" s="1">
+        <v>30</v>
       </c>
       <c r="B37" s="1">
-        <v>-1048.5</v>
+        <v>-1346.6</v>
       </c>
       <c r="C37" s="1">
-        <v>-1050.9000000000001</v>
+        <v>-1348.6</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>8</v>
+      <c r="A38" s="1">
+        <v>30</v>
       </c>
       <c r="B38" s="1">
-        <v>-1050.9000000000001</v>
+        <v>-1348.6</v>
       </c>
       <c r="C38" s="1">
-        <v>-1052.7</v>
+        <v>-1350.1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>8</v>
+      <c r="A39" s="1">
+        <v>30</v>
       </c>
       <c r="B39" s="1">
-        <v>-1054.1000000000001</v>
+        <v>-1350.1</v>
       </c>
       <c r="C39" s="1">
-        <v>-1055.3000000000002</v>
+        <v>-1352.1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>8</v>
+      <c r="A40" s="1">
+        <v>30</v>
       </c>
       <c r="B40" s="1">
-        <v>-1055.3000000000002</v>
+        <v>-1352.1</v>
       </c>
       <c r="C40" s="1">
-        <v>-1057.1000000000001</v>
+        <v>-1353.3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>8</v>
+      <c r="A41" s="1">
+        <v>30</v>
       </c>
       <c r="B41" s="1">
-        <v>-1057.1000000000001</v>
+        <v>-1353.3</v>
       </c>
       <c r="C41" s="1">
-        <v>-1058.3000000000002</v>
+        <v>-1356.4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>8</v>
+      <c r="A42" s="1">
+        <v>30</v>
       </c>
       <c r="B42" s="1">
-        <v>-1059</v>
+        <v>-1358.3</v>
       </c>
       <c r="C42" s="1">
-        <v>-1060</v>
+        <v>-1359.9</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>8</v>
+      <c r="A43" s="1">
+        <v>30</v>
       </c>
       <c r="B43" s="1">
-        <v>-1061.1000000000001</v>
+        <v>-1361.1</v>
       </c>
       <c r="C43" s="1">
-        <v>-1062.7</v>
+        <v>-1363.7</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>8</v>
+      <c r="A44" s="1">
+        <v>30</v>
       </c>
       <c r="B44" s="1">
-        <v>-1069.3000000000002</v>
+        <v>-1363.7</v>
       </c>
       <c r="C44" s="1">
-        <v>-1071.7</v>
+        <v>-1365.9</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>8</v>
+      <c r="A45" s="1">
+        <v>30</v>
       </c>
       <c r="B45" s="1">
-        <v>-1074.3000000000002</v>
+        <v>-1365.9</v>
       </c>
       <c r="C45" s="1">
-        <v>-1091.1000000000001</v>
+        <v>-1370.9</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>8</v>
+      <c r="A46" s="1">
+        <v>30</v>
       </c>
       <c r="B46" s="1">
-        <v>-1094.3000000000002</v>
+        <v>-1370.9</v>
       </c>
       <c r="C46" s="1">
-        <v>-1098.9000000000001</v>
+        <v>-1372.4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>8</v>
+      <c r="A47" s="1">
+        <v>30</v>
       </c>
       <c r="B47" s="1">
-        <v>-1100.7</v>
+        <v>-1372.4</v>
       </c>
       <c r="C47" s="1">
-        <v>-1104.1000000000001</v>
+        <v>-1373.3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>8</v>
+      <c r="A48" s="1">
+        <v>30</v>
       </c>
       <c r="B48" s="1">
-        <v>-1106.5</v>
+        <v>-1374.9</v>
       </c>
       <c r="C48" s="1">
-        <v>-1107.9000000000001</v>
+        <v>-1378.6</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>8</v>
+      <c r="A49" s="1">
+        <v>30</v>
       </c>
       <c r="B49" s="1">
-        <v>-1111.7</v>
+        <v>-1378.6</v>
       </c>
       <c r="C49" s="1">
-        <v>-1112.7</v>
+        <v>-1380.3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>8</v>
+      <c r="A50" s="1">
+        <v>30</v>
       </c>
       <c r="B50" s="1">
-        <v>-1118.5</v>
+        <v>-1380.3</v>
       </c>
       <c r="C50" s="1">
-        <v>-1119.7</v>
+        <v>-1382.9</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>8</v>
+      <c r="A51" s="1">
+        <v>30</v>
       </c>
       <c r="B51" s="1">
-        <v>-1119.7</v>
+        <v>-1382.9</v>
       </c>
       <c r="C51" s="1">
-        <v>-1120.7</v>
+        <v>-1385.7</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>8</v>
+      <c r="A52" s="1">
+        <v>30</v>
       </c>
       <c r="B52" s="1">
-        <v>-1124.5</v>
+        <v>-1385.7</v>
       </c>
       <c r="C52" s="1">
-        <v>-1129.3000000000002</v>
+        <v>-1387.8</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>8</v>
+      <c r="A53" s="1">
+        <v>30</v>
       </c>
       <c r="B53" s="1">
-        <v>-1129.3000000000002</v>
+        <v>-1387.8</v>
       </c>
       <c r="C53" s="1">
-        <v>-1143.3000000000002</v>
+        <v>-1389.2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>8</v>
+      <c r="A54" s="1">
+        <v>30</v>
       </c>
       <c r="B54" s="1">
-        <v>-1143.3000000000002</v>
+        <v>-1389.2</v>
       </c>
       <c r="C54" s="1">
-        <v>-1151.5</v>
+        <v>-1390.1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>8</v>
+      <c r="A55" s="1">
+        <v>30</v>
       </c>
       <c r="B55" s="1">
-        <v>-1151.5</v>
+        <v>-1390.8</v>
       </c>
       <c r="C55" s="1">
-        <v>-1152.9000000000001</v>
+        <v>-1393</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>8</v>
+      <c r="A56" s="1">
+        <v>30</v>
       </c>
       <c r="B56" s="1">
-        <v>-1152.9000000000001</v>
+        <v>-1393.8</v>
       </c>
       <c r="C56" s="1">
-        <v>-1154.5</v>
+        <v>-1394.9</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>8</v>
+      <c r="A57" s="1">
+        <v>30</v>
       </c>
       <c r="B57" s="1">
-        <v>-1154.5</v>
+        <v>-1396</v>
       </c>
       <c r="C57" s="1">
-        <v>-1167.3000000000002</v>
+        <v>-1398.3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>8</v>
+      <c r="A58" s="1">
+        <v>30</v>
       </c>
       <c r="B58" s="1">
-        <v>-1167.3000000000002</v>
+        <v>-1399.4</v>
       </c>
       <c r="C58" s="1">
-        <v>-1168.7</v>
+        <v>-1405.8</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>8</v>
+      <c r="A59" s="1">
+        <v>30</v>
       </c>
       <c r="B59" s="1">
-        <v>-1168.7</v>
+        <v>-1405.8</v>
       </c>
       <c r="C59" s="1">
-        <v>-1170.9000000000001</v>
+        <v>-1408.4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>8</v>
+      <c r="A60" s="1">
+        <v>30</v>
       </c>
       <c r="B60" s="1">
-        <v>-1170.9000000000001</v>
+        <v>-1408.4</v>
       </c>
       <c r="C60" s="1">
-        <v>-1173.3000000000002</v>
+        <v>-1411.8</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>8</v>
+      <c r="A61" s="1">
+        <v>30</v>
       </c>
       <c r="B61" s="1">
-        <v>-1173.3000000000002</v>
+        <v>-1411.8</v>
       </c>
       <c r="C61" s="1">
-        <v>-1175.5</v>
+        <v>-1413.5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>8</v>
+      <c r="A62" s="1">
+        <v>30</v>
       </c>
       <c r="B62" s="1">
-        <v>-1175.5</v>
+        <v>-1413.5</v>
       </c>
       <c r="C62" s="1">
-        <v>-1179.3000000000002</v>
+        <v>-1415.8</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>8</v>
+      <c r="A63" s="1">
+        <v>30</v>
       </c>
       <c r="B63" s="1">
-        <v>-1181.1000000000001</v>
+        <v>-1422.1</v>
       </c>
       <c r="C63" s="1">
-        <v>-1182.5</v>
+        <v>-1426.8</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>8</v>
+      <c r="A64" s="1">
+        <v>30</v>
       </c>
       <c r="B64" s="1">
-        <v>-1184.1000000000001</v>
+        <v>-1435.3</v>
       </c>
       <c r="C64" s="1">
-        <v>-1190.1000000000001</v>
+        <v>-1440</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>8</v>
+      <c r="A65" s="1">
+        <v>30</v>
       </c>
       <c r="B65" s="1">
-        <v>-1190.1000000000001</v>
+        <v>-1442.4</v>
       </c>
       <c r="C65" s="1">
-        <v>-1191.7</v>
+        <v>-1448</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>8</v>
+      <c r="A66" s="1">
+        <v>30</v>
       </c>
       <c r="B66" s="1">
-        <v>-1195.1000000000001</v>
+        <v>-1449.4</v>
       </c>
       <c r="C66" s="1">
-        <v>-1198.3000000000002</v>
+        <v>-1450.2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>8</v>
+      <c r="A67" s="1">
+        <v>30</v>
       </c>
       <c r="B67" s="1">
-        <v>-1202.1000000000001</v>
+        <v>-1451.8</v>
       </c>
       <c r="C67" s="1">
-        <v>-1203.9000000000001</v>
+        <v>-1456</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>8</v>
+      <c r="A68" s="1">
+        <v>30</v>
       </c>
       <c r="B68" s="1">
-        <v>-1204.9000000000001</v>
+        <v>-1457</v>
       </c>
       <c r="C68" s="1">
-        <v>-1206.5</v>
+        <v>-1458.3</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>8</v>
+      <c r="A69" s="1">
+        <v>30</v>
       </c>
       <c r="B69" s="1">
-        <v>-1208.3000000000002</v>
+        <v>-1459.1</v>
       </c>
       <c r="C69" s="1">
-        <v>-1211.1000000000001</v>
+        <v>-1460.5</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>8</v>
+      <c r="A70" s="1">
+        <v>30</v>
       </c>
       <c r="B70" s="1">
-        <v>-1211.1000000000001</v>
+        <v>-1461.3</v>
       </c>
       <c r="C70" s="1">
-        <v>-1213.9000000000001</v>
+        <v>-1462.8</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>8</v>
+      <c r="A71" s="1">
+        <v>30</v>
       </c>
       <c r="B71" s="1">
-        <v>-1213.9000000000001</v>
+        <v>-1467.3</v>
       </c>
       <c r="C71" s="1">
-        <v>-1216.1000000000001</v>
+        <v>-1474.2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>8</v>
+      <c r="A72" s="1">
+        <v>30</v>
       </c>
       <c r="B72" s="1">
-        <v>-1219.3000000000002</v>
+        <v>-1476</v>
       </c>
       <c r="C72" s="1">
-        <v>-1222.1000000000001</v>
+        <v>-1477.4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>8</v>
+      <c r="A73" s="1">
+        <v>30</v>
       </c>
       <c r="B73" s="1">
-        <v>-1223.5</v>
+        <v>-1480.4</v>
       </c>
       <c r="C73" s="1">
-        <v>-1225.7</v>
+        <v>-1487.1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>8</v>
+      <c r="A74" s="1">
+        <v>30</v>
       </c>
       <c r="B74" s="1">
-        <v>-1225.7</v>
+        <v>-1494</v>
       </c>
       <c r="C74" s="1">
-        <v>-1231.1000000000001</v>
+        <v>-1496.7</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>8</v>
+      <c r="A75" s="1">
+        <v>30</v>
       </c>
       <c r="B75" s="1">
-        <v>-1232.5</v>
+        <v>-1496.7</v>
       </c>
       <c r="C75" s="1">
-        <v>-1233.9000000000001</v>
+        <v>-1500.5</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>8</v>
+      <c r="A76" s="1">
+        <v>30</v>
       </c>
       <c r="B76" s="1">
-        <v>-1239.9000000000001</v>
+        <v>-1500.5</v>
       </c>
       <c r="C76" s="1">
-        <v>-1241.3000000000002</v>
+        <v>-1503.2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>8</v>
+      <c r="A77" s="1">
+        <v>30</v>
       </c>
       <c r="B77" s="1">
-        <v>-1242.9000000000001</v>
+        <v>-1504.8</v>
       </c>
       <c r="C77" s="1">
-        <v>-1244.1000000000001</v>
+        <v>-1508.7</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>8</v>
+      <c r="A78" s="1">
+        <v>30</v>
       </c>
       <c r="B78" s="1">
-        <v>-1248.5</v>
+        <v>-1510.3</v>
       </c>
       <c r="C78" s="1">
-        <v>-1251.3000000000002</v>
+        <v>-1512</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>8</v>
+      <c r="A79" s="1">
+        <v>30</v>
       </c>
       <c r="B79" s="1">
-        <v>-1251.3000000000002</v>
+        <v>-1514.1</v>
       </c>
       <c r="C79" s="1">
-        <v>-1254.9000000000001</v>
+        <v>-1517.5</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>8</v>
+      <c r="A80" s="1">
+        <v>30</v>
       </c>
       <c r="B80" s="1">
-        <v>-1254.9000000000001</v>
+        <v>-1518.2</v>
       </c>
       <c r="C80" s="1">
-        <v>-1256.7</v>
+        <v>-1519.9</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>8</v>
+      <c r="A81" s="1">
+        <v>30</v>
       </c>
       <c r="B81" s="1">
-        <v>-1256.7</v>
+        <v>-1519.9</v>
       </c>
       <c r="C81" s="1">
-        <v>-1258.1000000000001</v>
+        <v>-1521.2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>8</v>
+      <c r="A82" s="1">
+        <v>30</v>
       </c>
       <c r="B82" s="1">
-        <v>-1258.1000000000001</v>
+        <v>-1523.1</v>
       </c>
       <c r="C82" s="1">
-        <v>-1259.1000000000001</v>
+        <v>-1530.3</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>8</v>
+      <c r="A83" s="1">
+        <v>30</v>
       </c>
       <c r="B83" s="1">
-        <v>-1259.1000000000001</v>
+        <v>-1530.3</v>
       </c>
       <c r="C83" s="1">
-        <v>-1261.5</v>
+        <v>-1533.3</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>8</v>
+      <c r="A84" s="1">
+        <v>30</v>
       </c>
       <c r="B84" s="1">
-        <v>-1267.5</v>
+        <v>-1534.2</v>
       </c>
       <c r="C84" s="1">
-        <v>-1269.5</v>
+        <v>-1536.9</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>8</v>
+      <c r="A85" s="1">
+        <v>30</v>
       </c>
       <c r="B85" s="1">
-        <v>-1271.7</v>
+        <v>-1536.9</v>
       </c>
       <c r="C85" s="1">
-        <v>-1273.3000000000002</v>
+        <v>-1540.3</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>8</v>
+      <c r="A86" s="1">
+        <v>30</v>
       </c>
       <c r="B86" s="1">
-        <v>-1277.5</v>
+        <v>-1543.2</v>
       </c>
       <c r="C86" s="1">
-        <v>-1279.9000000000001</v>
+        <v>-1544.3</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>8</v>
+      <c r="A87" s="1">
+        <v>30</v>
       </c>
       <c r="B87" s="1">
-        <v>-1281.5</v>
+        <v>-1545</v>
       </c>
       <c r="C87" s="1">
-        <v>-1282.7</v>
+        <v>-1546.2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>8</v>
+      <c r="A88" s="1">
+        <v>30</v>
       </c>
       <c r="B88" s="1">
-        <v>-1290.9000000000001</v>
+        <v>-1547</v>
       </c>
       <c r="C88" s="1">
-        <v>-1294.3000000000002</v>
+        <v>-1548.2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>8</v>
+      <c r="A89" s="1">
+        <v>30</v>
       </c>
       <c r="B89" s="1">
-        <v>-1297.9000000000001</v>
+        <v>-1552.8</v>
       </c>
       <c r="C89" s="1">
-        <v>-1306.5</v>
+        <v>-1555.3</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>8</v>
+      <c r="A90" s="1">
+        <v>30</v>
       </c>
       <c r="B90" s="1">
-        <v>-1307.7</v>
+        <v>-1555.3</v>
       </c>
       <c r="C90" s="1">
-        <v>-1314.3000000000002</v>
+        <v>-1557.1</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>8</v>
+      <c r="A91" s="1">
+        <v>30</v>
       </c>
       <c r="B91" s="1">
-        <v>-1320.9</v>
+        <v>-1557.1</v>
       </c>
       <c r="C91" s="1">
-        <v>-1322.1000000000001</v>
+        <v>-1558.9</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>8</v>
+      <c r="A92" s="1">
+        <v>30</v>
       </c>
       <c r="B92" s="1">
-        <v>-1322.1000000000001</v>
+        <v>-1558.9</v>
       </c>
       <c r="C92" s="1">
-        <v>-1323.7</v>
+        <v>-1562.9</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>8</v>
+      <c r="A93" s="1">
+        <v>30</v>
       </c>
       <c r="B93" s="1">
-        <v>-1323.7</v>
+        <v>-1562.9</v>
       </c>
       <c r="C93" s="1">
-        <v>-1325.3000000000002</v>
+        <v>-1564.3</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>8</v>
+      <c r="A94" s="1">
+        <v>30</v>
       </c>
       <c r="B94" s="1">
-        <v>-1329.9</v>
+        <v>-1564.3</v>
       </c>
       <c r="C94" s="1">
-        <v>-1332.1000000000001</v>
+        <v>-1566.1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>8</v>
+      <c r="A95" s="1">
+        <v>30</v>
       </c>
       <c r="B95" s="1">
-        <v>-1339.1000000000001</v>
+        <v>-1566.1</v>
       </c>
       <c r="C95" s="1">
-        <v>-1341.1000000000001</v>
+        <v>-1568.3</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>8</v>
+      <c r="A96" s="1">
+        <v>30</v>
       </c>
       <c r="B96" s="1">
-        <v>-1343.7</v>
+        <v>-1568.3</v>
       </c>
       <c r="C96" s="1">
-        <v>-1344.9</v>
+        <v>-1569.7</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>8</v>
+      <c r="A97" s="1">
+        <v>30</v>
       </c>
       <c r="B97" s="1">
-        <v>-1346.7</v>
+        <v>-1569.7</v>
       </c>
       <c r="C97" s="1">
-        <v>-1349.7</v>
+        <v>-1571.3</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>8</v>
+      <c r="A98" s="1">
+        <v>30</v>
       </c>
       <c r="B98" s="1">
-        <v>-1352.1000000000001</v>
+        <v>-1571.3</v>
       </c>
       <c r="C98" s="1">
-        <v>-1359.3000000000002</v>
+        <v>-1576.7</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>8</v>
+      <c r="A99" s="1">
+        <v>30</v>
       </c>
       <c r="B99" s="1">
-        <v>-1364.7</v>
+        <v>-1577.9</v>
       </c>
       <c r="C99" s="1">
-        <v>-1367.1000000000001</v>
+        <v>-1579.7</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B100" s="1">
-        <v>-1368.7</v>
+        <v>-1223.3</v>
       </c>
       <c r="C100" s="1">
-        <v>-1370.3000000000002</v>
+        <v>-1224.5999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B101" s="1">
-        <v>-1377.5</v>
+        <v>-1226.4000000000001</v>
       </c>
       <c r="C101" s="1">
-        <v>-1380.3000000000002</v>
+        <v>-1228.2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B102" s="1">
-        <v>-1382.3000000000002</v>
+        <v>-1229.2</v>
       </c>
       <c r="C102" s="1">
-        <v>-1384.9</v>
+        <v>-1230.2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B103" s="1">
-        <v>-1386.9</v>
+        <v>-1230.2</v>
       </c>
       <c r="C103" s="1">
-        <v>-1395.9</v>
+        <v>-1231.4000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B104" s="1">
-        <v>-1399.1000000000001</v>
+        <v>-1231.4000000000001</v>
       </c>
       <c r="C104" s="1">
-        <v>-1402.7</v>
+        <v>-1234.3</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B105" s="1">
-        <v>-1403.7</v>
+        <v>-1234.3</v>
       </c>
       <c r="C105" s="1">
-        <v>-1405.9</v>
+        <v>-1235.4000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B106" s="1">
-        <v>-1407.7</v>
+        <v>-1235.4000000000001</v>
       </c>
       <c r="C106" s="1">
-        <v>-1410.1000000000001</v>
+        <v>-1237.5999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B107" s="1">
-        <v>-1412.1000000000001</v>
+        <v>-1237.5999999999999</v>
       </c>
       <c r="C107" s="1">
-        <v>-1413.5</v>
+        <v>-1240.4000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B108" s="1">
-        <v>-1429.3000000000002</v>
+        <v>-1240.4000000000001</v>
       </c>
       <c r="C108" s="1">
-        <v>-1430.9</v>
+        <v>-1241.8</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B109" s="1">
-        <v>-1431.5</v>
+        <v>-1241.8</v>
       </c>
       <c r="C109" s="1">
-        <v>-1433.3000000000002</v>
+        <v>-1243.8</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B110" s="1">
-        <v>-1450.5</v>
+        <v>-1243.8</v>
       </c>
       <c r="C110" s="1">
-        <v>-1455.9</v>
+        <v>-1245.3</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B111" s="1">
-        <v>-1455.9</v>
+        <v>-1245.3</v>
       </c>
       <c r="C111" s="1">
-        <v>-1457.5</v>
+        <v>-1246.0999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B112" s="1">
-        <v>-1457.5</v>
+        <v>-1246.0999999999999</v>
       </c>
       <c r="C112" s="1">
-        <v>-1459.1000000000001</v>
+        <v>-1246.7</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B113" s="1">
-        <v>-1459.1000000000001</v>
+        <v>-1246.7</v>
       </c>
       <c r="C113" s="1">
-        <v>-1460.9</v>
+        <v>-1248.7</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B114" s="1">
-        <v>-1463.5</v>
+        <v>-1248.7</v>
       </c>
       <c r="C114" s="1">
-        <v>-1468.7</v>
+        <v>-1252.2</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B115" s="1">
-        <v>-1484.3000000000002</v>
+        <v>-1253</v>
       </c>
       <c r="C115" s="1">
-        <v>-1486.9</v>
+        <v>-1254.9000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B116" s="1">
-        <v>-1486.9</v>
+        <v>-1257.7</v>
       </c>
       <c r="C116" s="1">
-        <v>-1491.9</v>
+        <v>-1258.9000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B117" s="1">
-        <v>-1493.7</v>
+        <v>-1259.9000000000001</v>
       </c>
       <c r="C117" s="1">
-        <v>-1507.3000000000002</v>
+        <v>-1260.5</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B118" s="1">
-        <v>-1515.3000000000002</v>
+        <v>-1261.3</v>
       </c>
       <c r="C118" s="1">
-        <v>-1523.3000000000002</v>
+        <v>-1262.5</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B119" s="1">
-        <v>-1530.7</v>
+        <v>-1262.9000000000001</v>
       </c>
       <c r="C119" s="1">
-        <v>-1532.7</v>
+        <v>-1264.0999999999999</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B120" s="1">
-        <v>-1545.9</v>
+        <v>-1267.7</v>
       </c>
       <c r="C120" s="1">
-        <v>-1547.3000000000002</v>
+        <v>-1269.3</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B121" s="1">
-        <v>-1547.3000000000002</v>
+        <v>-1271</v>
       </c>
       <c r="C121" s="1">
-        <v>-1548.7</v>
+        <v>-1271.9000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B122" s="1">
-        <v>-1551.1000000000001</v>
+        <v>-1272.4000000000001</v>
       </c>
       <c r="C122" s="1">
-        <v>-1558.3000000000002</v>
+        <v>-1273.0999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B123" s="1">
-        <v>-1560.3000000000002</v>
+        <v>-1273.8</v>
       </c>
       <c r="C123" s="1">
-        <v>-1565.5</v>
+        <v>-1274.9000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B124" s="1">
-        <v>-1567.1000000000001</v>
+        <v>-1274.9000000000001</v>
       </c>
       <c r="C124" s="1">
-        <v>-1578.3000000000002</v>
+        <v>-1275.8</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B125" s="1">
-        <v>-1580.1000000000001</v>
+        <v>-1275.8</v>
       </c>
       <c r="C125" s="1">
-        <v>-1582.5</v>
+        <v>-1277.8</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B126" s="1">
-        <v>-1584.3000000000002</v>
+        <v>-1279.5</v>
       </c>
       <c r="C126" s="1">
-        <v>-1585.7</v>
+        <v>-1280.5</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B127" s="1">
-        <v>-1585.7</v>
+        <v>-1281.0999999999999</v>
       </c>
       <c r="C127" s="1">
-        <v>-1587.3000000000002</v>
+        <v>-1281.9000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B128" s="1">
-        <v>-1587.3000000000002</v>
+        <v>-1281.9000000000001</v>
       </c>
       <c r="C128" s="1">
-        <v>-1588.5</v>
+        <v>-1282.5</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B129" s="1">
-        <v>-1590.7</v>
+        <v>-1283.0999999999999</v>
       </c>
       <c r="C129" s="1">
-        <v>-1592.1000000000001</v>
+        <v>-1286</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B130" s="1">
-        <v>-1594.3000000000002</v>
+        <v>-1287.0999999999999</v>
       </c>
       <c r="C130" s="1">
-        <v>-1595.3000000000002</v>
+        <v>-1287.7</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B131" s="1">
-        <v>-1595.3000000000002</v>
+        <v>-1288.3</v>
       </c>
       <c r="C131" s="1">
-        <v>-1597.5</v>
+        <v>-1289.3</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B132" s="1">
-        <v>-1597.5</v>
+        <v>-1289.3</v>
       </c>
       <c r="C132" s="1">
-        <v>-1599.1000000000001</v>
+        <v>-1291</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B133" s="1">
-        <v>-1599.1000000000001</v>
+        <v>-1291.5</v>
       </c>
       <c r="C133" s="1">
-        <v>-1601.9</v>
+        <v>-1293.7</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B134" s="1">
-        <v>-1604.7</v>
+        <v>-1294.8</v>
       </c>
       <c r="C134" s="1">
-        <v>-1606.3000000000002</v>
+        <v>-1295.5</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B135" s="1">
-        <v>-1612.5</v>
+        <v>-1296</v>
       </c>
       <c r="C135" s="1">
-        <v>-1613.9</v>
+        <v>-1296.5999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B136" s="1">
-        <v>-1614.7</v>
+        <v>-1297.5</v>
       </c>
       <c r="C136" s="1">
-        <v>-1616.3000000000002</v>
+        <v>-1298.3</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -1942,10 +1936,10 @@
         <v>9</v>
       </c>
       <c r="B137" s="1">
-        <v>-911.4</v>
+        <v>-1298.8</v>
       </c>
       <c r="C137" s="1">
-        <v>-914</v>
+        <v>-1299.5</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -1953,10 +1947,10 @@
         <v>9</v>
       </c>
       <c r="B138" s="1">
-        <v>-914</v>
+        <v>-1300.4000000000001</v>
       </c>
       <c r="C138" s="1">
-        <v>-915.8</v>
+        <v>-1301.9000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -1964,10 +1958,10 @@
         <v>9</v>
       </c>
       <c r="B139" s="1">
-        <v>-915.8</v>
+        <v>-1302.4000000000001</v>
       </c>
       <c r="C139" s="1">
-        <v>-917</v>
+        <v>-1304.7</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -1975,10 +1969,10 @@
         <v>9</v>
       </c>
       <c r="B140" s="1">
-        <v>-917</v>
+        <v>-1304.7</v>
       </c>
       <c r="C140" s="1">
-        <v>-919.4</v>
+        <v>-1305.8</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -1986,10 +1980,10 @@
         <v>9</v>
       </c>
       <c r="B141" s="1">
-        <v>-919.4</v>
+        <v>-1305.8</v>
       </c>
       <c r="C141" s="1">
-        <v>-921.4</v>
+        <v>-1306.7</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -1997,10 +1991,10 @@
         <v>9</v>
       </c>
       <c r="B142" s="1">
-        <v>-921.4</v>
+        <v>-1306.7</v>
       </c>
       <c r="C142" s="1">
-        <v>-926.19999999999993</v>
+        <v>-1307.9000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2008,10 +2002,10 @@
         <v>9</v>
       </c>
       <c r="B143" s="1">
-        <v>-927.4</v>
+        <v>-1307.9000000000001</v>
       </c>
       <c r="C143" s="1">
-        <v>-933.4</v>
+        <v>-1309.3</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2019,10 +2013,10 @@
         <v>9</v>
       </c>
       <c r="B144" s="1">
-        <v>-934.59999999999991</v>
+        <v>-1310</v>
       </c>
       <c r="C144" s="1">
-        <v>-937</v>
+        <v>-1311</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2030,10 +2024,10 @@
         <v>9</v>
       </c>
       <c r="B145" s="1">
-        <v>-941</v>
+        <v>-1311</v>
       </c>
       <c r="C145" s="1">
-        <v>-947.59999999999991</v>
+        <v>-1311.8</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2041,10 +2035,10 @@
         <v>9</v>
       </c>
       <c r="B146" s="1">
-        <v>-947.59999999999991</v>
+        <v>-1311.8</v>
       </c>
       <c r="C146" s="1">
-        <v>-953</v>
+        <v>-1312.7</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2052,10 +2046,10 @@
         <v>9</v>
       </c>
       <c r="B147" s="1">
-        <v>-953</v>
+        <v>-1313.5</v>
       </c>
       <c r="C147" s="1">
-        <v>-955.8</v>
+        <v>-1315.3</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2063,10 +2057,10 @@
         <v>9</v>
       </c>
       <c r="B148" s="1">
-        <v>-955.8</v>
+        <v>-1319.6</v>
       </c>
       <c r="C148" s="1">
-        <v>-960.4</v>
+        <v>-1324</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2074,10 +2068,10 @@
         <v>9</v>
       </c>
       <c r="B149" s="1">
-        <v>-961.19999999999993</v>
+        <v>-1324.7</v>
       </c>
       <c r="C149" s="1">
-        <v>-962.59999999999991</v>
+        <v>-1326.2</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2085,10 +2079,10 @@
         <v>9</v>
       </c>
       <c r="B150" s="1">
-        <v>-962.59999999999991</v>
+        <v>-1327.1</v>
       </c>
       <c r="C150" s="1">
-        <v>-963.8</v>
+        <v>-1327.8</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2096,10 +2090,10 @@
         <v>9</v>
       </c>
       <c r="B151" s="1">
-        <v>-963.8</v>
+        <v>-1327.8</v>
       </c>
       <c r="C151" s="1">
-        <v>-965</v>
+        <v>-1329.1</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2107,10 +2101,10 @@
         <v>9</v>
       </c>
       <c r="B152" s="1">
-        <v>-965</v>
+        <v>-1329.1</v>
       </c>
       <c r="C152" s="1">
-        <v>-969</v>
+        <v>-1330</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2118,10 +2112,10 @@
         <v>9</v>
       </c>
       <c r="B153" s="1">
-        <v>-970</v>
+        <v>-1331.1</v>
       </c>
       <c r="C153" s="1">
-        <v>-973.59999999999991</v>
+        <v>-1332.6</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2129,10 +2123,10 @@
         <v>9</v>
       </c>
       <c r="B154" s="1">
-        <v>-973.59999999999991</v>
+        <v>-1332.6</v>
       </c>
       <c r="C154" s="1">
-        <v>-984.39999999999986</v>
+        <v>-1334.3</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2140,10 +2134,10 @@
         <v>9</v>
       </c>
       <c r="B155" s="1">
-        <v>-984.39999999999986</v>
+        <v>-1334.9</v>
       </c>
       <c r="C155" s="1">
-        <v>-985.59999999999991</v>
+        <v>-1336.5</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2151,10 +2145,10 @@
         <v>9</v>
       </c>
       <c r="B156" s="1">
-        <v>-985.59999999999991</v>
+        <v>-1337.4</v>
       </c>
       <c r="C156" s="1">
-        <v>-988.2</v>
+        <v>-1339.9</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2162,10 +2156,10 @@
         <v>9</v>
       </c>
       <c r="B157" s="1">
-        <v>-990.8</v>
+        <v>-1339.9</v>
       </c>
       <c r="C157" s="1">
-        <v>-991.8</v>
+        <v>-1342.2</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2173,10 +2167,10 @@
         <v>9</v>
       </c>
       <c r="B158" s="1">
-        <v>-998.5</v>
+        <v>-1343</v>
       </c>
       <c r="C158" s="1">
-        <v>-999.5</v>
+        <v>-1345.8</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2184,10 +2178,10 @@
         <v>9</v>
       </c>
       <c r="B159" s="1">
-        <v>-1000.5999999999999</v>
+        <v>-1345.8</v>
       </c>
       <c r="C159" s="1">
-        <v>-1002.2</v>
+        <v>-1348.4</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2195,10 +2189,10 @@
         <v>9</v>
       </c>
       <c r="B160" s="1">
-        <v>-1005.5999999999999</v>
+        <v>-1348.4</v>
       </c>
       <c r="C160" s="1">
-        <v>-1006.8</v>
+        <v>-1352.4</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2206,10 +2200,10 @@
         <v>9</v>
       </c>
       <c r="B161" s="1">
-        <v>-1009</v>
+        <v>-1353.5</v>
       </c>
       <c r="C161" s="1">
-        <v>-1011.8</v>
+        <v>-1354.4</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2217,10 +2211,10 @@
         <v>9</v>
       </c>
       <c r="B162" s="1">
-        <v>-1015.2</v>
+        <v>-1354.9</v>
       </c>
       <c r="C162" s="1">
-        <v>-1016.5999999999999</v>
+        <v>-1356.9</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2228,10 +2222,10 @@
         <v>9</v>
       </c>
       <c r="B163" s="1">
-        <v>-1024.3999999999999</v>
+        <v>-1357.5</v>
       </c>
       <c r="C163" s="1">
-        <v>-1028.3999999999999</v>
+        <v>-1359</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -2239,10 +2233,10 @@
         <v>9</v>
       </c>
       <c r="B164" s="1">
-        <v>-1028.3999999999999</v>
+        <v>-1359.6</v>
       </c>
       <c r="C164" s="1">
-        <v>-1029.5999999999999</v>
+        <v>-1360.2</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -2250,10 +2244,10 @@
         <v>9</v>
       </c>
       <c r="B165" s="1">
-        <v>-1031.5999999999999</v>
+        <v>-1360.9</v>
       </c>
       <c r="C165" s="1">
-        <v>-1034</v>
+        <v>-1361.9</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2261,10 +2255,10 @@
         <v>9</v>
       </c>
       <c r="B166" s="1">
-        <v>-1035</v>
+        <v>-1361.9</v>
       </c>
       <c r="C166" s="1">
-        <v>-1036.2</v>
+        <v>-1362.9</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -2272,10 +2266,10 @@
         <v>9</v>
       </c>
       <c r="B167" s="1">
-        <v>-1038.3999999999999</v>
+        <v>-1362.9</v>
       </c>
       <c r="C167" s="1">
-        <v>-1042.5999999999999</v>
+        <v>-1364.1</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -2283,10 +2277,10 @@
         <v>9</v>
       </c>
       <c r="B168" s="1">
-        <v>-1042.5999999999999</v>
+        <v>-1364.9</v>
       </c>
       <c r="C168" s="1">
-        <v>-1044</v>
+        <v>-1366.3</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -2294,10 +2288,10 @@
         <v>9</v>
       </c>
       <c r="B169" s="1">
-        <v>-1044</v>
+        <v>-1366.3</v>
       </c>
       <c r="C169" s="1">
-        <v>-1047.3999999999999</v>
+        <v>-1367.4</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -2305,10 +2299,10 @@
         <v>9</v>
       </c>
       <c r="B170" s="1">
-        <v>-1047.3999999999999</v>
+        <v>-1368.1</v>
       </c>
       <c r="C170" s="1">
-        <v>-1049.8</v>
+        <v>-1369.2</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -2316,10 +2310,10 @@
         <v>9</v>
       </c>
       <c r="B171" s="1">
-        <v>-1051.2</v>
+        <v>-1369.8</v>
       </c>
       <c r="C171" s="1">
-        <v>-1053.8</v>
+        <v>-1371</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2327,10 +2321,10 @@
         <v>9</v>
       </c>
       <c r="B172" s="1">
-        <v>-1056.2</v>
+        <v>-1371</v>
       </c>
       <c r="C172" s="1">
-        <v>-1059.2</v>
+        <v>-1372.6</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2338,10 +2332,10 @@
         <v>9</v>
       </c>
       <c r="B173" s="1">
-        <v>-1059.2</v>
+        <v>-1373.2</v>
       </c>
       <c r="C173" s="1">
-        <v>-1061.5999999999999</v>
+        <v>-1373.9</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2349,10 +2343,10 @@
         <v>9</v>
       </c>
       <c r="B174" s="1">
-        <v>-1061.5999999999999</v>
+        <v>-1376.1</v>
       </c>
       <c r="C174" s="1">
-        <v>-1063.3999999999999</v>
+        <v>-1377.2</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2360,10 +2354,10 @@
         <v>9</v>
       </c>
       <c r="B175" s="1">
-        <v>-1068.5999999999999</v>
+        <v>-1380.3</v>
       </c>
       <c r="C175" s="1">
-        <v>-1072</v>
+        <v>-1381</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2371,10 +2365,10 @@
         <v>9</v>
       </c>
       <c r="B176" s="1">
-        <v>-1084</v>
+        <v>-1393.7</v>
       </c>
       <c r="C176" s="1">
-        <v>-1087.3999999999999</v>
+        <v>-1396.6</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2382,10 +2376,10 @@
         <v>9</v>
       </c>
       <c r="B177" s="1">
-        <v>-1089</v>
+        <v>-1396.6</v>
       </c>
       <c r="C177" s="1">
-        <v>-1091.2</v>
+        <v>-1397.7</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2393,10 +2387,10 @@
         <v>9</v>
       </c>
       <c r="B178" s="1">
-        <v>-1094.5999999999999</v>
+        <v>-1397.7</v>
       </c>
       <c r="C178" s="1">
-        <v>-1096.5999999999999</v>
+        <v>-1403</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2404,10 +2398,10 @@
         <v>9</v>
       </c>
       <c r="B179" s="1">
-        <v>-1098</v>
+        <v>-1404.7</v>
       </c>
       <c r="C179" s="1">
-        <v>-1101</v>
+        <v>-1406</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2415,10 +2409,10 @@
         <v>9</v>
       </c>
       <c r="B180" s="1">
-        <v>-1101</v>
+        <v>-1406.7</v>
       </c>
       <c r="C180" s="1">
-        <v>-1106</v>
+        <v>-1407.7</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2426,10 +2420,10 @@
         <v>9</v>
       </c>
       <c r="B181" s="1">
-        <v>-1106</v>
+        <v>-1408.2</v>
       </c>
       <c r="C181" s="1">
-        <v>-1107.3999999999999</v>
+        <v>-1409.7</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2437,10 +2431,10 @@
         <v>9</v>
       </c>
       <c r="B182" s="1">
-        <v>-1107.3999999999999</v>
+        <v>-1410.1</v>
       </c>
       <c r="C182" s="1">
-        <v>-1110.3999999999999</v>
+        <v>-1411.5</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2448,10 +2442,10 @@
         <v>9</v>
       </c>
       <c r="B183" s="1">
-        <v>-1110.3999999999999</v>
+        <v>-1412.2</v>
       </c>
       <c r="C183" s="1">
-        <v>-1113.2</v>
+        <v>-1413.1</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2459,10 +2453,10 @@
         <v>9</v>
       </c>
       <c r="B184" s="1">
-        <v>-1113.2</v>
+        <v>-1413.8</v>
       </c>
       <c r="C184" s="1">
-        <v>-1118.8</v>
+        <v>-1415.6</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2470,10 +2464,10 @@
         <v>9</v>
       </c>
       <c r="B185" s="1">
-        <v>-1120.2</v>
+        <v>-1420</v>
       </c>
       <c r="C185" s="1">
-        <v>-1139.8</v>
+        <v>-1420.9</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2481,10 +2475,10 @@
         <v>9</v>
       </c>
       <c r="B186" s="1">
-        <v>-1139.8</v>
+        <v>-1421.7</v>
       </c>
       <c r="C186" s="1">
-        <v>-1142</v>
+        <v>-1422.5</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2492,10 +2486,10 @@
         <v>9</v>
       </c>
       <c r="B187" s="1">
-        <v>-1142</v>
+        <v>-1422.5</v>
       </c>
       <c r="C187" s="1">
-        <v>-1155.8</v>
+        <v>-1423.7</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2503,10 +2497,10 @@
         <v>9</v>
       </c>
       <c r="B188" s="1">
-        <v>-1157.2</v>
+        <v>-1424.5</v>
       </c>
       <c r="C188" s="1">
-        <v>-1171</v>
+        <v>-1425.6</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2514,10 +2508,10 @@
         <v>9</v>
       </c>
       <c r="B189" s="1">
-        <v>-1180.3999999999999</v>
+        <v>-1426.1</v>
       </c>
       <c r="C189" s="1">
-        <v>-1183.2</v>
+        <v>-1428.4</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2525,10 +2519,10 @@
         <v>9</v>
       </c>
       <c r="B190" s="1">
-        <v>-1184.3999999999999</v>
+        <v>-1428.4</v>
       </c>
       <c r="C190" s="1">
-        <v>-1187</v>
+        <v>-1429.5</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2536,10 +2530,10 @@
         <v>9</v>
       </c>
       <c r="B191" s="1">
-        <v>-1187</v>
+        <v>-1429.5</v>
       </c>
       <c r="C191" s="1">
-        <v>-1188.3999999999999</v>
+        <v>-1430.2</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2547,10 +2541,10 @@
         <v>9</v>
       </c>
       <c r="B192" s="1">
-        <v>-1188.3999999999999</v>
+        <v>-1430.9</v>
       </c>
       <c r="C192" s="1">
-        <v>-1192</v>
+        <v>-1431.9</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -2558,10 +2552,10 @@
         <v>9</v>
       </c>
       <c r="B193" s="1">
-        <v>-1193</v>
+        <v>-1432.6</v>
       </c>
       <c r="C193" s="1">
-        <v>-1194.3999999999999</v>
+        <v>-1433.8</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2569,10 +2563,10 @@
         <v>9</v>
       </c>
       <c r="B194" s="1">
-        <v>-1194.3999999999999</v>
+        <v>-1433.8</v>
       </c>
       <c r="C194" s="1">
-        <v>-1199.5999999999999</v>
+        <v>-1435.5</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2580,10 +2574,10 @@
         <v>9</v>
       </c>
       <c r="B195" s="1">
-        <v>-1201.5999999999999</v>
+        <v>-1436</v>
       </c>
       <c r="C195" s="1">
-        <v>-1208.5999999999999</v>
+        <v>-1437.1</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2591,10 +2585,10 @@
         <v>9</v>
       </c>
       <c r="B196" s="1">
-        <v>-1208.5999999999999</v>
+        <v>-1437.9</v>
       </c>
       <c r="C196" s="1">
-        <v>-1210</v>
+        <v>-1438.5</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2602,10 +2596,10 @@
         <v>9</v>
       </c>
       <c r="B197" s="1">
-        <v>-1210</v>
+        <v>-1439</v>
       </c>
       <c r="C197" s="1">
-        <v>-1212.2</v>
+        <v>-1439.7</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -2613,10 +2607,10 @@
         <v>9</v>
       </c>
       <c r="B198" s="1">
-        <v>-1212.2</v>
+        <v>-1439.7</v>
       </c>
       <c r="C198" s="1">
-        <v>-1214.3999999999999</v>
+        <v>-1442.1</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2624,10 +2618,10 @@
         <v>9</v>
       </c>
       <c r="B199" s="1">
-        <v>-1216</v>
+        <v>-1442.8</v>
       </c>
       <c r="C199" s="1">
-        <v>-1218.2</v>
+        <v>-1443.9</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -2635,10 +2629,10 @@
         <v>9</v>
       </c>
       <c r="B200" s="1">
-        <v>-1226.5999999999999</v>
+        <v>-1443.9</v>
       </c>
       <c r="C200" s="1">
-        <v>-1228.5999999999999</v>
+        <v>-1445.3</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -2646,10 +2640,10 @@
         <v>9</v>
       </c>
       <c r="B201" s="1">
-        <v>-1229.5999999999999</v>
+        <v>-1445.3</v>
       </c>
       <c r="C201" s="1">
-        <v>-1233.2</v>
+        <v>-1446.7</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -2657,10 +2651,10 @@
         <v>9</v>
       </c>
       <c r="B202" s="1">
-        <v>-1233.2</v>
+        <v>-1446.7</v>
       </c>
       <c r="C202" s="1">
-        <v>-1239.8</v>
+        <v>-1448.5</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -2668,10 +2662,10 @@
         <v>9</v>
       </c>
       <c r="B203" s="1">
-        <v>-1239.8</v>
+        <v>-1448.5</v>
       </c>
       <c r="C203" s="1">
-        <v>-1244.8</v>
+        <v>-1450.6</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -2679,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="B204" s="1">
-        <v>-1244.8</v>
+        <v>-1450.6</v>
       </c>
       <c r="C204" s="1">
-        <v>-1248</v>
+        <v>-1451.6</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -2690,10 +2684,10 @@
         <v>9</v>
       </c>
       <c r="B205" s="1">
-        <v>-1248</v>
+        <v>-1451.6</v>
       </c>
       <c r="C205" s="1">
-        <v>-1256.8</v>
+        <v>-1452.7</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -2701,10 +2695,10 @@
         <v>9</v>
       </c>
       <c r="B206" s="1">
-        <v>-1256.8</v>
+        <v>-1452.7</v>
       </c>
       <c r="C206" s="1">
-        <v>-1260.8</v>
+        <v>-1453.7</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -2712,10 +2706,10 @@
         <v>9</v>
       </c>
       <c r="B207" s="1">
-        <v>-1260.8</v>
+        <v>-1453.7</v>
       </c>
       <c r="C207" s="1">
-        <v>-1266.5999999999999</v>
+        <v>-1455.1</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -2723,10 +2717,10 @@
         <v>9</v>
       </c>
       <c r="B208" s="1">
-        <v>-1266.5999999999999</v>
+        <v>-1455.1</v>
       </c>
       <c r="C208" s="1">
-        <v>-1268.5999999999999</v>
+        <v>-1455.9</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -2734,10 +2728,10 @@
         <v>9</v>
       </c>
       <c r="B209" s="1">
-        <v>-1268.5999999999999</v>
+        <v>-1455.9</v>
       </c>
       <c r="C209" s="1">
-        <v>-1273.5999999999999</v>
+        <v>-1456.6</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -2745,10 +2739,10 @@
         <v>9</v>
       </c>
       <c r="B210" s="1">
-        <v>-1273.5999999999999</v>
+        <v>-1456.6</v>
       </c>
       <c r="C210" s="1">
-        <v>-1275</v>
+        <v>-1457.7</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -2756,10 +2750,10 @@
         <v>9</v>
       </c>
       <c r="B211" s="1">
-        <v>-1275</v>
+        <v>-1457.7</v>
       </c>
       <c r="C211" s="1">
-        <v>-1280.8</v>
+        <v>-1461.2</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -2767,10 +2761,10 @@
         <v>9</v>
       </c>
       <c r="B212" s="1">
-        <v>-1282.3999999999999</v>
+        <v>-1461.2</v>
       </c>
       <c r="C212" s="1">
-        <v>-1285.3999999999999</v>
+        <v>-1462.9</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -2778,10 +2772,10 @@
         <v>9</v>
       </c>
       <c r="B213" s="1">
-        <v>-1285.3999999999999</v>
+        <v>-1462.9</v>
       </c>
       <c r="C213" s="1">
-        <v>-1288.8</v>
+        <v>-1464.9</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -2789,10 +2783,10 @@
         <v>9</v>
       </c>
       <c r="B214" s="1">
-        <v>-1289.8</v>
+        <v>-1465.7</v>
       </c>
       <c r="C214" s="1">
-        <v>-1297.3999999999999</v>
+        <v>-1466.7</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -2800,10 +2794,10 @@
         <v>9</v>
       </c>
       <c r="B215" s="1">
-        <v>-1300</v>
+        <v>-1466.7</v>
       </c>
       <c r="C215" s="1">
-        <v>-1308.5999999999999</v>
+        <v>-1467.5</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -2811,10 +2805,10 @@
         <v>9</v>
       </c>
       <c r="B216" s="1">
-        <v>-1323.8</v>
+        <v>-1467.5</v>
       </c>
       <c r="C216" s="1">
-        <v>-1325</v>
+        <v>-1468.2</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -2822,10 +2816,10 @@
         <v>9</v>
       </c>
       <c r="B217" s="1">
-        <v>-1326</v>
+        <v>-1468.2</v>
       </c>
       <c r="C217" s="1">
-        <v>-1327.3999999999999</v>
+        <v>-1469.2</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -2833,10 +2827,10 @@
         <v>9</v>
       </c>
       <c r="B218" s="1">
-        <v>-1333.8</v>
+        <v>-1469.8</v>
       </c>
       <c r="C218" s="1">
-        <v>-1336.3999999999999</v>
+        <v>-1471</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -2844,10 +2838,10 @@
         <v>9</v>
       </c>
       <c r="B219" s="1">
-        <v>-1338.8</v>
+        <v>-1471</v>
       </c>
       <c r="C219" s="1">
-        <v>-1340.6</v>
+        <v>-1472.5</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -2855,10 +2849,10 @@
         <v>9</v>
       </c>
       <c r="B220" s="1">
-        <v>-1352.2</v>
+        <v>-1473.1</v>
       </c>
       <c r="C220" s="1">
-        <v>-1355.3999999999999</v>
+        <v>-1475</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -2866,10 +2860,10 @@
         <v>9</v>
       </c>
       <c r="B221" s="1">
-        <v>-1357</v>
+        <v>-1475.7</v>
       </c>
       <c r="C221" s="1">
-        <v>-1361</v>
+        <v>-1476.4</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -2877,10 +2871,10 @@
         <v>9</v>
       </c>
       <c r="B222" s="1">
-        <v>-1361</v>
+        <v>-1476.4</v>
       </c>
       <c r="C222" s="1">
-        <v>-1364</v>
+        <v>-1477.5</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -2888,10 +2882,10 @@
         <v>9</v>
       </c>
       <c r="B223" s="1">
-        <v>-1364</v>
+        <v>-1477.5</v>
       </c>
       <c r="C223" s="1">
-        <v>-1369.6</v>
+        <v>-1478.4</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -2899,10 +2893,10 @@
         <v>9</v>
       </c>
       <c r="B224" s="1">
-        <v>-1371</v>
+        <v>-1480.5</v>
       </c>
       <c r="C224" s="1">
-        <v>-1374.3999999999999</v>
+        <v>-1481.3</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -2910,10 +2904,10 @@
         <v>9</v>
       </c>
       <c r="B225" s="1">
-        <v>-1374.3999999999999</v>
+        <v>-1482</v>
       </c>
       <c r="C225" s="1">
-        <v>-1376.6</v>
+        <v>-1482.7</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -2921,10 +2915,10 @@
         <v>9</v>
       </c>
       <c r="B226" s="1">
-        <v>-1376.6</v>
+        <v>-1483.4</v>
       </c>
       <c r="C226" s="1">
-        <v>-1378.2</v>
+        <v>-1484.8</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -2932,10 +2926,10 @@
         <v>9</v>
       </c>
       <c r="B227" s="1">
-        <v>-1378.2</v>
+        <v>-1484.8</v>
       </c>
       <c r="C227" s="1">
-        <v>-1383.2</v>
+        <v>-1485.9</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -2943,10 +2937,10 @@
         <v>9</v>
       </c>
       <c r="B228" s="1">
-        <v>-1414.2</v>
+        <v>-1486.8</v>
       </c>
       <c r="C228" s="1">
-        <v>-1416.3999999999999</v>
+        <v>-1488.4</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -2954,10 +2948,10 @@
         <v>9</v>
       </c>
       <c r="B229" s="1">
-        <v>-1416.3999999999999</v>
+        <v>-1488.9</v>
       </c>
       <c r="C229" s="1">
-        <v>-1418.2</v>
+        <v>-1489.4</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -2965,10 +2959,10 @@
         <v>9</v>
       </c>
       <c r="B230" s="1">
-        <v>-1431</v>
+        <v>-1489.9</v>
       </c>
       <c r="C230" s="1">
-        <v>-1436</v>
+        <v>-1490.5</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -2976,10 +2970,10 @@
         <v>9</v>
       </c>
       <c r="B231" s="1">
-        <v>-1436</v>
+        <v>-1491</v>
       </c>
       <c r="C231" s="1">
-        <v>-1438.2</v>
+        <v>-1491.8</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -2987,10 +2981,10 @@
         <v>9</v>
       </c>
       <c r="B232" s="1">
-        <v>-1438.2</v>
+        <v>-1491.8</v>
       </c>
       <c r="C232" s="1">
-        <v>-1440.8</v>
+        <v>-1492.5</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -2998,10 +2992,10 @@
         <v>9</v>
       </c>
       <c r="B233" s="1">
-        <v>-1440.8</v>
+        <v>-1493.3</v>
       </c>
       <c r="C233" s="1">
-        <v>-1442.2</v>
+        <v>-1494.6</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -3009,10 +3003,10 @@
         <v>9</v>
       </c>
       <c r="B234" s="1">
-        <v>-1442.2</v>
+        <v>-1494.6</v>
       </c>
       <c r="C234" s="1">
-        <v>-1447.8</v>
+        <v>-1495.8</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -3020,10 +3014,10 @@
         <v>9</v>
       </c>
       <c r="B235" s="1">
-        <v>-1450.8</v>
+        <v>-1495.8</v>
       </c>
       <c r="C235" s="1">
-        <v>-1452.2</v>
+        <v>-1497.2</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -3031,10 +3025,10 @@
         <v>9</v>
       </c>
       <c r="B236" s="1">
-        <v>-1454.3999999999999</v>
+        <v>-1497.2</v>
       </c>
       <c r="C236" s="1">
-        <v>-1455.8</v>
+        <v>-1498.3</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -3042,10 +3036,10 @@
         <v>9</v>
       </c>
       <c r="B237" s="1">
-        <v>-1460</v>
+        <v>-1498.8</v>
       </c>
       <c r="C237" s="1">
-        <v>-1466.3999999999999</v>
+        <v>-1500.7</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -3053,10 +3047,10 @@
         <v>9</v>
       </c>
       <c r="B238" s="1">
-        <v>-1468.3999999999999</v>
+        <v>-1501.7</v>
       </c>
       <c r="C238" s="1">
-        <v>-1470.8</v>
+        <v>-1503.3</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -3064,10 +3058,10 @@
         <v>9</v>
       </c>
       <c r="B239" s="1">
-        <v>-1472.8</v>
+        <v>-1504.1</v>
       </c>
       <c r="C239" s="1">
-        <v>-1475</v>
+        <v>-1506.2</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -3075,10 +3069,10 @@
         <v>9</v>
       </c>
       <c r="B240" s="1">
-        <v>-1478.6</v>
+        <v>-1506.2</v>
       </c>
       <c r="C240" s="1">
-        <v>-1481.3999999999999</v>
+        <v>-1507.5</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -3086,10 +3080,10 @@
         <v>9</v>
       </c>
       <c r="B241" s="1">
-        <v>-1481.3999999999999</v>
+        <v>-1508.9</v>
       </c>
       <c r="C241" s="1">
-        <v>-1489.6</v>
+        <v>-1510</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3097,10 +3091,10 @@
         <v>9</v>
       </c>
       <c r="B242" s="1">
-        <v>-1507</v>
+        <v>-1510.7</v>
       </c>
       <c r="C242" s="1">
-        <v>-1508.6</v>
+        <v>-1511.9</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3108,10 +3102,10 @@
         <v>9</v>
       </c>
       <c r="B243" s="1">
-        <v>-1509.3999999999999</v>
+        <v>-1513.4</v>
       </c>
       <c r="C243" s="1">
-        <v>-1512.6</v>
+        <v>-1515.2</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3119,10 +3113,10 @@
         <v>9</v>
       </c>
       <c r="B244" s="1">
-        <v>-1519</v>
+        <v>-1515.2</v>
       </c>
       <c r="C244" s="1">
-        <v>-1533.3999999999999</v>
+        <v>-1516.7</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3130,10 +3124,10 @@
         <v>9</v>
       </c>
       <c r="B245" s="1">
-        <v>-1535.2</v>
+        <v>-1518.5</v>
       </c>
       <c r="C245" s="1">
-        <v>-1537.2</v>
+        <v>-1519.8</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3141,10 +3135,10 @@
         <v>9</v>
       </c>
       <c r="B246" s="1">
-        <v>-1539.8</v>
+        <v>-1519.8</v>
       </c>
       <c r="C246" s="1">
-        <v>-1554</v>
+        <v>-1520.8</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3152,10 +3146,10 @@
         <v>9</v>
       </c>
       <c r="B247" s="1">
-        <v>-1554</v>
+        <v>-1520.8</v>
       </c>
       <c r="C247" s="1">
-        <v>-1558</v>
+        <v>-1521.9</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3163,10 +3157,10 @@
         <v>9</v>
       </c>
       <c r="B248" s="1">
-        <v>-1560.6</v>
+        <v>-1521.9</v>
       </c>
       <c r="C248" s="1">
-        <v>-1563</v>
+        <v>-1523.6</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3174,10 +3168,10 @@
         <v>9</v>
       </c>
       <c r="B249" s="1">
-        <v>-1564</v>
+        <v>-1523.6</v>
       </c>
       <c r="C249" s="1">
-        <v>-1565</v>
+        <v>-1525.3</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3185,10 +3179,10 @@
         <v>9</v>
       </c>
       <c r="B250" s="1">
-        <v>-1565</v>
+        <v>-1525.3</v>
       </c>
       <c r="C250" s="1">
-        <v>-1571.6</v>
+        <v>-1526.3</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3196,10 +3190,10 @@
         <v>9</v>
       </c>
       <c r="B251" s="1">
-        <v>-1571.6</v>
+        <v>-1532.1</v>
       </c>
       <c r="C251" s="1">
-        <v>-1578.6</v>
+        <v>-1534.2</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3207,10 +3201,10 @@
         <v>9</v>
       </c>
       <c r="B252" s="1">
-        <v>-1578.6</v>
+        <v>-1534.2</v>
       </c>
       <c r="C252" s="1">
-        <v>-1591.2</v>
+        <v>-1535.1</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3218,131 +3212,131 @@
         <v>9</v>
       </c>
       <c r="B253" s="1">
-        <v>-1604.6</v>
+        <v>-1535.1</v>
       </c>
       <c r="C253" s="1">
-        <v>-1605.8</v>
+        <v>-1537.4</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B254" s="1">
-        <v>-917.81</v>
+        <v>-1538.2</v>
       </c>
       <c r="C254" s="1">
-        <v>-921.01</v>
+        <v>-1540.3</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B255" s="1">
-        <v>-921.01</v>
+        <v>-1549.7</v>
       </c>
       <c r="C255" s="1">
-        <v>-922.81</v>
+        <v>-1550.6</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B256" s="1">
-        <v>-922.81</v>
+        <v>-1551.1</v>
       </c>
       <c r="C256" s="1">
-        <v>-926.6099999999999</v>
+        <v>-1551.6</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B257" s="1">
-        <v>-926.6099999999999</v>
+        <v>-1552</v>
       </c>
       <c r="C257" s="1">
-        <v>-934.01</v>
+        <v>-1552.7</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B258" s="1">
-        <v>-934.01</v>
+        <v>-1554.1</v>
       </c>
       <c r="C258" s="1">
-        <v>-936.81</v>
+        <v>-1555.2</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B259" s="1">
-        <v>-938.01</v>
+        <v>-1562.2</v>
       </c>
       <c r="C259" s="1">
-        <v>-939.6099999999999</v>
+        <v>-1563.2</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B260" s="1">
-        <v>-939.6099999999999</v>
+        <v>-1564</v>
       </c>
       <c r="C260" s="1">
-        <v>-941.41000000000008</v>
+        <v>-1565.4</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B261" s="1">
-        <v>-941.41000000000008</v>
+        <v>-1568.1</v>
       </c>
       <c r="C261" s="1">
-        <v>-943.6099999999999</v>
+        <v>-1568.9</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B262" s="1">
-        <v>-945.21</v>
+        <v>-1574.9</v>
       </c>
       <c r="C262" s="1">
-        <v>-947.01</v>
+        <v>-1575.9</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B263" s="1">
-        <v>-947.01</v>
+        <v>-1576.5</v>
       </c>
       <c r="C263" s="1">
-        <v>-948.21</v>
+        <v>-1577.5</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B264" s="1">
-        <v>-948.21</v>
+        <v>-1577.5</v>
       </c>
       <c r="C264" s="1">
-        <v>-950.21</v>
+        <v>-1578.3</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -3350,10 +3344,10 @@
         <v>10</v>
       </c>
       <c r="B265" s="1">
-        <v>-954.21</v>
+        <v>-1207.7</v>
       </c>
       <c r="C265" s="1">
-        <v>-965.6099999999999</v>
+        <v>-1210.2</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -3361,10 +3355,10 @@
         <v>10</v>
       </c>
       <c r="B266" s="1">
-        <v>-968.21</v>
+        <v>-1210.2</v>
       </c>
       <c r="C266" s="1">
-        <v>-969.81</v>
+        <v>-1212.7</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -3372,10 +3366,10 @@
         <v>10</v>
       </c>
       <c r="B267" s="1">
-        <v>-971.01</v>
+        <v>-1212.7</v>
       </c>
       <c r="C267" s="1">
-        <v>-973.6099999999999</v>
+        <v>-1214.4000000000001</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -3383,10 +3377,10 @@
         <v>10</v>
       </c>
       <c r="B268" s="1">
-        <v>-978.81</v>
+        <v>-1214.4000000000001</v>
       </c>
       <c r="C268" s="1">
-        <v>-979.81</v>
+        <v>-1216</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -3394,10 +3388,10 @@
         <v>10</v>
       </c>
       <c r="B269" s="1">
-        <v>-981.40999999999985</v>
+        <v>-1216</v>
       </c>
       <c r="C269" s="1">
-        <v>-982.40999999999985</v>
+        <v>-1217.4000000000001</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -3405,10 +3399,10 @@
         <v>10</v>
       </c>
       <c r="B270" s="1">
-        <v>-985.40999999999985</v>
+        <v>-1218.2</v>
       </c>
       <c r="C270" s="1">
-        <v>-986.81</v>
+        <v>-1219.5999999999999</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -3416,10 +3410,10 @@
         <v>10</v>
       </c>
       <c r="B271" s="1">
-        <v>-988.40999999999985</v>
+        <v>-1219.5999999999999</v>
       </c>
       <c r="C271" s="1">
-        <v>-989.81</v>
+        <v>-1221.3</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -3427,10 +3421,10 @@
         <v>10</v>
       </c>
       <c r="B272" s="1">
-        <v>-991.6099999999999</v>
+        <v>-1222.0999999999999</v>
       </c>
       <c r="C272" s="1">
-        <v>-994.40999999999985</v>
+        <v>-1222.9000000000001</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -3438,10 +3432,10 @@
         <v>10</v>
       </c>
       <c r="B273" s="1">
-        <v>-995.40999999999985</v>
+        <v>-1224.2</v>
       </c>
       <c r="C273" s="1">
-        <v>-996.40999999999985</v>
+        <v>-1225.8</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -3449,10 +3443,10 @@
         <v>10</v>
       </c>
       <c r="B274" s="1">
-        <v>-1005.21</v>
+        <v>-1225.8</v>
       </c>
       <c r="C274" s="1">
-        <v>-1006.81</v>
+        <v>-1227.5</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -3460,10 +3454,10 @@
         <v>10</v>
       </c>
       <c r="B275" s="1">
-        <v>-1006.81</v>
+        <v>-1229.4000000000001</v>
       </c>
       <c r="C275" s="1">
-        <v>-1008.01</v>
+        <v>-1230.4000000000001</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -3471,10 +3465,10 @@
         <v>10</v>
       </c>
       <c r="B276" s="1">
-        <v>-1010.81</v>
+        <v>-1231.3</v>
       </c>
       <c r="C276" s="1">
-        <v>-1012.01</v>
+        <v>-1233.4000000000001</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -3482,10 +3476,10 @@
         <v>10</v>
       </c>
       <c r="B277" s="1">
-        <v>-1014.21</v>
+        <v>-1234</v>
       </c>
       <c r="C277" s="1">
-        <v>-1017.01</v>
+        <v>-1234.7</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -3493,10 +3487,10 @@
         <v>10</v>
       </c>
       <c r="B278" s="1">
-        <v>-1025.9099999999999</v>
+        <v>-1237.4000000000001</v>
       </c>
       <c r="C278" s="1">
-        <v>-1026.9099999999999</v>
+        <v>-1238.3</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -3504,10 +3498,10 @@
         <v>10</v>
       </c>
       <c r="B279" s="1">
-        <v>-1028.81</v>
+        <v>-1239.4000000000001</v>
       </c>
       <c r="C279" s="1">
-        <v>-1030.4099999999999</v>
+        <v>-1243.8</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -3515,10 +3509,10 @@
         <v>10</v>
       </c>
       <c r="B280" s="1">
-        <v>-1036.4099999999999</v>
+        <v>-1245.0999999999999</v>
       </c>
       <c r="C280" s="1">
-        <v>-1037.6099999999999</v>
+        <v>-1246.5</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -3526,10 +3520,10 @@
         <v>10</v>
       </c>
       <c r="B281" s="1">
-        <v>-1038.81</v>
+        <v>-1246.5</v>
       </c>
       <c r="C281" s="1">
-        <v>-1041.21</v>
+        <v>-1249.5</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -3537,10 +3531,10 @@
         <v>10</v>
       </c>
       <c r="B282" s="1">
-        <v>-1045.01</v>
+        <v>-1251</v>
       </c>
       <c r="C282" s="1">
-        <v>-1046.21</v>
+        <v>-1253.2</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -3548,10 +3542,10 @@
         <v>10</v>
       </c>
       <c r="B283" s="1">
-        <v>-1046.21</v>
+        <v>-1254</v>
       </c>
       <c r="C283" s="1">
-        <v>-1048.21</v>
+        <v>-1256.7</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -3559,10 +3553,10 @@
         <v>10</v>
       </c>
       <c r="B284" s="1">
-        <v>-1048.21</v>
+        <v>-1257.3</v>
       </c>
       <c r="C284" s="1">
-        <v>-1049.6099999999999</v>
+        <v>-1261.5999999999999</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -3570,10 +3564,10 @@
         <v>10</v>
       </c>
       <c r="B285" s="1">
-        <v>-1049.6099999999999</v>
+        <v>-1262.4000000000001</v>
       </c>
       <c r="C285" s="1">
-        <v>-1050.81</v>
+        <v>-1264.9000000000001</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -3581,10 +3575,10 @@
         <v>10</v>
       </c>
       <c r="B286" s="1">
-        <v>-1054.21</v>
+        <v>-1265.5</v>
       </c>
       <c r="C286" s="1">
-        <v>-1055.81</v>
+        <v>-1268.4000000000001</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -3592,10 +3586,10 @@
         <v>10</v>
       </c>
       <c r="B287" s="1">
-        <v>-1059.01</v>
+        <v>-1269.8</v>
       </c>
       <c r="C287" s="1">
-        <v>-1060.4099999999999</v>
+        <v>-1270.4000000000001</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -3603,10 +3597,10 @@
         <v>10</v>
       </c>
       <c r="B288" s="1">
-        <v>-1060.4099999999999</v>
+        <v>-1271.3</v>
       </c>
       <c r="C288" s="1">
-        <v>-1061.6099999999999</v>
+        <v>-1272.4000000000001</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -3614,10 +3608,10 @@
         <v>10</v>
       </c>
       <c r="B289" s="1">
-        <v>-1061.6099999999999</v>
+        <v>-1274.4000000000001</v>
       </c>
       <c r="C289" s="1">
-        <v>-1064.6099999999999</v>
+        <v>-1276.3</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -3625,10 +3619,10 @@
         <v>10</v>
       </c>
       <c r="B290" s="1">
-        <v>-1064.6099999999999</v>
+        <v>-1276.3</v>
       </c>
       <c r="C290" s="1">
-        <v>-1066.01</v>
+        <v>-1277.2</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -3636,10 +3630,10 @@
         <v>10</v>
       </c>
       <c r="B291" s="1">
-        <v>-1066.01</v>
+        <v>-1278.5999999999999</v>
       </c>
       <c r="C291" s="1">
-        <v>-1067.21</v>
+        <v>-1280.0999999999999</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -3647,10 +3641,10 @@
         <v>10</v>
       </c>
       <c r="B292" s="1">
-        <v>-1067.21</v>
+        <v>-1281</v>
       </c>
       <c r="C292" s="1">
-        <v>-1069.81</v>
+        <v>-1283.5999999999999</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -3658,10 +3652,10 @@
         <v>10</v>
       </c>
       <c r="B293" s="1">
-        <v>-1075.6099999999999</v>
+        <v>-1283.5999999999999</v>
       </c>
       <c r="C293" s="1">
-        <v>-1076.81</v>
+        <v>-1288.5999999999999</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -3669,10 +3663,10 @@
         <v>10</v>
       </c>
       <c r="B294" s="1">
-        <v>-1080.6099999999999</v>
+        <v>-1290.0999999999999</v>
       </c>
       <c r="C294" s="1">
-        <v>-1083.01</v>
+        <v>-1290.9000000000001</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -3680,10 +3674,10 @@
         <v>10</v>
       </c>
       <c r="B295" s="1">
-        <v>-1083.01</v>
+        <v>-1294.5</v>
       </c>
       <c r="C295" s="1">
-        <v>-1086.21</v>
+        <v>-1295.9000000000001</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -3691,10 +3685,10 @@
         <v>10</v>
       </c>
       <c r="B296" s="1">
-        <v>-1086.21</v>
+        <v>-1297.9000000000001</v>
       </c>
       <c r="C296" s="1">
-        <v>-1087.81</v>
+        <v>-1298.9000000000001</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -3702,10 +3696,10 @@
         <v>10</v>
       </c>
       <c r="B297" s="1">
-        <v>-1087.81</v>
+        <v>-1298.9000000000001</v>
       </c>
       <c r="C297" s="1">
-        <v>-1089.01</v>
+        <v>-1299.8</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -3713,10 +3707,10 @@
         <v>10</v>
       </c>
       <c r="B298" s="1">
-        <v>-1089.01</v>
+        <v>-1299.8</v>
       </c>
       <c r="C298" s="1">
-        <v>-1091.01</v>
+        <v>-1300.8</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -3724,10 +3718,10 @@
         <v>10</v>
       </c>
       <c r="B299" s="1">
-        <v>-1091.01</v>
+        <v>-1302.5</v>
       </c>
       <c r="C299" s="1">
-        <v>-1097.01</v>
+        <v>-1303.5</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -3735,10 +3729,10 @@
         <v>10</v>
       </c>
       <c r="B300" s="1">
-        <v>-1098.21</v>
+        <v>-1304.3</v>
       </c>
       <c r="C300" s="1">
-        <v>-1105.4099999999999</v>
+        <v>-1305.5</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -3746,10 +3740,10 @@
         <v>10</v>
       </c>
       <c r="B301" s="1">
-        <v>-1108.01</v>
+        <v>-1306.4000000000001</v>
       </c>
       <c r="C301" s="1">
-        <v>-1109.21</v>
+        <v>-1307.4000000000001</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -3757,10 +3751,10 @@
         <v>10</v>
       </c>
       <c r="B302" s="1">
-        <v>-1109.21</v>
+        <v>-1308</v>
       </c>
       <c r="C302" s="1">
-        <v>-1110.81</v>
+        <v>-1308.5</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -3768,10 +3762,10 @@
         <v>10</v>
       </c>
       <c r="B303" s="1">
-        <v>-1111.81</v>
+        <v>-1308.9000000000001</v>
       </c>
       <c r="C303" s="1">
-        <v>-1113.4099999999999</v>
+        <v>-1309.4000000000001</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -3779,10 +3773,10 @@
         <v>10</v>
       </c>
       <c r="B304" s="1">
-        <v>-1116.01</v>
+        <v>-1310.2</v>
       </c>
       <c r="C304" s="1">
-        <v>-1117.21</v>
+        <v>-1312.6</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -3790,10 +3784,10 @@
         <v>10</v>
       </c>
       <c r="B305" s="1">
-        <v>-1119.81</v>
+        <v>-1312.6</v>
       </c>
       <c r="C305" s="1">
-        <v>-1134.01</v>
+        <v>-1313.1</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -3801,10 +3795,10 @@
         <v>10</v>
       </c>
       <c r="B306" s="1">
-        <v>-1136.01</v>
+        <v>-1313.7</v>
       </c>
       <c r="C306" s="1">
-        <v>-1137.81</v>
+        <v>-1314.5</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -3812,10 +3806,10 @@
         <v>10</v>
       </c>
       <c r="B307" s="1">
-        <v>-1137.81</v>
+        <v>-1315.2</v>
       </c>
       <c r="C307" s="1">
-        <v>-1142.01</v>
+        <v>-1316.9</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -3823,10 +3817,10 @@
         <v>10</v>
       </c>
       <c r="B308" s="1">
-        <v>-1142.01</v>
+        <v>-1316.9</v>
       </c>
       <c r="C308" s="1">
-        <v>-1144.4099999999999</v>
+        <v>-1318.4</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -3834,10 +3828,10 @@
         <v>10</v>
       </c>
       <c r="B309" s="1">
-        <v>-1144.4099999999999</v>
+        <v>-1318.4</v>
       </c>
       <c r="C309" s="1">
-        <v>-1145.81</v>
+        <v>-1319.5</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -3845,10 +3839,10 @@
         <v>10</v>
       </c>
       <c r="B310" s="1">
-        <v>-1145.81</v>
+        <v>-1320.7</v>
       </c>
       <c r="C310" s="1">
-        <v>-1147.6099999999999</v>
+        <v>-1321.4</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -3856,10 +3850,10 @@
         <v>10</v>
       </c>
       <c r="B311" s="1">
-        <v>-1147.6099999999999</v>
+        <v>-1322</v>
       </c>
       <c r="C311" s="1">
-        <v>-1149.81</v>
+        <v>-1322.7</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -3867,10 +3861,10 @@
         <v>10</v>
       </c>
       <c r="B312" s="1">
-        <v>-1151.01</v>
+        <v>-1323.2</v>
       </c>
       <c r="C312" s="1">
-        <v>-1152.21</v>
+        <v>-1325.7</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -3878,10 +3872,10 @@
         <v>10</v>
       </c>
       <c r="B313" s="1">
-        <v>-1152.21</v>
+        <v>-1325.7</v>
       </c>
       <c r="C313" s="1">
-        <v>-1154.4099999999999</v>
+        <v>-1327.7</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -3889,10 +3883,10 @@
         <v>10</v>
       </c>
       <c r="B314" s="1">
-        <v>-1154.4099999999999</v>
+        <v>-1328.6</v>
       </c>
       <c r="C314" s="1">
-        <v>-1155.81</v>
+        <v>-1329.9</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -3900,10 +3894,10 @@
         <v>10</v>
       </c>
       <c r="B315" s="1">
-        <v>-1155.81</v>
+        <v>-1329.9</v>
       </c>
       <c r="C315" s="1">
-        <v>-1157.01</v>
+        <v>-1336.7</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -3911,10 +3905,10 @@
         <v>10</v>
       </c>
       <c r="B316" s="1">
-        <v>-1157.01</v>
+        <v>-1337.5</v>
       </c>
       <c r="C316" s="1">
-        <v>-1159.21</v>
+        <v>-1339.2</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -3922,10 +3916,10 @@
         <v>10</v>
       </c>
       <c r="B317" s="1">
-        <v>-1159.21</v>
+        <v>-1339.2</v>
       </c>
       <c r="C317" s="1">
-        <v>-1162.01</v>
+        <v>-1343</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -3933,10 +3927,10 @@
         <v>10</v>
       </c>
       <c r="B318" s="1">
-        <v>-1165.21</v>
+        <v>-1343.7</v>
       </c>
       <c r="C318" s="1">
-        <v>-1169.4099999999999</v>
+        <v>-1347.1</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -3944,10 +3938,10 @@
         <v>10</v>
       </c>
       <c r="B319" s="1">
-        <v>-1171.81</v>
+        <v>-1347.1</v>
       </c>
       <c r="C319" s="1">
-        <v>-1173.01</v>
+        <v>-1349</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -3955,10 +3949,10 @@
         <v>10</v>
       </c>
       <c r="B320" s="1">
-        <v>-1175.01</v>
+        <v>-1349</v>
       </c>
       <c r="C320" s="1">
-        <v>-1176.4099999999999</v>
+        <v>-1350.9</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -3966,10 +3960,10 @@
         <v>10</v>
       </c>
       <c r="B321" s="1">
-        <v>-1176.4099999999999</v>
+        <v>-1350.9</v>
       </c>
       <c r="C321" s="1">
-        <v>-1177.4099999999999</v>
+        <v>-1351.8</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -3977,10 +3971,10 @@
         <v>10</v>
       </c>
       <c r="B322" s="1">
-        <v>-1177.4099999999999</v>
+        <v>-1351.8</v>
       </c>
       <c r="C322" s="1">
-        <v>-1178.6099999999999</v>
+        <v>-1354.2</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -3988,10 +3982,10 @@
         <v>10</v>
       </c>
       <c r="B323" s="1">
-        <v>-1178.6099999999999</v>
+        <v>-1354.2</v>
       </c>
       <c r="C323" s="1">
-        <v>-1179.81</v>
+        <v>-1357.8</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -3999,10 +3993,10 @@
         <v>10</v>
       </c>
       <c r="B324" s="1">
-        <v>-1179.81</v>
+        <v>-1358.5</v>
       </c>
       <c r="C324" s="1">
-        <v>-1181.4099999999999</v>
+        <v>-1359.1</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -4010,10 +4004,10 @@
         <v>10</v>
       </c>
       <c r="B325" s="1">
-        <v>-1181.4099999999999</v>
+        <v>-1359.6</v>
       </c>
       <c r="C325" s="1">
-        <v>-1182.4099999999999</v>
+        <v>-1360.4</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -4021,10 +4015,10 @@
         <v>10</v>
       </c>
       <c r="B326" s="1">
-        <v>-1182.4099999999999</v>
+        <v>-1361.6</v>
       </c>
       <c r="C326" s="1">
-        <v>-1183.81</v>
+        <v>-1362.7</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -4032,10 +4026,10 @@
         <v>10</v>
       </c>
       <c r="B327" s="1">
-        <v>-1183.81</v>
+        <v>-1362.7</v>
       </c>
       <c r="C327" s="1">
-        <v>-1186.81</v>
+        <v>-1363.7</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -4043,10 +4037,10 @@
         <v>10</v>
       </c>
       <c r="B328" s="1">
-        <v>-1188.21</v>
+        <v>-1364.5</v>
       </c>
       <c r="C328" s="1">
-        <v>-1189.6099999999999</v>
+        <v>-1365.3</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -4054,10 +4048,10 @@
         <v>10</v>
       </c>
       <c r="B329" s="1">
-        <v>-1189.6099999999999</v>
+        <v>-1366.4</v>
       </c>
       <c r="C329" s="1">
-        <v>-1191.4099999999999</v>
+        <v>-1368.4</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -4065,10 +4059,10 @@
         <v>10</v>
       </c>
       <c r="B330" s="1">
-        <v>-1192.21</v>
+        <v>-1370.4</v>
       </c>
       <c r="C330" s="1">
-        <v>-1196.21</v>
+        <v>-1371.3</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -4076,10 +4070,10 @@
         <v>10</v>
       </c>
       <c r="B331" s="1">
-        <v>-1197.21</v>
+        <v>-1373.1</v>
       </c>
       <c r="C331" s="1">
-        <v>-1199.21</v>
+        <v>-1374.8</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -4087,10 +4081,10 @@
         <v>10</v>
       </c>
       <c r="B332" s="1">
-        <v>-1201.81</v>
+        <v>-1375.5</v>
       </c>
       <c r="C332" s="1">
-        <v>-1206.21</v>
+        <v>-1377.8</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -4098,10 +4092,10 @@
         <v>10</v>
       </c>
       <c r="B333" s="1">
-        <v>-1206.21</v>
+        <v>-1378.4</v>
       </c>
       <c r="C333" s="1">
-        <v>-1213.21</v>
+        <v>-1380.7</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -4109,10 +4103,10 @@
         <v>10</v>
       </c>
       <c r="B334" s="1">
-        <v>-1218.81</v>
+        <v>-1381.5</v>
       </c>
       <c r="C334" s="1">
-        <v>-1220.21</v>
+        <v>-1382.3</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -4120,10 +4114,10 @@
         <v>10</v>
       </c>
       <c r="B335" s="1">
-        <v>-1221.4099999999999</v>
+        <v>-1382.3</v>
       </c>
       <c r="C335" s="1">
-        <v>-1222.4099999999999</v>
+        <v>-1383.3</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -4131,10 +4125,10 @@
         <v>10</v>
       </c>
       <c r="B336" s="1">
-        <v>-1225.4099999999999</v>
+        <v>-1383.3</v>
       </c>
       <c r="C336" s="1">
-        <v>-1227.21</v>
+        <v>-1384.2</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -4142,10 +4136,10 @@
         <v>10</v>
       </c>
       <c r="B337" s="1">
-        <v>-1228.21</v>
+        <v>-1384.2</v>
       </c>
       <c r="C337" s="1">
-        <v>-1232.01</v>
+        <v>-1384.8</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -4153,10 +4147,10 @@
         <v>10</v>
       </c>
       <c r="B338" s="1">
-        <v>-1232.01</v>
+        <v>-1384.8</v>
       </c>
       <c r="C338" s="1">
-        <v>-1234.81</v>
+        <v>-1386.3</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -4164,10 +4158,10 @@
         <v>10</v>
       </c>
       <c r="B339" s="1">
-        <v>-1240.21</v>
+        <v>-1387.2</v>
       </c>
       <c r="C339" s="1">
-        <v>-1243.4099999999999</v>
+        <v>-1388.1</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -4175,10 +4169,10 @@
         <v>10</v>
       </c>
       <c r="B340" s="1">
-        <v>-1243.4099999999999</v>
+        <v>-1388.6</v>
       </c>
       <c r="C340" s="1">
-        <v>-1245.6099999999999</v>
+        <v>-1389.4</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -4186,10 +4180,10 @@
         <v>10</v>
       </c>
       <c r="B341" s="1">
-        <v>-1246.81</v>
+        <v>-1390.4</v>
       </c>
       <c r="C341" s="1">
-        <v>-1248.81</v>
+        <v>-1391.4</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -4197,10 +4191,10 @@
         <v>10</v>
       </c>
       <c r="B342" s="1">
-        <v>-1253.01</v>
+        <v>-1392.3</v>
       </c>
       <c r="C342" s="1">
-        <v>-1255.01</v>
+        <v>-1393</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -4208,10 +4202,10 @@
         <v>10</v>
       </c>
       <c r="B343" s="1">
-        <v>-1267.4099999999999</v>
+        <v>-1394.6</v>
       </c>
       <c r="C343" s="1">
-        <v>-1268.6099999999999</v>
+        <v>-1395.6</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -4219,10 +4213,10 @@
         <v>10</v>
       </c>
       <c r="B344" s="1">
-        <v>-1271.21</v>
+        <v>-1396.4</v>
       </c>
       <c r="C344" s="1">
-        <v>-1272.6099999999999</v>
+        <v>-1397.3</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -4230,10 +4224,10 @@
         <v>10</v>
       </c>
       <c r="B345" s="1">
-        <v>-1273.6099999999999</v>
+        <v>-1398.1</v>
       </c>
       <c r="C345" s="1">
-        <v>-1275.01</v>
+        <v>-1399.7</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -4241,10 +4235,10 @@
         <v>10</v>
       </c>
       <c r="B346" s="1">
-        <v>-1275.01</v>
+        <v>-1400.8</v>
       </c>
       <c r="C346" s="1">
-        <v>-1277.81</v>
+        <v>-1401.8</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -4252,10 +4246,10 @@
         <v>10</v>
       </c>
       <c r="B347" s="1">
-        <v>-1277.81</v>
+        <v>-1405.8</v>
       </c>
       <c r="C347" s="1">
-        <v>-1278.81</v>
+        <v>-1407</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -4263,10 +4257,10 @@
         <v>10</v>
       </c>
       <c r="B348" s="1">
-        <v>-1278.81</v>
+        <v>-1407.8</v>
       </c>
       <c r="C348" s="1">
-        <v>-1280.01</v>
+        <v>-1409.2</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -4274,10 +4268,10 @@
         <v>10</v>
       </c>
       <c r="B349" s="1">
-        <v>-1282.4099999999999</v>
+        <v>-1409.2</v>
       </c>
       <c r="C349" s="1">
-        <v>-1284.21</v>
+        <v>-1409.8</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -4285,10 +4279,10 @@
         <v>10</v>
       </c>
       <c r="B350" s="1">
-        <v>-1285.1099999999999</v>
+        <v>-1409.8</v>
       </c>
       <c r="C350" s="1">
-        <v>-1286.1099999999999</v>
+        <v>-1410.3</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -4296,10 +4290,10 @@
         <v>10</v>
       </c>
       <c r="B351" s="1">
-        <v>-1287.4099999999999</v>
+        <v>-1410.3</v>
       </c>
       <c r="C351" s="1">
-        <v>-1288.81</v>
+        <v>-1411.1</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -4307,10 +4301,10 @@
         <v>10</v>
       </c>
       <c r="B352" s="1">
-        <v>-1303.21</v>
+        <v>-1411.1</v>
       </c>
       <c r="C352" s="1">
-        <v>-1304.21</v>
+        <v>-1412.3</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -4318,10 +4312,10 @@
         <v>10</v>
       </c>
       <c r="B353" s="1">
-        <v>-1306.01</v>
+        <v>-1413</v>
       </c>
       <c r="C353" s="1">
-        <v>-1307.01</v>
+        <v>-1413.8</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -4329,10 +4323,10 @@
         <v>10</v>
       </c>
       <c r="B354" s="1">
-        <v>-1312.81</v>
+        <v>-1415.9</v>
       </c>
       <c r="C354" s="1">
-        <v>-1316.4099999999999</v>
+        <v>-1418.1</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -4340,10 +4334,10 @@
         <v>10</v>
       </c>
       <c r="B355" s="1">
-        <v>-1316.4099999999999</v>
+        <v>-1418.1</v>
       </c>
       <c r="C355" s="1">
-        <v>-1323.01</v>
+        <v>-1419.1</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -4351,10 +4345,10 @@
         <v>10</v>
       </c>
       <c r="B356" s="1">
-        <v>-1324.61</v>
+        <v>-1419.1</v>
       </c>
       <c r="C356" s="1">
-        <v>-1328.81</v>
+        <v>-1422.3</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -4362,10 +4356,10 @@
         <v>10</v>
       </c>
       <c r="B357" s="1">
-        <v>-1330.61</v>
+        <v>-1423.8</v>
       </c>
       <c r="C357" s="1">
-        <v>-1332.01</v>
+        <v>-1424.6</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -4373,10 +4367,10 @@
         <v>10</v>
       </c>
       <c r="B358" s="1">
-        <v>-1335.4099999999999</v>
+        <v>-1424.6</v>
       </c>
       <c r="C358" s="1">
-        <v>-1336.61</v>
+        <v>-1425.2</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -4384,10 +4378,10 @@
         <v>10</v>
       </c>
       <c r="B359" s="1">
-        <v>-1341.61</v>
+        <v>-1425.2</v>
       </c>
       <c r="C359" s="1">
-        <v>-1343.4099999999999</v>
+        <v>-1426</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -4395,10 +4389,10 @@
         <v>10</v>
       </c>
       <c r="B360" s="1">
-        <v>-1347.01</v>
+        <v>-1426</v>
       </c>
       <c r="C360" s="1">
-        <v>-1349.4099999999999</v>
+        <v>-1427.2</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -4406,10 +4400,10 @@
         <v>10</v>
       </c>
       <c r="B361" s="1">
-        <v>-1352.21</v>
+        <v>-1427.2</v>
       </c>
       <c r="C361" s="1">
-        <v>-1353.61</v>
+        <v>-1431.7</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -4417,10 +4411,10 @@
         <v>10</v>
       </c>
       <c r="B362" s="1">
-        <v>-1356.21</v>
+        <v>-1431.7</v>
       </c>
       <c r="C362" s="1">
-        <v>-1364.61</v>
+        <v>-1432.8</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -4428,10 +4422,10 @@
         <v>10</v>
       </c>
       <c r="B363" s="1">
-        <v>-1366.01</v>
+        <v>-1432.8</v>
       </c>
       <c r="C363" s="1">
-        <v>-1367.21</v>
+        <v>-1433.9</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -4439,10 +4433,10 @@
         <v>10</v>
       </c>
       <c r="B364" s="1">
-        <v>-1372.61</v>
+        <v>-1433.9</v>
       </c>
       <c r="C364" s="1">
-        <v>-1374.01</v>
+        <v>-1434.8</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -4450,10 +4444,10 @@
         <v>10</v>
       </c>
       <c r="B365" s="1">
-        <v>-1378.01</v>
+        <v>-1434.8</v>
       </c>
       <c r="C365" s="1">
-        <v>-1379.01</v>
+        <v>-1438.2</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -4461,10 +4455,10 @@
         <v>10</v>
       </c>
       <c r="B366" s="1">
-        <v>-1379.01</v>
+        <v>-1439.2</v>
       </c>
       <c r="C366" s="1">
-        <v>-1380.01</v>
+        <v>-1441.8</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -4472,10 +4466,10 @@
         <v>10</v>
       </c>
       <c r="B367" s="1">
-        <v>-1382.81</v>
+        <v>-1441.8</v>
       </c>
       <c r="C367" s="1">
-        <v>-1390.4099999999999</v>
+        <v>-1443.7</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -4483,10 +4477,10 @@
         <v>10</v>
       </c>
       <c r="B368" s="1">
-        <v>-1392.81</v>
+        <v>-1443.7</v>
       </c>
       <c r="C368" s="1">
-        <v>-1396.61</v>
+        <v>-1444.2</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -4494,10 +4488,10 @@
         <v>10</v>
       </c>
       <c r="B369" s="1">
-        <v>-1402.01</v>
+        <v>-1444.2</v>
       </c>
       <c r="C369" s="1">
-        <v>-1403.61</v>
+        <v>-1445.1</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -4505,10 +4499,10 @@
         <v>10</v>
       </c>
       <c r="B370" s="1">
-        <v>-1409.61</v>
+        <v>-1445.1</v>
       </c>
       <c r="C370" s="1">
-        <v>-1410.81</v>
+        <v>-1446.1</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -4516,10 +4510,10 @@
         <v>10</v>
       </c>
       <c r="B371" s="1">
-        <v>-1418.4099999999999</v>
+        <v>-1446.1</v>
       </c>
       <c r="C371" s="1">
-        <v>-1420.01</v>
+        <v>-1447.3</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -4527,10 +4521,10 @@
         <v>10</v>
       </c>
       <c r="B372" s="1">
-        <v>-1431.61</v>
+        <v>-1448.3</v>
       </c>
       <c r="C372" s="1">
-        <v>-1433.01</v>
+        <v>-1449.7</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -4538,10 +4532,10 @@
         <v>10</v>
       </c>
       <c r="B373" s="1">
-        <v>-1437.21</v>
+        <v>-1449.7</v>
       </c>
       <c r="C373" s="1">
-        <v>-1438.81</v>
+        <v>-1451</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -4549,10 +4543,10 @@
         <v>10</v>
       </c>
       <c r="B374" s="1">
-        <v>-1439.51</v>
+        <v>-1451</v>
       </c>
       <c r="C374" s="1">
-        <v>-1440.51</v>
+        <v>-1455.6</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -4560,10 +4554,10 @@
         <v>10</v>
       </c>
       <c r="B375" s="1">
-        <v>-1441.01</v>
+        <v>-1455.6</v>
       </c>
       <c r="C375" s="1">
-        <v>-1442.21</v>
+        <v>-1457.1</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -4571,10 +4565,10 @@
         <v>10</v>
       </c>
       <c r="B376" s="1">
-        <v>-1443.61</v>
+        <v>-1457.1</v>
       </c>
       <c r="C376" s="1">
-        <v>-1445.4099999999999</v>
+        <v>-1458.2</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -4582,10 +4576,10 @@
         <v>10</v>
       </c>
       <c r="B377" s="1">
-        <v>-1448.81</v>
+        <v>-1458.2</v>
       </c>
       <c r="C377" s="1">
-        <v>-1451.4099999999999</v>
+        <v>-1459.2</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -4593,10 +4587,10 @@
         <v>10</v>
       </c>
       <c r="B378" s="1">
-        <v>-1451.4099999999999</v>
+        <v>-1459.8</v>
       </c>
       <c r="C378" s="1">
-        <v>-1454.01</v>
+        <v>-1461.2</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -4604,10 +4598,10 @@
         <v>10</v>
       </c>
       <c r="B379" s="1">
-        <v>-1459.81</v>
+        <v>-1462.2</v>
       </c>
       <c r="C379" s="1">
-        <v>-1461.61</v>
+        <v>-1465.6</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -4615,10 +4609,10 @@
         <v>10</v>
       </c>
       <c r="B380" s="1">
-        <v>-1472.4099999999999</v>
+        <v>-1466.4</v>
       </c>
       <c r="C380" s="1">
-        <v>-1473.61</v>
+        <v>-1467</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -4626,10 +4620,10 @@
         <v>10</v>
       </c>
       <c r="B381" s="1">
-        <v>-1473.61</v>
+        <v>-1468.4</v>
       </c>
       <c r="C381" s="1">
-        <v>-1475.81</v>
+        <v>-1469.7</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -4637,10 +4631,10 @@
         <v>10</v>
       </c>
       <c r="B382" s="1">
-        <v>-1477.4099999999999</v>
+        <v>-1471.6</v>
       </c>
       <c r="C382" s="1">
-        <v>-1479.01</v>
+        <v>-1473.2</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -4648,10 +4642,10 @@
         <v>10</v>
       </c>
       <c r="B383" s="1">
-        <v>-1479.01</v>
+        <v>-1473.2</v>
       </c>
       <c r="C383" s="1">
-        <v>-1481.01</v>
+        <v>-1474.2</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -4659,10 +4653,10 @@
         <v>10</v>
       </c>
       <c r="B384" s="1">
-        <v>-1482.81</v>
+        <v>-1474.2</v>
       </c>
       <c r="C384" s="1">
-        <v>-1484.01</v>
+        <v>-1475.5</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -4670,10 +4664,10 @@
         <v>10</v>
       </c>
       <c r="B385" s="1">
-        <v>-1485.21</v>
+        <v>-1475.5</v>
       </c>
       <c r="C385" s="1">
-        <v>-1486.4099999999999</v>
+        <v>-1476.3</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -4681,10 +4675,10 @@
         <v>10</v>
       </c>
       <c r="B386" s="1">
-        <v>-1487.61</v>
+        <v>-1476.3</v>
       </c>
       <c r="C386" s="1">
-        <v>-1489.61</v>
+        <v>-1479.6</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -4692,10 +4686,10 @@
         <v>10</v>
       </c>
       <c r="B387" s="1">
-        <v>-1493.4099999999999</v>
+        <v>-1481.8</v>
       </c>
       <c r="C387" s="1">
-        <v>-1495.81</v>
+        <v>-1483.3</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -4703,10 +4697,10 @@
         <v>10</v>
       </c>
       <c r="B388" s="1">
-        <v>-1495.81</v>
+        <v>-1483.3</v>
       </c>
       <c r="C388" s="1">
-        <v>-1497.4099999999999</v>
+        <v>-1485.1</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -4714,10 +4708,10 @@
         <v>10</v>
       </c>
       <c r="B389" s="1">
-        <v>-1497.4099999999999</v>
+        <v>-1485.1</v>
       </c>
       <c r="C389" s="1">
-        <v>-1498.81</v>
+        <v>-1485.6</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -4725,10 +4719,10 @@
         <v>10</v>
       </c>
       <c r="B390" s="1">
-        <v>-1498.81</v>
+        <v>-1485.6</v>
       </c>
       <c r="C390" s="1">
-        <v>-1500.01</v>
+        <v>-1486.3</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -4736,10 +4730,10 @@
         <v>10</v>
       </c>
       <c r="B391" s="1">
-        <v>-1502.21</v>
+        <v>-1486.3</v>
       </c>
       <c r="C391" s="1">
-        <v>-1503.4099999999999</v>
+        <v>-1487.2</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -4747,10 +4741,10 @@
         <v>10</v>
       </c>
       <c r="B392" s="1">
-        <v>-1506.4099999999999</v>
+        <v>-1487.2</v>
       </c>
       <c r="C392" s="1">
-        <v>-1510.61</v>
+        <v>-1489.7</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -4758,10 +4752,10 @@
         <v>10</v>
       </c>
       <c r="B393" s="1">
-        <v>-1511.4099999999999</v>
+        <v>-1491.5</v>
       </c>
       <c r="C393" s="1">
-        <v>-1512.81</v>
+        <v>-1492.3</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -4769,10 +4763,10 @@
         <v>10</v>
       </c>
       <c r="B394" s="1">
-        <v>-1517.81</v>
+        <v>-1493.6</v>
       </c>
       <c r="C394" s="1">
-        <v>-1519.21</v>
+        <v>-1495.5</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -4780,10 +4774,10 @@
         <v>10</v>
       </c>
       <c r="B395" s="1">
-        <v>-1520.4099999999999</v>
+        <v>-1497</v>
       </c>
       <c r="C395" s="1">
-        <v>-1523.61</v>
+        <v>-1498</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -4791,10 +4785,10 @@
         <v>10</v>
       </c>
       <c r="B396" s="1">
-        <v>-1524.81</v>
+        <v>-1498.7</v>
       </c>
       <c r="C396" s="1">
-        <v>-1527.01</v>
+        <v>-1499.3</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -4802,10 +4796,10 @@
         <v>10</v>
       </c>
       <c r="B397" s="1">
-        <v>-1527.01</v>
+        <v>-1499.3</v>
       </c>
       <c r="C397" s="1">
-        <v>-1531.01</v>
+        <v>-1500.1</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -4813,10 +4807,10 @@
         <v>10</v>
       </c>
       <c r="B398" s="1">
-        <v>-1531.01</v>
+        <v>-1500.6</v>
       </c>
       <c r="C398" s="1">
-        <v>-1542.61</v>
+        <v>-1501.5</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -4824,10 +4818,10 @@
         <v>10</v>
       </c>
       <c r="B399" s="1">
-        <v>-1545.01</v>
+        <v>-1502</v>
       </c>
       <c r="C399" s="1">
-        <v>-1547.4099999999999</v>
+        <v>-1504.7</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -4835,10 +4829,10 @@
         <v>10</v>
       </c>
       <c r="B400" s="1">
-        <v>-1547.4099999999999</v>
+        <v>-1505.5</v>
       </c>
       <c r="C400" s="1">
-        <v>-1550.21</v>
+        <v>-1506.7</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -4846,10 +4840,10 @@
         <v>10</v>
       </c>
       <c r="B401" s="1">
-        <v>-1550.21</v>
+        <v>-1507.7</v>
       </c>
       <c r="C401" s="1">
-        <v>-1556.4099999999999</v>
+        <v>-1509.7</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -4857,10 +4851,10 @@
         <v>10</v>
       </c>
       <c r="B402" s="1">
-        <v>-1558.21</v>
+        <v>-1511.5</v>
       </c>
       <c r="C402" s="1">
-        <v>-1560.81</v>
+        <v>-1512</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -4868,10 +4862,10 @@
         <v>10</v>
       </c>
       <c r="B403" s="1">
-        <v>-1566.21</v>
+        <v>-1512.6</v>
       </c>
       <c r="C403" s="1">
-        <v>-1567.61</v>
+        <v>-1513.6</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -4879,10 +4873,10 @@
         <v>10</v>
       </c>
       <c r="B404" s="1">
-        <v>-1570.4099999999999</v>
+        <v>-1517.1</v>
       </c>
       <c r="C404" s="1">
-        <v>-1574.81</v>
+        <v>-1519.1</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -4890,10 +4884,10 @@
         <v>10</v>
       </c>
       <c r="B405" s="1">
-        <v>-1574.81</v>
+        <v>-1519.1</v>
       </c>
       <c r="C405" s="1">
-        <v>-1578.4099999999999</v>
+        <v>-1519.9</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -4901,10 +4895,10 @@
         <v>10</v>
       </c>
       <c r="B406" s="1">
-        <v>-1578.4099999999999</v>
+        <v>-1519.9</v>
       </c>
       <c r="C406" s="1">
-        <v>-1586.21</v>
+        <v>-1520.8</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -4912,10 +4906,10 @@
         <v>10</v>
       </c>
       <c r="B407" s="1">
-        <v>-1586.21</v>
+        <v>-1520.8</v>
       </c>
       <c r="C407" s="1">
-        <v>-1589.21</v>
+        <v>-1523.5</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -4923,10 +4917,10 @@
         <v>10</v>
       </c>
       <c r="B408" s="1">
-        <v>-1589.21</v>
+        <v>-1526.5</v>
       </c>
       <c r="C408" s="1">
-        <v>-1591.21</v>
+        <v>-1527.4</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -4934,10 +4928,10 @@
         <v>10</v>
       </c>
       <c r="B409" s="1">
-        <v>-1593.61</v>
+        <v>-1528.1</v>
       </c>
       <c r="C409" s="1">
-        <v>-1595.01</v>
+        <v>-1529</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -4945,10 +4939,10 @@
         <v>10</v>
       </c>
       <c r="B410" s="1">
-        <v>-1595.01</v>
+        <v>-1529.9</v>
       </c>
       <c r="C410" s="1">
-        <v>-1596.21</v>
+        <v>-1530.9</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -4956,1253 +4950,3222 @@
         <v>10</v>
       </c>
       <c r="B411" s="1">
-        <v>-1603.01</v>
+        <v>-1535.9</v>
       </c>
       <c r="C411" s="1">
-        <v>-1605.21</v>
+        <v>-1536.9</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B412" s="1">
-        <v>-921.9</v>
+        <v>-1537.6</v>
       </c>
       <c r="C412" s="1">
-        <v>-923.69999999999993</v>
+        <v>-1538.7</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B413" s="1">
-        <v>-923.69999999999993</v>
+        <v>-1546</v>
       </c>
       <c r="C413" s="1">
-        <v>-925.69999999999993</v>
+        <v>-1547.6</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B414" s="1">
-        <v>-927.1</v>
+        <v>-1557.3</v>
       </c>
       <c r="C414" s="1">
-        <v>-928.69999999999993</v>
+        <v>-1558.2</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B415" s="1">
-        <v>-928.69999999999993</v>
+        <v>-1558.8</v>
       </c>
       <c r="C415" s="1">
-        <v>-929.9</v>
+        <v>-1559.6</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B416" s="1">
-        <v>-929.9</v>
+        <v>-1560.3</v>
       </c>
       <c r="C416" s="1">
-        <v>-933.69999999999993</v>
+        <v>-1560.8</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B417" s="1">
-        <v>-933.69999999999993</v>
+        <v>-1561.5</v>
       </c>
       <c r="C417" s="1">
-        <v>-934.9</v>
+        <v>-1562.2</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B418" s="1">
-        <v>-934.9</v>
+        <v>-1563.5</v>
       </c>
       <c r="C418" s="1">
-        <v>-936.1</v>
+        <v>-1565.7</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B419" s="1">
-        <v>-936.1</v>
+        <v>-1565.7</v>
       </c>
       <c r="C419" s="1">
-        <v>-939.5</v>
+        <v>-1567.1</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B420" s="1">
-        <v>-939.5</v>
+        <v>-1568.1</v>
       </c>
       <c r="C420" s="1">
-        <v>-952.9</v>
+        <v>-1569.7</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B421" s="1">
-        <v>-952.9</v>
+        <v>-1569.7</v>
       </c>
       <c r="C421" s="1">
-        <v>-955.5</v>
+        <v>-1570.6</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B422" s="1">
-        <v>-955.5</v>
+        <v>-1570.6</v>
       </c>
       <c r="C422" s="1">
-        <v>-957.5</v>
+        <v>-1574</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B423" s="1">
-        <v>-957.5</v>
+        <v>-1576</v>
       </c>
       <c r="C423" s="1">
-        <v>-961.3</v>
+        <v>-1577.2</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B424" s="1">
-        <v>-961.3</v>
+        <v>-1580.1</v>
       </c>
       <c r="C424" s="1">
-        <v>-963.9</v>
+        <v>-1581.3</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B425" s="1">
-        <v>-965.3</v>
+        <v>-1581.3</v>
       </c>
       <c r="C425" s="1">
-        <v>-966.69999999999993</v>
+        <v>-1581.9</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B426" s="1">
-        <v>-971.1</v>
+        <v>-1581.9</v>
       </c>
       <c r="C426" s="1">
-        <v>-972.69999999999993</v>
+        <v>-1583.3</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B427" s="1">
-        <v>-972.69999999999993</v>
+        <v>-1584.8</v>
       </c>
       <c r="C427" s="1">
-        <v>-974.9</v>
+        <v>-1585.6</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B428" s="1">
-        <v>-976.69999999999993</v>
+        <v>-1586.7</v>
       </c>
       <c r="C428" s="1">
-        <v>-977.9</v>
+        <v>-1588.4</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B429" s="1">
-        <v>-980.9</v>
+        <v>-1589.6</v>
       </c>
       <c r="C429" s="1">
-        <v>-991.9</v>
+        <v>-1590.8</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B430" s="1">
-        <v>-991.9</v>
+        <v>-1591.8</v>
       </c>
       <c r="C430" s="1">
-        <v>-993.69999999999993</v>
+        <v>-1595.7</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B431" s="1">
-        <v>-993.69999999999993</v>
+        <v>-1596.3</v>
       </c>
       <c r="C431" s="1">
-        <v>-1007.1</v>
+        <v>-1597.4</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B432" s="1">
-        <v>-1007.1</v>
+        <v>-1204.3</v>
       </c>
       <c r="C432" s="1">
-        <v>-1008.6999999999999</v>
+        <v>-1206.4000000000001</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B433" s="1">
-        <v>-1008.6999999999999</v>
+        <v>-1208.3</v>
       </c>
       <c r="C433" s="1">
-        <v>-1012.6999999999999</v>
+        <v>-1211.0999999999999</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B434" s="1">
-        <v>-1012.6999999999999</v>
+        <v>-1214.3</v>
       </c>
       <c r="C434" s="1">
-        <v>-1014.1</v>
+        <v>-1215.5</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B435" s="1">
-        <v>-1021.3000000000001</v>
+        <v>-1216.4000000000001</v>
       </c>
       <c r="C435" s="1">
-        <v>-1022.4999999999999</v>
+        <v>-1218.8</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B436" s="1">
-        <v>-1023.9</v>
+        <v>-1219.5</v>
       </c>
       <c r="C436" s="1">
-        <v>-1025.7</v>
+        <v>-1220.7</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B437" s="1">
-        <v>-1031.7</v>
+        <v>-1220.7</v>
       </c>
       <c r="C437" s="1">
-        <v>-1034.3000000000002</v>
+        <v>-1226.4000000000001</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B438" s="1">
-        <v>-1038.1000000000001</v>
+        <v>-1227.8</v>
       </c>
       <c r="C438" s="1">
-        <v>-1039.7</v>
+        <v>-1229.4000000000001</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B439" s="1">
-        <v>-1039.7</v>
+        <v>-1230.0999999999999</v>
       </c>
       <c r="C439" s="1">
-        <v>-1043.1000000000001</v>
+        <v>-1230.7</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B440" s="1">
-        <v>-1045.9000000000001</v>
+        <v>-1231.3</v>
       </c>
       <c r="C440" s="1">
-        <v>-1047.9000000000001</v>
+        <v>-1232.4000000000001</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B441" s="1">
-        <v>-1047.9000000000001</v>
+        <v>-1232.4000000000001</v>
       </c>
       <c r="C441" s="1">
-        <v>-1051.7</v>
+        <v>-1234.3</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B442" s="1">
-        <v>-1052.9000000000001</v>
+        <v>-1234.3</v>
       </c>
       <c r="C442" s="1">
-        <v>-1054.9000000000001</v>
+        <v>-1236.2</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B443" s="1">
-        <v>-1054.9000000000001</v>
+        <v>-1236.2</v>
       </c>
       <c r="C443" s="1">
-        <v>-1058.1000000000001</v>
+        <v>-1236.9000000000001</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B444" s="1">
-        <v>-1060.5</v>
+        <v>-1236.9000000000001</v>
       </c>
       <c r="C444" s="1">
-        <v>-1063.1000000000001</v>
+        <v>-1238.9000000000001</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B445" s="1">
-        <v>-1063.1000000000001</v>
+        <v>-1241.3</v>
       </c>
       <c r="C445" s="1">
-        <v>-1069.5</v>
+        <v>-1242.3</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B446" s="1">
-        <v>-1075.3000000000002</v>
+        <v>-1242.3</v>
       </c>
       <c r="C446" s="1">
-        <v>-1085.3000000000002</v>
+        <v>-1244.9000000000001</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B447" s="1">
-        <v>-1095.5</v>
+        <v>-1244.9000000000001</v>
       </c>
       <c r="C447" s="1">
-        <v>-1096.9000000000001</v>
+        <v>-1245.4000000000001</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B448" s="1">
-        <v>-1104.5</v>
+        <v>-1245.4000000000001</v>
       </c>
       <c r="C448" s="1">
-        <v>-1107.1000000000001</v>
+        <v>-1246.4000000000001</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B449" s="1">
-        <v>-1107.1000000000001</v>
+        <v>-1248.3</v>
       </c>
       <c r="C449" s="1">
-        <v>-1108.1000000000001</v>
+        <v>-1249.3</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B450" s="1">
-        <v>-1108.1000000000001</v>
+        <v>-1250.3</v>
       </c>
       <c r="C450" s="1">
-        <v>-1111.7</v>
+        <v>-1252.3</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B451" s="1">
-        <v>-1111.7</v>
+        <v>-1254</v>
       </c>
       <c r="C451" s="1">
-        <v>-1113.5</v>
+        <v>-1254.9000000000001</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B452" s="1">
-        <v>-1114.5</v>
+        <v>-1255.3</v>
       </c>
       <c r="C452" s="1">
-        <v>-1115.9000000000001</v>
+        <v>-1257.3</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B453" s="1">
-        <v>-1115.9000000000001</v>
+        <v>-1261.7</v>
       </c>
       <c r="C453" s="1">
-        <v>-1116.9000000000001</v>
+        <v>-1262.9000000000001</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B454" s="1">
-        <v>-1116.9000000000001</v>
+        <v>-1262.9000000000001</v>
       </c>
       <c r="C454" s="1">
-        <v>-1118.3000000000002</v>
+        <v>-1264</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B455" s="1">
-        <v>-1118.3000000000002</v>
+        <v>-1264</v>
       </c>
       <c r="C455" s="1">
-        <v>-1130.7</v>
+        <v>-1264.9000000000001</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B456" s="1">
-        <v>-1130.7</v>
+        <v>-1264.9000000000001</v>
       </c>
       <c r="C456" s="1">
-        <v>-1131.7</v>
+        <v>-1266.3</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B457" s="1">
-        <v>-1131.7</v>
+        <v>-1270</v>
       </c>
       <c r="C457" s="1">
-        <v>-1134.9000000000001</v>
+        <v>-1270.8</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B458" s="1">
-        <v>-1134.9000000000001</v>
+        <v>-1272.3</v>
       </c>
       <c r="C458" s="1">
-        <v>-1136.9000000000001</v>
+        <v>-1274</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B459" s="1">
-        <v>-1136.9000000000001</v>
+        <v>-1275.3</v>
       </c>
       <c r="C459" s="1">
-        <v>-1144.1000000000001</v>
+        <v>-1276.4000000000001</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B460" s="1">
-        <v>-1147.9000000000001</v>
+        <v>-1277</v>
       </c>
       <c r="C460" s="1">
-        <v>-1150.7</v>
+        <v>-1277.5</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B461" s="1">
-        <v>-1150.7</v>
+        <v>-1278.5999999999999</v>
       </c>
       <c r="C461" s="1">
-        <v>-1152.3000000000002</v>
+        <v>-1287.2</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B462" s="1">
-        <v>-1152.3000000000002</v>
+        <v>-1288</v>
       </c>
       <c r="C462" s="1">
-        <v>-1153.9000000000001</v>
+        <v>-1294.0999999999999</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B463" s="1">
-        <v>-1153.9000000000001</v>
+        <v>-1295.2</v>
       </c>
       <c r="C463" s="1">
-        <v>-1158.9000000000001</v>
+        <v>-1296.7</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B464" s="1">
-        <v>-1158.9000000000001</v>
+        <v>-1297.0999999999999</v>
       </c>
       <c r="C464" s="1">
-        <v>-1161.7</v>
+        <v>-1297.5</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B465" s="1">
-        <v>-1161.7</v>
+        <v>-1298.0999999999999</v>
       </c>
       <c r="C465" s="1">
-        <v>-1166.7</v>
+        <v>-1298.8</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B466" s="1">
-        <v>-1166.7</v>
+        <v>-1299.5999999999999</v>
       </c>
       <c r="C466" s="1">
-        <v>-1172.9000000000001</v>
+        <v>-1300.4000000000001</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B467" s="1">
-        <v>-1172.9000000000001</v>
+        <v>-1301</v>
       </c>
       <c r="C467" s="1">
-        <v>-1178.3000000000002</v>
+        <v>-1301.9000000000001</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B468" s="1">
-        <v>-1178.3000000000002</v>
+        <v>-1302.4000000000001</v>
       </c>
       <c r="C468" s="1">
-        <v>-1179.9000000000001</v>
+        <v>-1303.5</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B469" s="1">
-        <v>-1179.9000000000001</v>
+        <v>-1303.5</v>
       </c>
       <c r="C469" s="1">
-        <v>-1184.7</v>
+        <v>-1304.2</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B470" s="1">
-        <v>-1192.7</v>
+        <v>-1304.2</v>
       </c>
       <c r="C470" s="1">
-        <v>-1194.5</v>
+        <v>-1305.0999999999999</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B471" s="1">
-        <v>-1194.5</v>
+        <v>-1305.0999999999999</v>
       </c>
       <c r="C471" s="1">
-        <v>-1203.7</v>
+        <v>-1307.7</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B472" s="1">
-        <v>-1205.1000000000001</v>
+        <v>-1309.0999999999999</v>
       </c>
       <c r="C472" s="1">
-        <v>-1206.5</v>
+        <v>-1311.1</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B473" s="1">
-        <v>-1210.5</v>
+        <v>-1311.1</v>
       </c>
       <c r="C473" s="1">
-        <v>-1212.1000000000001</v>
+        <v>-1312.7</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B474" s="1">
-        <v>-1217.1000000000001</v>
+        <v>-1313.4</v>
       </c>
       <c r="C474" s="1">
-        <v>-1218.5</v>
+        <v>-1314.8</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B475" s="1">
-        <v>-1219.1000000000001</v>
+        <v>-1315.7</v>
       </c>
       <c r="C475" s="1">
-        <v>-1220.5</v>
+        <v>-1316.6</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B476" s="1">
-        <v>-1222.5</v>
+        <v>-1318</v>
       </c>
       <c r="C476" s="1">
-        <v>-1223.9000000000001</v>
+        <v>-1319.3</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B477" s="1">
-        <v>-1241.5</v>
+        <v>-1319.3</v>
       </c>
       <c r="C477" s="1">
-        <v>-1245.7</v>
+        <v>-1321.3</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B478" s="1">
-        <v>-1252.5</v>
+        <v>-1322.3</v>
       </c>
       <c r="C478" s="1">
-        <v>-1254.1000000000001</v>
+        <v>-1323.2</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B479" s="1">
-        <v>-1266.3000000000002</v>
+        <v>-1323.8</v>
       </c>
       <c r="C479" s="1">
-        <v>-1267.9000000000001</v>
+        <v>-1325.6</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B480" s="1">
-        <v>-1273.5</v>
+        <v>-1326.8</v>
       </c>
       <c r="C480" s="1">
-        <v>-1274.7</v>
+        <v>-1328.6</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B481" s="1">
-        <v>-1276.3000000000002</v>
+        <v>-1328.6</v>
       </c>
       <c r="C481" s="1">
-        <v>-1278.3000000000002</v>
+        <v>-1329.6</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B482" s="1">
-        <v>-1279.7</v>
+        <v>-1329.6</v>
       </c>
       <c r="C482" s="1">
-        <v>-1284.9000000000001</v>
+        <v>-1331.3</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B483" s="1">
-        <v>-1305.3000000000002</v>
+        <v>-1331.3</v>
       </c>
       <c r="C483" s="1">
-        <v>-1306.9000000000001</v>
+        <v>-1332.3</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B484" s="1">
-        <v>-1323.1000000000001</v>
+        <v>-1332.3</v>
       </c>
       <c r="C484" s="1">
-        <v>-1325.1000000000001</v>
+        <v>-1333.6</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B485" s="1">
-        <v>-1327.7</v>
+        <v>-1333.6</v>
       </c>
       <c r="C485" s="1">
-        <v>-1329.3000000000002</v>
+        <v>-1334.5</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B486" s="1">
-        <v>-1329.3000000000002</v>
+        <v>-1334.5</v>
       </c>
       <c r="C486" s="1">
-        <v>-1331.7</v>
+        <v>-1336.4</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B487" s="1">
-        <v>-1331.7</v>
+        <v>-1337.1</v>
       </c>
       <c r="C487" s="1">
-        <v>-1334.7</v>
+        <v>-1338.1</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B488" s="1">
-        <v>-1334.7</v>
+        <v>-1340.3</v>
       </c>
       <c r="C488" s="1">
-        <v>-1337.1000000000001</v>
+        <v>-1341.4</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B489" s="1">
-        <v>-1337.1000000000001</v>
+        <v>-1341.9</v>
       </c>
       <c r="C489" s="1">
-        <v>-1339.1000000000001</v>
+        <v>-1342.6</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B490" s="1">
-        <v>-1339.1000000000001</v>
+        <v>-1342.6</v>
       </c>
       <c r="C490" s="1">
-        <v>-1347.1000000000001</v>
+        <v>-1343.4</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B491" s="1">
-        <v>-1347.1000000000001</v>
+        <v>-1343.4</v>
       </c>
       <c r="C491" s="1">
-        <v>-1348.9</v>
+        <v>-1344.6</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B492" s="1">
-        <v>-1348.9</v>
+        <v>-1344.6</v>
       </c>
       <c r="C492" s="1">
-        <v>-1357.7</v>
+        <v>-1346.5</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B493" s="1">
-        <v>-1357.7</v>
+        <v>-1346.5</v>
       </c>
       <c r="C493" s="1">
-        <v>-1360.1000000000001</v>
+        <v>-1347.2</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B494" s="1">
-        <v>-1360.1000000000001</v>
+        <v>-1347.2</v>
       </c>
       <c r="C494" s="1">
-        <v>-1361.9</v>
+        <v>-1348.1</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B495" s="1">
-        <v>-1375.3000000000002</v>
+        <v>-1348.1</v>
       </c>
       <c r="C495" s="1">
-        <v>-1378.1000000000001</v>
+        <v>-1350.4</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B496" s="1">
-        <v>-1381.1000000000001</v>
+        <v>-1350.4</v>
       </c>
       <c r="C496" s="1">
-        <v>-1383.1000000000001</v>
+        <v>-1352.1</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B497" s="1">
-        <v>-1404.5</v>
+        <v>-1352.1</v>
       </c>
       <c r="C497" s="1">
-        <v>-1405.7</v>
+        <v>-1353.8</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B498" s="1">
-        <v>-1406.9</v>
+        <v>-1353.8</v>
       </c>
       <c r="C498" s="1">
-        <v>-1407.9</v>
+        <v>-1354.6</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B499" s="1">
-        <v>-1409.1000000000001</v>
+        <v>-1354.6</v>
       </c>
       <c r="C499" s="1">
-        <v>-1412.5</v>
+        <v>-1356.3</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B500" s="1">
-        <v>-1413.9</v>
+        <v>-1356.3</v>
       </c>
       <c r="C500" s="1">
-        <v>-1415.3000000000002</v>
+        <v>-1359.3</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B501" s="1">
-        <v>-1418.1000000000001</v>
+        <v>-1359.3</v>
       </c>
       <c r="C501" s="1">
-        <v>-1419.9</v>
+        <v>-1361.9</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B502" s="1">
-        <v>-1427.7</v>
+        <v>-1362.8</v>
       </c>
       <c r="C502" s="1">
-        <v>-1429.9</v>
+        <v>-1363.9</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B503" s="1">
-        <v>-1432.9</v>
+        <v>-1363.9</v>
       </c>
       <c r="C503" s="1">
-        <v>-1433.9</v>
+        <v>-1366.7</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B504" s="1">
-        <v>-1433.9</v>
+        <v>-1366.7</v>
       </c>
       <c r="C504" s="1">
-        <v>-1439.1000000000001</v>
+        <v>-1367.8</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B505" s="1">
-        <v>-1441.1000000000001</v>
+        <v>-1367.8</v>
       </c>
       <c r="C505" s="1">
-        <v>-1451.7</v>
+        <v>-1368.4</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B506" s="1">
-        <v>-1455.5</v>
+        <v>-1368.4</v>
       </c>
       <c r="C506" s="1">
-        <v>-1461.9</v>
+        <v>-1369.7</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B507" s="1">
-        <v>-1469.5</v>
+        <v>-1370.4</v>
       </c>
       <c r="C507" s="1">
-        <v>-1490.9</v>
+        <v>-1371.3</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B508" s="1">
-        <v>-1490.9</v>
+        <v>-1372</v>
       </c>
       <c r="C508" s="1">
-        <v>-1492.5</v>
+        <v>-1383.1</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B509" s="1">
-        <v>-1492.5</v>
+        <v>-1383.7</v>
       </c>
       <c r="C509" s="1">
-        <v>-1504.5</v>
+        <v>-1384.4</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B510" s="1">
-        <v>-1504.5</v>
+        <v>-1384.4</v>
       </c>
       <c r="C510" s="1">
-        <v>-1505.9</v>
+        <v>-1385.3</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B511" s="1">
-        <v>-1505.9</v>
+        <v>-1385.8</v>
       </c>
       <c r="C511" s="1">
-        <v>-1512.5</v>
+        <v>-1388.1</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B512" s="1">
-        <v>-1515.7</v>
+        <v>-1388.1</v>
       </c>
       <c r="C512" s="1">
-        <v>-1517.5</v>
+        <v>-1390.4</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B513" s="1">
-        <v>-1521.1000000000001</v>
+        <v>-1390.4</v>
       </c>
       <c r="C513" s="1">
-        <v>-1528.7</v>
+        <v>-1394.9</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B514" s="1">
-        <v>-1528.7</v>
+        <v>-1395.7</v>
       </c>
       <c r="C514" s="1">
-        <v>-1529.9</v>
+        <v>-1396.8</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B515" s="1">
-        <v>-1529.9</v>
+        <v>-1397.4</v>
       </c>
       <c r="C515" s="1">
-        <v>-1531.9</v>
+        <v>-1398.2</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B516" s="1">
-        <v>-1534.1000000000001</v>
+        <v>-1399</v>
       </c>
       <c r="C516" s="1">
-        <v>-1536.9</v>
+        <v>-1403.9</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B517" s="1">
-        <v>-1538.7</v>
+        <v>-1405.2</v>
       </c>
       <c r="C517" s="1">
-        <v>-1542.7</v>
+        <v>-1406.6</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B518" s="1">
-        <v>-1542.7</v>
+        <v>-1409.9</v>
       </c>
       <c r="C518" s="1">
-        <v>-1545.7</v>
+        <v>-1413.3</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B519" s="1">
-        <v>-1545.7</v>
+        <v>-1414.5</v>
       </c>
       <c r="C519" s="1">
-        <v>-1547.9</v>
+        <v>-1416.3</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B520" s="1">
-        <v>-1550.9</v>
+        <v>-1417.1</v>
       </c>
       <c r="C520" s="1">
-        <v>-1563.1000000000001</v>
+        <v>-1417.9</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B521" s="1">
-        <v>-1567.9</v>
+        <v>-1418.6</v>
       </c>
       <c r="C521" s="1">
-        <v>-1576.9</v>
+        <v>-1419.9</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B522" s="1">
-        <v>-1578.9</v>
+        <v>-1420.4</v>
       </c>
       <c r="C522" s="1">
-        <v>-1589.9</v>
+        <v>-1421.6</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B523" s="1">
-        <v>-1591.3000000000002</v>
+        <v>-1421.6</v>
       </c>
       <c r="C523" s="1">
-        <v>-1602.5</v>
+        <v>-1422.7</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B524" s="1">
-        <v>-1602.5</v>
+        <v>-1430.4</v>
       </c>
       <c r="C524" s="1">
-        <v>-1604.9</v>
+        <v>-1431.3</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B525" s="1">
+        <v>-1431.9</v>
+      </c>
+      <c r="C525" s="1">
+        <v>-1437.5</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B526" s="1">
+        <v>-1446.9</v>
+      </c>
+      <c r="C526" s="1">
+        <v>-1448</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B527" s="1">
+        <v>-1448</v>
+      </c>
+      <c r="C527" s="1">
+        <v>-1448.9</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B528" s="1">
+        <v>-1450</v>
+      </c>
+      <c r="C528" s="1">
+        <v>-1450.6</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B529" s="1">
+        <v>-1451</v>
+      </c>
+      <c r="C529" s="1">
+        <v>-1451.5</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B530" s="1">
+        <v>-1451.9</v>
+      </c>
+      <c r="C530" s="1">
+        <v>-1452.9</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B531" s="1">
+        <v>-1453.7</v>
+      </c>
+      <c r="C531" s="1">
+        <v>-1456.6</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B532" s="1">
+        <v>-1457.5</v>
+      </c>
+      <c r="C532" s="1">
+        <v>-1458</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B533" s="1">
+        <v>-1458.4</v>
+      </c>
+      <c r="C533" s="1">
+        <v>-1459.4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B534" s="1">
+        <v>-1460</v>
+      </c>
+      <c r="C534" s="1">
+        <v>-1461.1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B535" s="1">
+        <v>-1461.1</v>
+      </c>
+      <c r="C535" s="1">
+        <v>-1462.5</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B536" s="1">
+        <v>-1463.2</v>
+      </c>
+      <c r="C536" s="1">
+        <v>-1464.7</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B537" s="1">
+        <v>-1464.7</v>
+      </c>
+      <c r="C537" s="1">
+        <v>-1466</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B538" s="1">
+        <v>-1466</v>
+      </c>
+      <c r="C538" s="1">
+        <v>-1467.4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B539" s="1">
+        <v>-1469</v>
+      </c>
+      <c r="C539" s="1">
+        <v>-1471.1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B540" s="1">
+        <v>-1471.8</v>
+      </c>
+      <c r="C540" s="1">
+        <v>-1474.2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B541" s="1">
+        <v>-1474.7</v>
+      </c>
+      <c r="C541" s="1">
+        <v>-1475.5</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B542" s="1">
+        <v>-1476.3</v>
+      </c>
+      <c r="C542" s="1">
+        <v>-1477.1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B543" s="1">
+        <v>-1478.2</v>
+      </c>
+      <c r="C543" s="1">
+        <v>-1479.4</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B544" s="1">
+        <v>-1479.4</v>
+      </c>
+      <c r="C544" s="1">
+        <v>-1480.2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B545" s="1">
+        <v>-1481.6</v>
+      </c>
+      <c r="C545" s="1">
+        <v>-1486.6</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B546" s="1">
+        <v>-1488.5</v>
+      </c>
+      <c r="C546" s="1">
+        <v>-1490.6</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B547" s="1">
+        <v>-1492.3</v>
+      </c>
+      <c r="C547" s="1">
+        <v>-1494.7</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B548" s="1">
+        <v>-1495.3</v>
+      </c>
+      <c r="C548" s="1">
+        <v>-1496.3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B549" s="1">
+        <v>-1496.3</v>
+      </c>
+      <c r="C549" s="1">
+        <v>-1503.2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B550" s="1">
+        <v>-1505.2</v>
+      </c>
+      <c r="C550" s="1">
+        <v>-1507.7</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B551" s="1">
+        <v>-1507.7</v>
+      </c>
+      <c r="C551" s="1">
+        <v>-1513</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B552" s="1">
+        <v>-1513</v>
+      </c>
+      <c r="C552" s="1">
+        <v>-1514.9</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B553" s="1">
+        <v>-1514.9</v>
+      </c>
+      <c r="C553" s="1">
+        <v>-1516.6</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B554" s="1">
+        <v>-1516.6</v>
+      </c>
+      <c r="C554" s="1">
+        <v>-1517.7</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B555" s="1">
+        <v>-1518.3</v>
+      </c>
+      <c r="C555" s="1">
+        <v>-1519</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B556" s="1">
+        <v>-1519.4</v>
+      </c>
+      <c r="C556" s="1">
+        <v>-1520.6</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B557" s="1">
+        <v>-1522.6</v>
+      </c>
+      <c r="C557" s="1">
+        <v>-1523.6</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B558" s="1">
+        <v>-1526.6</v>
+      </c>
+      <c r="C558" s="1">
+        <v>-1527.5</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B559" s="1">
+        <v>-1528.4</v>
+      </c>
+      <c r="C559" s="1">
+        <v>-1530.5</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B560" s="1">
+        <v>-1531.3</v>
+      </c>
+      <c r="C560" s="1">
+        <v>-1533.2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B561" s="1">
+        <v>-1533.2</v>
+      </c>
+      <c r="C561" s="1">
+        <v>-1534.2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B562" s="1">
+        <v>-1534.2</v>
+      </c>
+      <c r="C562" s="1">
+        <v>-1534.9</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B563" s="1">
+        <v>-1534.9</v>
+      </c>
+      <c r="C563" s="1">
+        <v>-1537.6</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B564" s="1">
+        <v>-1537.6</v>
+      </c>
+      <c r="C564" s="1">
+        <v>-1538.7</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B565" s="1">
+        <v>-1538.7</v>
+      </c>
+      <c r="C565" s="1">
+        <v>-1540.9</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B566" s="1">
+        <v>-1540.9</v>
+      </c>
+      <c r="C566" s="1">
+        <v>-1543.5</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B567" s="1">
+        <v>-1544.1</v>
+      </c>
+      <c r="C567" s="1">
+        <v>-1545.7</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B568" s="1">
+        <v>-1546.3</v>
+      </c>
+      <c r="C568" s="1">
+        <v>-1547.5</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B569" s="1">
+        <v>-1548.7</v>
+      </c>
+      <c r="C569" s="1">
+        <v>-1550.2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B570" s="1">
+        <v>-1550.2</v>
+      </c>
+      <c r="C570" s="1">
+        <v>-1551.7</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B571" s="1">
+        <v>-1551.7</v>
+      </c>
+      <c r="C571" s="1">
+        <v>-1554.1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B572" s="1">
+        <v>-1555.8</v>
+      </c>
+      <c r="C572" s="1">
+        <v>-1558.3</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B573" s="1">
+        <v>-1558.3</v>
+      </c>
+      <c r="C573" s="1">
+        <v>-1559.8</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B574" s="1">
+        <v>-1561.3</v>
+      </c>
+      <c r="C574" s="1">
+        <v>-1568.5</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B575" s="1">
+        <v>-1570</v>
+      </c>
+      <c r="C575" s="1">
+        <v>-1573.3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B576" s="1">
+        <v>-1574.1</v>
+      </c>
+      <c r="C576" s="1">
+        <v>-1575.2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B577" s="1">
+        <v>-1575.9</v>
+      </c>
+      <c r="C577" s="1">
+        <v>-1576.7</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B578" s="1">
+        <v>-1577.9</v>
+      </c>
+      <c r="C578" s="1">
+        <v>-1578.7</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B579" s="1">
+        <v>-1579.5</v>
+      </c>
+      <c r="C579" s="1">
+        <v>-1581.1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B580" s="1">
+        <v>-1594.5</v>
+      </c>
+      <c r="C580" s="1">
+        <v>-1595.3</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B581" s="1">
+        <v>-1209.4829999999999</v>
+      </c>
+      <c r="C581" s="1">
+        <v>-1210.876</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B582" s="1">
+        <v>-1213.5650000000001</v>
+      </c>
+      <c r="C582" s="1">
+        <v>-1215.855</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B583" s="1">
+        <v>-1215.855</v>
+      </c>
+      <c r="C583" s="1">
+        <v>-1217.4480000000001</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B584" s="1">
+        <v>-1217.4480000000001</v>
+      </c>
+      <c r="C584" s="1">
+        <v>-1218.643</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B585" s="1">
+        <v>-1218.643</v>
+      </c>
+      <c r="C585" s="1">
+        <v>-1221.0329999999999</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B586" s="1">
+        <v>-1221.0329999999999</v>
+      </c>
+      <c r="C586" s="1">
+        <v>-1222.7270000000001</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B587" s="1">
+        <v>-1222.7270000000001</v>
+      </c>
+      <c r="C587" s="1">
+        <v>-1224.021</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B588" s="1">
+        <v>-1224.021</v>
+      </c>
+      <c r="C588" s="1">
+        <v>-1226.213</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B589" s="1">
+        <v>-1227.308</v>
+      </c>
+      <c r="C589" s="1">
+        <v>-1228.703</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B590" s="1">
+        <v>-1230.396</v>
+      </c>
+      <c r="C590" s="1">
+        <v>-1232.3879999999999</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B591" s="1">
+        <v>-1234.181</v>
+      </c>
+      <c r="C591" s="1">
+        <v>-1236.2729999999999</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B592" s="1">
+        <v>-1236.2729999999999</v>
+      </c>
+      <c r="C592" s="1">
+        <v>-1238.066</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B593" s="1">
+        <v>-1238.066</v>
+      </c>
+      <c r="C593" s="1">
+        <v>-1239.0630000000001</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B594" s="1">
+        <v>-1239.0630000000001</v>
+      </c>
+      <c r="C594" s="1">
+        <v>-1240.6569999999999</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B595" s="1">
+        <v>-1240.6569999999999</v>
+      </c>
+      <c r="C595" s="1">
+        <v>-1241.5530000000001</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B596" s="1">
+        <v>-1241.5530000000001</v>
+      </c>
+      <c r="C596" s="1">
+        <v>-1243.2470000000001</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B597" s="1">
+        <v>-1244.742</v>
+      </c>
+      <c r="C597" s="1">
+        <v>-1245.539</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B598" s="1">
+        <v>-1251.4190000000001</v>
+      </c>
+      <c r="C598" s="1">
+        <v>-1252.615</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B599" s="1">
+        <v>-1257.598</v>
+      </c>
+      <c r="C599" s="1">
+        <v>-1258.7940000000001</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B600" s="1">
+        <v>-1259.7909999999999</v>
+      </c>
+      <c r="C600" s="1">
+        <v>-1260.588</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B601" s="1">
+        <v>-1261.1859999999999</v>
+      </c>
+      <c r="C601" s="1">
+        <v>-1262.5809999999999</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B602" s="1">
+        <v>-1263.1790000000001</v>
+      </c>
+      <c r="C602" s="1">
+        <v>-1264.675</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B603" s="1">
+        <v>-1264.675</v>
+      </c>
+      <c r="C603" s="1">
+        <v>-1265.771</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B604" s="1">
+        <v>-1267.1659999999999</v>
+      </c>
+      <c r="C604" s="1">
+        <v>-1268.2629999999999</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B605" s="1">
+        <v>-1268.2629999999999</v>
+      </c>
+      <c r="C605" s="1">
+        <v>-1270.4559999999999</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B606" s="1">
+        <v>-1270.4559999999999</v>
+      </c>
+      <c r="C606" s="1">
+        <v>-1272.25</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B607" s="1">
+        <v>-1272.25</v>
+      </c>
+      <c r="C607" s="1">
+        <v>-1274.942</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B608" s="1">
+        <v>-1274.942</v>
+      </c>
+      <c r="C608" s="1">
+        <v>-1275.6400000000001</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B609" s="1">
+        <v>-1275.6400000000001</v>
+      </c>
+      <c r="C609" s="1">
+        <v>-1277.7339999999999</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B610" s="1">
+        <v>-1277.7339999999999</v>
+      </c>
+      <c r="C610" s="1">
+        <v>-1279.4290000000001</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B611" s="1">
+        <v>-1282.52</v>
+      </c>
+      <c r="C611" s="1">
+        <v>-1283.318</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B612" s="1">
+        <v>-1283.318</v>
+      </c>
+      <c r="C612" s="1">
+        <v>-1284.3150000000001</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B613" s="1">
+        <v>-1284.3150000000001</v>
+      </c>
+      <c r="C613" s="1">
+        <v>-1285.9100000000001</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B614" s="1">
+        <v>-1288.5029999999999</v>
+      </c>
+      <c r="C614" s="1">
+        <v>-1289.8989999999999</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B615" s="1">
+        <v>-1293.3900000000001</v>
+      </c>
+      <c r="C615" s="1">
+        <v>-1295.085</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B616" s="1">
+        <v>-1295.085</v>
+      </c>
+      <c r="C616" s="1">
+        <v>-1295.883</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B617" s="1">
+        <v>-1295.883</v>
+      </c>
+      <c r="C617" s="1">
+        <v>-1296.981</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B618" s="1">
+        <v>-1296.981</v>
+      </c>
+      <c r="C618" s="1">
+        <v>-1297.778</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B619" s="1">
+        <v>-1297.778</v>
+      </c>
+      <c r="C619" s="1">
+        <v>-1299.175</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B620" s="1">
+        <v>-1299.175</v>
+      </c>
+      <c r="C620" s="1">
+        <v>-1300.3720000000001</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B621" s="1">
+        <v>-1300.3720000000001</v>
+      </c>
+      <c r="C621" s="1">
+        <v>-1301.4690000000001</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B622" s="1">
+        <v>-1301.4690000000001</v>
+      </c>
+      <c r="C622" s="1">
+        <v>-1302.567</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B623" s="1">
+        <v>-1302.567</v>
+      </c>
+      <c r="C623" s="1">
+        <v>-1303.664</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B624" s="1">
+        <v>-1303.664</v>
+      </c>
+      <c r="C624" s="1">
+        <v>-1304.462</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B625" s="1">
+        <v>-1304.462</v>
+      </c>
+      <c r="C625" s="1">
+        <v>-1305.9580000000001</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B626" s="1">
+        <v>-1305.9580000000001</v>
+      </c>
+      <c r="C626" s="1">
+        <v>-1307.1559999999999</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B627" s="1">
+        <v>-1307.1559999999999</v>
+      </c>
+      <c r="C627" s="1">
+        <v>-1308.752</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B628" s="1">
+        <v>-1308.752</v>
+      </c>
+      <c r="C628" s="1">
+        <v>-1309.45</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B629" s="1">
+        <v>-1309.45</v>
+      </c>
+      <c r="C629" s="1">
+        <v>-1311.4459999999999</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B630" s="1">
+        <v>-1311.4459999999999</v>
+      </c>
+      <c r="C630" s="1">
+        <v>-1313.6410000000001</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B631" s="1">
+        <v>-1313.6410000000001</v>
+      </c>
+      <c r="C631" s="1">
+        <v>-1314.4390000000001</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B632" s="1">
+        <v>-1317.732</v>
+      </c>
+      <c r="C632" s="1">
+        <v>-1319.7270000000001</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B633" s="1">
+        <v>-1320.7249999999999</v>
+      </c>
+      <c r="C633" s="1">
+        <v>-1321.623</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B634" s="1">
+        <v>-1323.6189999999999</v>
+      </c>
+      <c r="C634" s="1">
+        <v>-1325.415</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B635" s="1">
+        <v>-1325.415</v>
+      </c>
+      <c r="C635" s="1">
+        <v>-1327.511</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B636" s="1">
+        <v>-1327.511</v>
+      </c>
+      <c r="C636" s="1">
+        <v>-1328.6079999999999</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B637" s="1">
+        <v>-1328.6079999999999</v>
+      </c>
+      <c r="C637" s="1">
+        <v>-1331.403</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B638" s="1">
+        <v>-1331.403</v>
+      </c>
+      <c r="C638" s="1">
+        <v>-1332.7</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B639" s="1">
+        <v>-1332.7</v>
+      </c>
+      <c r="C639" s="1">
+        <v>-1333.798</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B640" s="1">
+        <v>-1333.798</v>
+      </c>
+      <c r="C640" s="1">
+        <v>-1335.694</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B641" s="1">
+        <v>-1335.694</v>
+      </c>
+      <c r="C641" s="1">
+        <v>-1336.8920000000001</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B642" s="1">
+        <v>-1336.8920000000001</v>
+      </c>
+      <c r="C642" s="1">
+        <v>-1337.99</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B643" s="1">
+        <v>-1337.99</v>
+      </c>
+      <c r="C643" s="1">
+        <v>-1339.087</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B644" s="1">
+        <v>-1339.087</v>
+      </c>
+      <c r="C644" s="1">
+        <v>-1340.2850000000001</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B645" s="1">
+        <v>-1340.2850000000001</v>
+      </c>
+      <c r="C645" s="1">
+        <v>-1341.7819999999999</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B646" s="1">
+        <v>-1341.7819999999999</v>
+      </c>
+      <c r="C646" s="1">
+        <v>-1342.3810000000001</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B647" s="1">
+        <v>-1342.3810000000001</v>
+      </c>
+      <c r="C647" s="1">
+        <v>-1349.867</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B648" s="1">
+        <v>-1349.867</v>
+      </c>
+      <c r="C648" s="1">
+        <v>-1351.4639999999999</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B649" s="1">
+        <v>-1351.4639999999999</v>
+      </c>
+      <c r="C649" s="1">
+        <v>-1353.86</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B650" s="1">
+        <v>-1353.86</v>
+      </c>
+      <c r="C650" s="1">
+        <v>-1357.0550000000001</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B651" s="1">
+        <v>-1357.0550000000001</v>
+      </c>
+      <c r="C651" s="1">
+        <v>-1358.3530000000001</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B652" s="1">
+        <v>-1358.3530000000001</v>
+      </c>
+      <c r="C652" s="1">
+        <v>-1359.451</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B653" s="1">
+        <v>-1359.451</v>
+      </c>
+      <c r="C653" s="1">
+        <v>-1361.547</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B654" s="1">
+        <v>-1362.4459999999999</v>
+      </c>
+      <c r="C654" s="1">
+        <v>-1366.44</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B655" s="1">
+        <v>-1366.44</v>
+      </c>
+      <c r="C655" s="1">
+        <v>-1367.1389999999999</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B656" s="1">
+        <v>-1367.1389999999999</v>
+      </c>
+      <c r="C656" s="1">
+        <v>-1367.7380000000001</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B657" s="1">
+        <v>-1367.7380000000001</v>
+      </c>
+      <c r="C657" s="1">
+        <v>-1368.4369999999999</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B658" s="1">
+        <v>-1368.4369999999999</v>
+      </c>
+      <c r="C658" s="1">
+        <v>-1372.231</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B659" s="1">
+        <v>-1372.231</v>
+      </c>
+      <c r="C659" s="1">
+        <v>-1373.43</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B660" s="1">
+        <v>-1373.43</v>
+      </c>
+      <c r="C660" s="1">
+        <v>-1375.627</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B661" s="1">
+        <v>-1375.627</v>
+      </c>
+      <c r="C661" s="1">
+        <v>-1376.626</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B662" s="1">
+        <v>-1376.626</v>
+      </c>
+      <c r="C662" s="1">
+        <v>-1378.3240000000001</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B663" s="1">
+        <v>-1378.3240000000001</v>
+      </c>
+      <c r="C663" s="1">
+        <v>-1380.1210000000001</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B664" s="1">
+        <v>-1380.1210000000001</v>
+      </c>
+      <c r="C664" s="1">
+        <v>-1383.318</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B665" s="1">
+        <v>-1383.318</v>
+      </c>
+      <c r="C665" s="1">
+        <v>-1384.116</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B666" s="1">
+        <v>-1384.116</v>
+      </c>
+      <c r="C666" s="1">
+        <v>-1385.0160000000001</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B667" s="1">
+        <v>-1386.3140000000001</v>
+      </c>
+      <c r="C667" s="1">
+        <v>-1387.413</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B668" s="1">
+        <v>-1388.1120000000001</v>
+      </c>
+      <c r="C668" s="1">
+        <v>-1390.509</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B669" s="1">
+        <v>-1390.509</v>
+      </c>
+      <c r="C669" s="1">
+        <v>-1392.9059999999999</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B670" s="1">
+        <v>-1394.105</v>
+      </c>
+      <c r="C670" s="1">
+        <v>-1395.3040000000001</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B671" s="1">
+        <v>-1395.3040000000001</v>
+      </c>
+      <c r="C671" s="1">
+        <v>-1396.902</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B672" s="1">
+        <v>-1396.902</v>
+      </c>
+      <c r="C672" s="1">
+        <v>-1399.799</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B673" s="1">
+        <v>-1399.799</v>
+      </c>
+      <c r="C673" s="1">
+        <v>-1400.998</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B674" s="1">
+        <v>-1400.998</v>
+      </c>
+      <c r="C674" s="1">
+        <v>-1405.4929999999999</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B675" s="1">
+        <v>-1406.5920000000001</v>
+      </c>
+      <c r="C675" s="1">
+        <v>-1407.491</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B676" s="1">
+        <v>-1407.491</v>
+      </c>
+      <c r="C676" s="1">
+        <v>-1408.19</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B677" s="1">
+        <v>-1408.19</v>
+      </c>
+      <c r="C677" s="1">
+        <v>-1408.79</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B678" s="1">
+        <v>-1408.79</v>
+      </c>
+      <c r="C678" s="1">
+        <v>-1409.3889999999999</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B679" s="1">
+        <v>-1409.3889999999999</v>
+      </c>
+      <c r="C679" s="1">
+        <v>-1410.288</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B680" s="1">
+        <v>-1410.288</v>
+      </c>
+      <c r="C680" s="1">
+        <v>-1411.087</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B681" s="1">
+        <v>-1411.087</v>
+      </c>
+      <c r="C681" s="1">
+        <v>-1412.4860000000001</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B682" s="1">
+        <v>-1412.4860000000001</v>
+      </c>
+      <c r="C682" s="1">
+        <v>-1413.6849999999999</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B683" s="1">
+        <v>-1413.6849999999999</v>
+      </c>
+      <c r="C683" s="1">
+        <v>-1414.2840000000001</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B684" s="1">
+        <v>-1414.2840000000001</v>
+      </c>
+      <c r="C684" s="1">
+        <v>-1414.7840000000001</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B685" s="1">
+        <v>-1416.2819999999999</v>
+      </c>
+      <c r="C685" s="1">
+        <v>-1417.0809999999999</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B686" s="1">
+        <v>-1417.0809999999999</v>
+      </c>
+      <c r="C686" s="1">
+        <v>-1421.577</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B687" s="1">
+        <v>-1421.577</v>
+      </c>
+      <c r="C687" s="1">
+        <v>-1426.373</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B688" s="1">
+        <v>-1426.373</v>
+      </c>
+      <c r="C688" s="1">
+        <v>-1428.771</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B689" s="1">
+        <v>-1428.771</v>
+      </c>
+      <c r="C689" s="1">
+        <v>-1431.1690000000001</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B690" s="1">
+        <v>-1432.1679999999999</v>
+      </c>
+      <c r="C690" s="1">
+        <v>-1433.866</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B691" s="1">
+        <v>-1433.866</v>
+      </c>
+      <c r="C691" s="1">
+        <v>-1434.6659999999999</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B692" s="1">
+        <v>-1434.6659999999999</v>
+      </c>
+      <c r="C692" s="1">
+        <v>-1435.165</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B693" s="1">
+        <v>-1435.865</v>
+      </c>
+      <c r="C693" s="1">
+        <v>-1436.864</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B694" s="1">
+        <v>-1436.864</v>
+      </c>
+      <c r="C694" s="1">
+        <v>-1439.3620000000001</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B695" s="1">
+        <v>-1439.3620000000001</v>
+      </c>
+      <c r="C695" s="1">
+        <v>-1440.1610000000001</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B696" s="1">
+        <v>-1440.1610000000001</v>
+      </c>
+      <c r="C696" s="1">
+        <v>-1442.8589999999999</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B697" s="1">
+        <v>-1442.8589999999999</v>
+      </c>
+      <c r="C697" s="1">
+        <v>-1444.1579999999999</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B698" s="1">
+        <v>-1444.1579999999999</v>
+      </c>
+      <c r="C698" s="1">
+        <v>-1445.6569999999999</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B699" s="1">
+        <v>-1446.6559999999999</v>
+      </c>
+      <c r="C699" s="1">
+        <v>-1447.7550000000001</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B700" s="1">
+        <v>-1447.7550000000001</v>
+      </c>
+      <c r="C700" s="1">
+        <v>-1449.654</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B701" s="1">
+        <v>-1449.654</v>
+      </c>
+      <c r="C701" s="1">
+        <v>-1450.653</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B702" s="1">
+        <v>-1452.0519999999999</v>
+      </c>
+      <c r="C702" s="1">
+        <v>-1452.8510000000001</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B703" s="1">
+        <v>-1461.7439999999999</v>
+      </c>
+      <c r="C703" s="1">
+        <v>-1463.0429999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6213,10 +8176,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6245,53 +8208,53 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>44.19</v>
+        <v>55.8</v>
       </c>
       <c r="C2" s="1">
         <v>3200</v>
       </c>
       <c r="D2" s="1">
-        <v>13555210.760105699</v>
+        <v>13595175</v>
       </c>
       <c r="E2" s="1">
-        <v>6741187.0110422</v>
+        <v>7377120</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
+      <c r="A3" s="1">
+        <v>30</v>
       </c>
       <c r="B3" s="1">
-        <v>45.1</v>
+        <v>52.8</v>
       </c>
       <c r="C3" s="1">
         <v>3200</v>
       </c>
       <c r="D3" s="1">
-        <v>13566217.0728589</v>
+        <v>13596580</v>
       </c>
       <c r="E3" s="1">
-        <v>6744021.02294257</v>
+        <v>7387644</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>44.2</v>
+        <v>45.5</v>
       </c>
       <c r="C4" s="1">
         <v>3200</v>
       </c>
       <c r="D4" s="1">
-        <v>13562965.1129051</v>
+        <v>13598965</v>
       </c>
       <c r="E4" s="1">
-        <v>6743459.5140787801</v>
+        <v>7391621</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6299,16 +8262,33 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>45.1</v>
+        <v>29.01</v>
       </c>
       <c r="C5" s="1">
         <v>3200</v>
       </c>
       <c r="D5" s="1">
-        <v>13576602.643458899</v>
+        <v>13602729</v>
       </c>
       <c r="E5" s="1">
-        <v>6739068.5023883898</v>
+        <v>7401107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3200</v>
+      </c>
+      <c r="D6" s="1">
+        <v>13599005</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7404537</v>
       </c>
     </row>
   </sheetData>
@@ -6319,10 +8299,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6349,31 +8329,31 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="2">
-        <v>-924</v>
+        <v>-1223.3</v>
       </c>
       <c r="D2" s="6">
-        <v>-1153</v>
+        <v>-1578.4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
+      <c r="A3" s="1">
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>-910</v>
+        <v>-1216.9000000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-1140</v>
+        <v>-1579.8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6381,139 +8361,41 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>-918</v>
+        <v>-1207.7</v>
       </c>
       <c r="D4" s="1">
-        <v>-1146</v>
+        <v>-1597.6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="5">
-        <v>-922</v>
+        <v>-1209.383</v>
       </c>
       <c r="D5" s="5">
-        <v>-1154</v>
+        <v>-1467.04</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" s="2">
-        <v>-1153</v>
+        <v>-1204.3</v>
       </c>
       <c r="D6" s="5">
-        <v>-1443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2">
-        <v>-1140</v>
-      </c>
-      <c r="D7" s="5">
-        <v>-1431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2">
-        <v>-1146</v>
-      </c>
-      <c r="D8" s="5">
-        <v>-1449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2">
-        <v>-1154</v>
-      </c>
-      <c r="D9" s="5">
-        <v>-1434</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2">
-        <v>-1443</v>
-      </c>
-      <c r="D10" s="5">
-        <v>-1623</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2">
-        <v>-1431</v>
-      </c>
-      <c r="D11" s="5">
-        <v>-1616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2">
-        <v>-1449</v>
-      </c>
-      <c r="D12" s="5">
-        <v>-1630</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2">
-        <v>-1434</v>
-      </c>
-      <c r="D13" s="5">
-        <v>-1628</v>
+        <v>-1595.4</v>
       </c>
     </row>
   </sheetData>
